--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjolivet\Documents\GitHub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15890" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="5" r:id="rId1"/>
     <sheet name="Example" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="184">
   <si>
     <t>POS</t>
   </si>
@@ -358,6 +353,225 @@
   </si>
   <si>
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
+  </si>
+  <si>
+    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
+  </si>
+  <si>
+    <t>THRU</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>STROKES</t>
+  </si>
+  <si>
+    <t>Webb Simpson</t>
+  </si>
+  <si>
+    <t>Abraham Ancer</t>
+  </si>
+  <si>
+    <t>Daniel Berger</t>
+  </si>
+  <si>
+    <t>Tyrrell Hatton</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Sergio Garcia</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>J.T. Poston</t>
+  </si>
+  <si>
+    <t>Bryson DeChambeau</t>
+  </si>
+  <si>
+    <t>Michael Thompson</t>
+  </si>
+  <si>
+    <t>Justin Rose</t>
+  </si>
+  <si>
+    <t>Ian Poulter</t>
+  </si>
+  <si>
+    <t>Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>Dustin Johnson</t>
+  </si>
+  <si>
+    <t>Brice Garnett</t>
+  </si>
+  <si>
+    <t>Rory Sabbatini</t>
+  </si>
+  <si>
+    <t>Viktor Hovland</t>
+  </si>
+  <si>
+    <t>Alex Noren</t>
+  </si>
+  <si>
+    <t>Corey Conners</t>
+  </si>
+  <si>
+    <t>Erik van Rooyen</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>Brian Harman</t>
+  </si>
+  <si>
+    <t>Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t>Sebastián Muñoz</t>
+  </si>
+  <si>
+    <t>Tyler Duncan</t>
+  </si>
+  <si>
+    <t>Chris Stroud</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>Jim Herman</t>
+  </si>
+  <si>
+    <t>Sepp Straka</t>
+  </si>
+  <si>
+    <t>Mark Hubbard</t>
+  </si>
+  <si>
+    <t>Andrew Landry</t>
+  </si>
+  <si>
+    <t>Carlos Ortiz</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>Adam Hadwin</t>
+  </si>
+  <si>
+    <t>Charl Schwartzel</t>
+  </si>
+  <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>Ernie Els</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>Brian Stuard</t>
+  </si>
+  <si>
+    <t>C.T. Pan</t>
+  </si>
+  <si>
+    <t>Vaughn Taylor</t>
+  </si>
+  <si>
+    <t>T58</t>
+  </si>
+  <si>
+    <t>Bernhard Langer</t>
+  </si>
+  <si>
+    <t>Chesson Hadley</t>
+  </si>
+  <si>
+    <t>Branden Grace</t>
+  </si>
+  <si>
+    <t>T62</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>T64</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Wesley Bryan</t>
+  </si>
+  <si>
+    <t>T70</t>
+  </si>
+  <si>
+    <t>Danny Lee</t>
+  </si>
+  <si>
+    <t>Troy Merritt</t>
+  </si>
+  <si>
+    <t>Peter Malnati</t>
+  </si>
+  <si>
+    <t>Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t>T74</t>
+  </si>
+  <si>
+    <t>Ryan Armour</t>
+  </si>
+  <si>
+    <t>Chez Reavie</t>
   </si>
 </sst>
 </file>
@@ -463,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,6 +690,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,53 +982,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -817,793 +1040,3193 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K2" s="2"/>
-      <c r="L2" s="4">
-        <f>IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
-        <v>0</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-7</v>
+      </c>
+      <c r="F2" s="6">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6">
+        <v>65</v>
+      </c>
+      <c r="H2" s="6">
+        <v>68</v>
+      </c>
+      <c r="I2" s="6">
+        <v>64</v>
+      </c>
+      <c r="J2" s="6">
+        <v>262</v>
+      </c>
+      <c r="K2" s="8">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
+        <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K3" s="2"/>
-      <c r="L3" s="4">
-        <f>IF(LEFT(A3,1)="T",RIGHT(A3,LEN(A3)-1),A3)</f>
-        <v>0</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>69</v>
+      </c>
+      <c r="G3" s="6">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6">
+        <v>263</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <f>IF(LEFT(A4,1)="T",RIGHT(A4,LEN(A4)-1),A4)</f>
-        <v>0</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6">
+        <v>63</v>
+      </c>
+      <c r="I4" s="6">
+        <v>65</v>
+      </c>
+      <c r="J4" s="6">
+        <v>264</v>
+      </c>
+      <c r="K4" s="8">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K5" s="2"/>
-      <c r="L5" s="4">
-        <f>IF(LEFT(A5,1)="T",RIGHT(A5,LEN(A5)-1),A5)</f>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6">
+        <v>64</v>
+      </c>
+      <c r="H5" s="6">
+        <v>63</v>
+      </c>
+      <c r="I5" s="6">
+        <v>66</v>
+      </c>
+      <c r="J5" s="6">
+        <v>264</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6">
+        <v>65</v>
+      </c>
+      <c r="H6" s="6">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6">
+        <v>65</v>
+      </c>
+      <c r="J6" s="6">
+        <v>265</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6">
+        <v>63</v>
+      </c>
+      <c r="I7" s="6">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6">
+        <v>265</v>
+      </c>
+      <c r="K7" s="8">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>67</v>
+      </c>
+      <c r="G8" s="6">
+        <v>66</v>
+      </c>
+      <c r="H8" s="6">
+        <v>68</v>
+      </c>
+      <c r="I8" s="6">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6">
+        <v>266</v>
+      </c>
+      <c r="K8" s="8">
+        <v>8</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>65</v>
+      </c>
+      <c r="G9" s="6">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6">
+        <v>62</v>
+      </c>
+      <c r="J9" s="6">
+        <v>267</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+      <c r="L9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>72</v>
+      </c>
+      <c r="G10" s="6">
+        <v>66</v>
+      </c>
+      <c r="H10" s="6">
+        <v>66</v>
+      </c>
+      <c r="I10" s="6">
+        <v>63</v>
+      </c>
+      <c r="J10" s="6">
+        <v>267</v>
+      </c>
+      <c r="K10" s="8">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6">
+        <v>69</v>
+      </c>
+      <c r="H11" s="6">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6">
+        <v>267</v>
+      </c>
+      <c r="K11" s="8">
+        <v>8</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>67</v>
+      </c>
+      <c r="G12" s="6">
+        <v>64</v>
+      </c>
+      <c r="H12" s="6">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6">
+        <v>66</v>
+      </c>
+      <c r="J12" s="6">
+        <v>267</v>
+      </c>
+      <c r="K12" s="8">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6">
+        <v>69</v>
+      </c>
+      <c r="H13" s="6">
+        <v>66</v>
+      </c>
+      <c r="I13" s="6">
+        <v>67</v>
+      </c>
+      <c r="J13" s="6">
+        <v>267</v>
+      </c>
+      <c r="K13" s="8">
+        <v>8</v>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>65</v>
+      </c>
+      <c r="G14" s="6">
+        <v>67</v>
+      </c>
+      <c r="H14" s="6">
+        <v>66</v>
+      </c>
+      <c r="I14" s="6">
+        <v>69</v>
+      </c>
+      <c r="J14" s="6">
+        <v>267</v>
+      </c>
+      <c r="K14" s="8">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6">
+        <v>66</v>
+      </c>
+      <c r="I15" s="6">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6">
+        <v>268</v>
+      </c>
+      <c r="K15" s="8">
+        <v>8</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>64</v>
+      </c>
+      <c r="G16" s="6">
+        <v>69</v>
+      </c>
+      <c r="H16" s="6">
+        <v>67</v>
+      </c>
+      <c r="I16" s="6">
+        <v>68</v>
+      </c>
+      <c r="J16" s="6">
+        <v>268</v>
+      </c>
+      <c r="K16" s="8">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>66</v>
+      </c>
+      <c r="G17" s="6">
+        <v>66</v>
+      </c>
+      <c r="H17" s="6">
+        <v>68</v>
+      </c>
+      <c r="I17" s="6">
+        <v>68</v>
+      </c>
+      <c r="J17" s="6">
+        <v>268</v>
+      </c>
+      <c r="K17" s="8">
+        <v>8</v>
+      </c>
+      <c r="L17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6">
+        <v>70</v>
+      </c>
+      <c r="H18" s="6">
+        <v>68</v>
+      </c>
+      <c r="I18" s="6">
+        <v>64</v>
+      </c>
+      <c r="J18" s="6">
+        <v>269</v>
+      </c>
+      <c r="K18" s="8">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6">
+        <v>63</v>
+      </c>
+      <c r="H19" s="6">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6">
+        <v>67</v>
+      </c>
+      <c r="J19" s="6">
+        <v>269</v>
+      </c>
+      <c r="K19" s="8">
+        <v>8</v>
+      </c>
+      <c r="L19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>68</v>
+      </c>
+      <c r="G20" s="6">
+        <v>66</v>
+      </c>
+      <c r="H20" s="6">
+        <v>67</v>
+      </c>
+      <c r="I20" s="6">
+        <v>68</v>
+      </c>
+      <c r="J20" s="6">
+        <v>269</v>
+      </c>
+      <c r="K20" s="8">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>65</v>
+      </c>
+      <c r="G21" s="6">
+        <v>71</v>
+      </c>
+      <c r="H21" s="6">
+        <v>65</v>
+      </c>
+      <c r="I21" s="6">
+        <v>68</v>
+      </c>
+      <c r="J21" s="6">
+        <v>269</v>
+      </c>
+      <c r="K21" s="8">
+        <v>8</v>
+      </c>
+      <c r="L21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>70</v>
+      </c>
+      <c r="G22" s="6">
+        <v>67</v>
+      </c>
+      <c r="H22" s="6">
+        <v>68</v>
+      </c>
+      <c r="I22" s="6">
+        <v>65</v>
+      </c>
+      <c r="J22" s="6">
+        <v>270</v>
+      </c>
+      <c r="K22" s="8">
+        <v>8</v>
+      </c>
+      <c r="L22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>65</v>
+      </c>
+      <c r="G23" s="6">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6">
+        <v>68</v>
+      </c>
+      <c r="I23" s="6">
+        <v>66</v>
+      </c>
+      <c r="J23" s="6">
+        <v>270</v>
+      </c>
+      <c r="K23" s="8">
+        <v>8</v>
+      </c>
+      <c r="L23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>69</v>
+      </c>
+      <c r="G24" s="6">
+        <v>68</v>
+      </c>
+      <c r="H24" s="6">
+        <v>66</v>
+      </c>
+      <c r="I24" s="6">
+        <v>67</v>
+      </c>
+      <c r="J24" s="6">
+        <v>270</v>
+      </c>
+      <c r="K24" s="8">
+        <v>8</v>
+      </c>
+      <c r="L24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>72</v>
+      </c>
+      <c r="G25" s="6">
+        <v>66</v>
+      </c>
+      <c r="H25" s="6">
+        <v>65</v>
+      </c>
+      <c r="I25" s="6">
+        <v>67</v>
+      </c>
+      <c r="J25" s="6">
+        <v>270</v>
+      </c>
+      <c r="K25" s="8">
+        <v>8</v>
+      </c>
+      <c r="L25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>69</v>
+      </c>
+      <c r="G26" s="6">
+        <v>66</v>
+      </c>
+      <c r="H26" s="6">
+        <v>66</v>
+      </c>
+      <c r="I26" s="6">
+        <v>69</v>
+      </c>
+      <c r="J26" s="6">
+        <v>270</v>
+      </c>
+      <c r="K26" s="8">
+        <v>8</v>
+      </c>
+      <c r="L26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>68</v>
+      </c>
+      <c r="G27" s="6">
+        <v>63</v>
+      </c>
+      <c r="H27" s="6">
+        <v>69</v>
+      </c>
+      <c r="I27" s="6">
+        <v>70</v>
+      </c>
+      <c r="J27" s="6">
+        <v>270</v>
+      </c>
+      <c r="K27" s="8">
+        <v>8</v>
+      </c>
+      <c r="L27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>66</v>
+      </c>
+      <c r="G28" s="6">
+        <v>68</v>
+      </c>
+      <c r="H28" s="6">
+        <v>66</v>
+      </c>
+      <c r="I28" s="6">
+        <v>70</v>
+      </c>
+      <c r="J28" s="6">
+        <v>270</v>
+      </c>
+      <c r="K28" s="8">
+        <v>8</v>
+      </c>
+      <c r="L28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F29" s="6">
+        <v>70</v>
+      </c>
+      <c r="G29" s="6">
+        <v>67</v>
+      </c>
+      <c r="H29" s="6">
+        <v>69</v>
+      </c>
+      <c r="I29" s="6">
+        <v>65</v>
+      </c>
+      <c r="J29" s="6">
+        <v>271</v>
+      </c>
+      <c r="K29" s="8">
+        <v>8</v>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>67</v>
+      </c>
+      <c r="G30" s="6">
+        <v>69</v>
+      </c>
+      <c r="H30" s="6">
+        <v>68</v>
+      </c>
+      <c r="I30" s="6">
+        <v>67</v>
+      </c>
+      <c r="J30" s="6">
+        <v>271</v>
+      </c>
+      <c r="K30" s="8">
+        <v>8</v>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>65</v>
+      </c>
+      <c r="G31" s="6">
+        <v>69</v>
+      </c>
+      <c r="H31" s="6">
+        <v>69</v>
+      </c>
+      <c r="I31" s="6">
+        <v>68</v>
+      </c>
+      <c r="J31" s="6">
+        <v>271</v>
+      </c>
+      <c r="K31" s="8">
+        <v>8</v>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>71</v>
+      </c>
+      <c r="G32" s="6">
+        <v>63</v>
+      </c>
+      <c r="H32" s="6">
+        <v>68</v>
+      </c>
+      <c r="I32" s="6">
+        <v>69</v>
+      </c>
+      <c r="J32" s="6">
+        <v>271</v>
+      </c>
+      <c r="K32" s="8">
+        <v>8</v>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>68</v>
+      </c>
+      <c r="G33" s="6">
+        <v>69</v>
+      </c>
+      <c r="H33" s="6">
+        <v>63</v>
+      </c>
+      <c r="I33" s="6">
+        <v>71</v>
+      </c>
+      <c r="J33" s="6">
+        <v>271</v>
+      </c>
+      <c r="K33" s="8">
+        <v>8</v>
+      </c>
+      <c r="L33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>66</v>
+      </c>
+      <c r="G34" s="6">
+        <v>67</v>
+      </c>
+      <c r="H34" s="6">
+        <v>73</v>
+      </c>
+      <c r="I34" s="6">
+        <v>66</v>
+      </c>
+      <c r="J34" s="6">
+        <v>272</v>
+      </c>
+      <c r="K34" s="8">
+        <v>8</v>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>68</v>
+      </c>
+      <c r="G35" s="6">
+        <v>69</v>
+      </c>
+      <c r="H35" s="6">
+        <v>69</v>
+      </c>
+      <c r="I35" s="6">
+        <v>66</v>
+      </c>
+      <c r="J35" s="6">
+        <v>272</v>
+      </c>
+      <c r="K35" s="8">
+        <v>8</v>
+      </c>
+      <c r="L35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>67</v>
+      </c>
+      <c r="G36" s="6">
+        <v>71</v>
+      </c>
+      <c r="H36" s="6">
+        <v>67</v>
+      </c>
+      <c r="I36" s="6">
+        <v>67</v>
+      </c>
+      <c r="J36" s="6">
+        <v>272</v>
+      </c>
+      <c r="K36" s="8">
+        <v>8</v>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>64</v>
+      </c>
+      <c r="G37" s="6">
+        <v>72</v>
+      </c>
+      <c r="H37" s="6">
+        <v>68</v>
+      </c>
+      <c r="I37" s="6">
+        <v>68</v>
+      </c>
+      <c r="J37" s="6">
+        <v>272</v>
+      </c>
+      <c r="K37" s="8">
+        <v>8</v>
+      </c>
+      <c r="L37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>71</v>
+      </c>
+      <c r="G38" s="6">
+        <v>67</v>
+      </c>
+      <c r="H38" s="6">
+        <v>66</v>
+      </c>
+      <c r="I38" s="6">
+        <v>68</v>
+      </c>
+      <c r="J38" s="6">
+        <v>272</v>
+      </c>
+      <c r="K38" s="8">
+        <v>8</v>
+      </c>
+      <c r="L38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>66</v>
+      </c>
+      <c r="G39" s="6">
+        <v>68</v>
+      </c>
+      <c r="H39" s="6">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6">
+        <v>70</v>
+      </c>
+      <c r="J39" s="6">
+        <v>272</v>
+      </c>
+      <c r="K39" s="8">
+        <v>8</v>
+      </c>
+      <c r="L39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>68</v>
+      </c>
+      <c r="G40" s="6">
+        <v>67</v>
+      </c>
+      <c r="H40" s="6">
+        <v>66</v>
+      </c>
+      <c r="I40" s="6">
+        <v>71</v>
+      </c>
+      <c r="J40" s="6">
+        <v>272</v>
+      </c>
+      <c r="K40" s="8">
+        <v>8</v>
+      </c>
+      <c r="L40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>69</v>
+      </c>
+      <c r="G41" s="6">
+        <v>67</v>
+      </c>
+      <c r="H41" s="6">
+        <v>63</v>
+      </c>
+      <c r="I41" s="6">
+        <v>73</v>
+      </c>
+      <c r="J41" s="6">
+        <v>272</v>
+      </c>
+      <c r="K41" s="8">
+        <v>8</v>
+      </c>
+      <c r="L41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F42" s="6">
+        <v>67</v>
+      </c>
+      <c r="G42" s="6">
+        <v>69</v>
+      </c>
+      <c r="H42" s="6">
+        <v>69</v>
+      </c>
+      <c r="I42" s="6">
+        <v>68</v>
+      </c>
+      <c r="J42" s="6">
+        <v>273</v>
+      </c>
+      <c r="K42" s="8">
+        <v>8</v>
+      </c>
+      <c r="L42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F43" s="6">
+        <v>69</v>
+      </c>
+      <c r="G43" s="6">
+        <v>66</v>
+      </c>
+      <c r="H43" s="6">
+        <v>70</v>
+      </c>
+      <c r="I43" s="6">
+        <v>68</v>
+      </c>
+      <c r="J43" s="6">
+        <v>273</v>
+      </c>
+      <c r="K43" s="8">
+        <v>8</v>
+      </c>
+      <c r="L43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>72</v>
+      </c>
+      <c r="G44" s="6">
+        <v>65</v>
+      </c>
+      <c r="H44" s="6">
+        <v>67</v>
+      </c>
+      <c r="I44" s="6">
+        <v>69</v>
+      </c>
+      <c r="J44" s="6">
+        <v>273</v>
+      </c>
+      <c r="K44" s="8">
+        <v>8</v>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>71</v>
+      </c>
+      <c r="G45" s="6">
+        <v>67</v>
+      </c>
+      <c r="H45" s="6">
+        <v>66</v>
+      </c>
+      <c r="I45" s="6">
+        <v>69</v>
+      </c>
+      <c r="J45" s="6">
+        <v>273</v>
+      </c>
+      <c r="K45" s="8">
+        <v>8</v>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>70</v>
+      </c>
+      <c r="G46" s="6">
+        <v>66</v>
+      </c>
+      <c r="H46" s="6">
+        <v>67</v>
+      </c>
+      <c r="I46" s="6">
+        <v>70</v>
+      </c>
+      <c r="J46" s="6">
+        <v>273</v>
+      </c>
+      <c r="K46" s="8">
+        <v>8</v>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>72</v>
+      </c>
+      <c r="G47" s="6">
+        <v>65</v>
+      </c>
+      <c r="H47" s="6">
+        <v>66</v>
+      </c>
+      <c r="I47" s="6">
+        <v>70</v>
+      </c>
+      <c r="J47" s="6">
+        <v>273</v>
+      </c>
+      <c r="K47" s="8">
+        <v>8</v>
+      </c>
+      <c r="L47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-11</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>69</v>
+      </c>
+      <c r="G48" s="6">
+        <v>65</v>
+      </c>
+      <c r="H48" s="6">
+        <v>68</v>
+      </c>
+      <c r="I48" s="6">
+        <v>71</v>
+      </c>
+      <c r="J48" s="6">
+        <v>273</v>
+      </c>
+      <c r="K48" s="8">
+        <v>8</v>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F49" s="6">
+        <v>67</v>
+      </c>
+      <c r="G49" s="6">
+        <v>67</v>
+      </c>
+      <c r="H49" s="6">
+        <v>72</v>
+      </c>
+      <c r="I49" s="6">
+        <v>68</v>
+      </c>
+      <c r="J49" s="6">
+        <v>274</v>
+      </c>
+      <c r="K49" s="8">
+        <v>8</v>
+      </c>
+      <c r="L49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>71</v>
+      </c>
+      <c r="G50" s="6">
+        <v>66</v>
+      </c>
+      <c r="H50" s="6">
+        <v>68</v>
+      </c>
+      <c r="I50" s="6">
+        <v>69</v>
+      </c>
+      <c r="J50" s="6">
+        <v>274</v>
+      </c>
+      <c r="K50" s="8">
+        <v>8</v>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>70</v>
+      </c>
+      <c r="G51" s="6">
+        <v>68</v>
+      </c>
+      <c r="H51" s="6">
+        <v>65</v>
+      </c>
+      <c r="I51" s="6">
+        <v>71</v>
+      </c>
+      <c r="J51" s="6">
+        <v>274</v>
+      </c>
+      <c r="K51" s="8">
+        <v>8</v>
+      </c>
+      <c r="L51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6">
+        <v>68</v>
+      </c>
+      <c r="G52" s="6">
+        <v>68</v>
+      </c>
+      <c r="H52" s="6">
+        <v>63</v>
+      </c>
+      <c r="I52" s="6">
+        <v>75</v>
+      </c>
+      <c r="J52" s="6">
+        <v>274</v>
+      </c>
+      <c r="K52" s="8">
+        <v>8</v>
+      </c>
+      <c r="L52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F53" s="6">
+        <v>69</v>
+      </c>
+      <c r="G53" s="6">
+        <v>68</v>
+      </c>
+      <c r="H53" s="6">
+        <v>73</v>
+      </c>
+      <c r="I53" s="6">
+        <v>65</v>
+      </c>
+      <c r="J53" s="6">
+        <v>275</v>
+      </c>
+      <c r="K53" s="8">
+        <v>8</v>
+      </c>
+      <c r="L53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F54" s="6">
+        <v>68</v>
+      </c>
+      <c r="G54" s="6">
+        <v>70</v>
+      </c>
+      <c r="H54" s="6">
+        <v>70</v>
+      </c>
+      <c r="I54" s="6">
+        <v>67</v>
+      </c>
+      <c r="J54" s="6">
+        <v>275</v>
+      </c>
+      <c r="K54" s="8">
+        <v>8</v>
+      </c>
+      <c r="L54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F55" s="6">
+        <v>69</v>
+      </c>
+      <c r="G55" s="6">
+        <v>68</v>
+      </c>
+      <c r="H55" s="6">
+        <v>70</v>
+      </c>
+      <c r="I55" s="6">
+        <v>68</v>
+      </c>
+      <c r="J55" s="6">
+        <v>275</v>
+      </c>
+      <c r="K55" s="8">
+        <v>8</v>
+      </c>
+      <c r="L55" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>68</v>
+      </c>
+      <c r="G56" s="6">
+        <v>68</v>
+      </c>
+      <c r="H56" s="6">
+        <v>70</v>
+      </c>
+      <c r="I56" s="6">
+        <v>69</v>
+      </c>
+      <c r="J56" s="6">
+        <v>275</v>
+      </c>
+      <c r="K56" s="8">
+        <v>8</v>
+      </c>
+      <c r="L56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F57" s="6">
+        <v>67</v>
+      </c>
+      <c r="G57" s="6">
+        <v>69</v>
+      </c>
+      <c r="H57" s="6">
+        <v>70</v>
+      </c>
+      <c r="I57" s="6">
+        <v>69</v>
+      </c>
+      <c r="J57" s="6">
+        <v>275</v>
+      </c>
+      <c r="K57" s="8">
+        <v>8</v>
+      </c>
+      <c r="L57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>69</v>
+      </c>
+      <c r="G58" s="6">
+        <v>69</v>
+      </c>
+      <c r="H58" s="6">
+        <v>66</v>
+      </c>
+      <c r="I58" s="6">
+        <v>71</v>
+      </c>
+      <c r="J58" s="6">
+        <v>275</v>
+      </c>
+      <c r="K58" s="8">
+        <v>8</v>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>69</v>
+      </c>
+      <c r="G59" s="6">
+        <v>67</v>
+      </c>
+      <c r="H59" s="6">
+        <v>71</v>
+      </c>
+      <c r="I59" s="6">
+        <v>69</v>
+      </c>
+      <c r="J59" s="6">
+        <v>276</v>
+      </c>
+      <c r="K59" s="8">
+        <v>8</v>
+      </c>
+      <c r="L59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>68</v>
+      </c>
+      <c r="G60" s="6">
+        <v>68</v>
+      </c>
+      <c r="H60" s="6">
+        <v>68</v>
+      </c>
+      <c r="I60" s="6">
+        <v>72</v>
+      </c>
+      <c r="J60" s="6">
+        <v>276</v>
+      </c>
+      <c r="K60" s="8">
+        <v>8</v>
+      </c>
+      <c r="L60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>72</v>
+      </c>
+      <c r="G61" s="6">
+        <v>66</v>
+      </c>
+      <c r="H61" s="6">
+        <v>66</v>
+      </c>
+      <c r="I61" s="6">
+        <v>72</v>
+      </c>
+      <c r="J61" s="6">
+        <v>276</v>
+      </c>
+      <c r="K61" s="8">
+        <v>8</v>
+      </c>
+      <c r="L61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <v>69</v>
+      </c>
+      <c r="G62" s="6">
+        <v>69</v>
+      </c>
+      <c r="H62" s="6">
+        <v>67</v>
+      </c>
+      <c r="I62" s="6">
+        <v>72</v>
+      </c>
+      <c r="J62" s="6">
+        <v>277</v>
+      </c>
+      <c r="K62" s="8">
+        <v>8</v>
+      </c>
+      <c r="L62" s="7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>68</v>
+      </c>
+      <c r="G63" s="6">
+        <v>68</v>
+      </c>
+      <c r="H63" s="6">
+        <v>72</v>
+      </c>
+      <c r="I63" s="6">
+        <v>70</v>
+      </c>
+      <c r="J63" s="6">
+        <v>278</v>
+      </c>
+      <c r="K63" s="8">
+        <v>8</v>
+      </c>
+      <c r="L63" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>69</v>
+      </c>
+      <c r="G64" s="6">
+        <v>68</v>
+      </c>
+      <c r="H64" s="6">
+        <v>71</v>
+      </c>
+      <c r="I64" s="6">
+        <v>70</v>
+      </c>
+      <c r="J64" s="6">
+        <v>278</v>
+      </c>
+      <c r="K64" s="8">
+        <v>8</v>
+      </c>
+      <c r="L64" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F65" s="6">
+        <v>72</v>
+      </c>
+      <c r="G65" s="6">
+        <v>66</v>
+      </c>
+      <c r="H65" s="6">
+        <v>75</v>
+      </c>
+      <c r="I65" s="6">
+        <v>66</v>
+      </c>
+      <c r="J65" s="6">
+        <v>279</v>
+      </c>
+      <c r="K65" s="8">
+        <v>8</v>
+      </c>
+      <c r="L65" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>68</v>
+      </c>
+      <c r="G66" s="6">
+        <v>69</v>
+      </c>
+      <c r="H66" s="6">
+        <v>68</v>
+      </c>
+      <c r="I66" s="6">
+        <v>74</v>
+      </c>
+      <c r="J66" s="6">
+        <v>279</v>
+      </c>
+      <c r="K66" s="8">
+        <v>8</v>
+      </c>
+      <c r="L66" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6">
+        <v>68</v>
+      </c>
+      <c r="G67" s="6">
+        <v>66</v>
+      </c>
+      <c r="H67" s="6">
+        <v>70</v>
+      </c>
+      <c r="I67" s="6">
+        <v>75</v>
+      </c>
+      <c r="J67" s="6">
+        <v>279</v>
+      </c>
+      <c r="K67" s="8">
+        <v>8</v>
+      </c>
+      <c r="L67" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>6</v>
+      </c>
+      <c r="F68" s="6">
+        <v>68</v>
+      </c>
+      <c r="G68" s="6">
+        <v>68</v>
+      </c>
+      <c r="H68" s="6">
+        <v>66</v>
+      </c>
+      <c r="I68" s="6">
+        <v>77</v>
+      </c>
+      <c r="J68" s="6">
+        <v>279</v>
+      </c>
+      <c r="K68" s="8">
+        <v>8</v>
+      </c>
+      <c r="L68" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F69" s="6">
+        <v>66</v>
+      </c>
+      <c r="G69" s="6">
+        <v>70</v>
+      </c>
+      <c r="H69" s="6">
+        <v>75</v>
+      </c>
+      <c r="I69" s="6">
+        <v>69</v>
+      </c>
+      <c r="J69" s="6">
+        <v>280</v>
+      </c>
+      <c r="K69" s="8">
+        <v>8</v>
+      </c>
+      <c r="L69" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>69</v>
+      </c>
+      <c r="G70" s="6">
+        <v>68</v>
+      </c>
+      <c r="H70" s="6">
+        <v>73</v>
+      </c>
+      <c r="I70" s="6">
+        <v>70</v>
+      </c>
+      <c r="J70" s="6">
+        <v>280</v>
+      </c>
+      <c r="K70" s="8">
+        <v>8</v>
+      </c>
+      <c r="L70" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>68</v>
+      </c>
+      <c r="G71" s="6">
+        <v>67</v>
+      </c>
+      <c r="H71" s="6">
+        <v>76</v>
+      </c>
+      <c r="I71" s="6">
+        <v>70</v>
+      </c>
+      <c r="J71" s="6">
+        <v>281</v>
+      </c>
+      <c r="K71" s="8">
+        <v>8</v>
+      </c>
+      <c r="L71" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>70</v>
+      </c>
+      <c r="G72" s="6">
+        <v>68</v>
+      </c>
+      <c r="H72" s="6">
+        <v>72</v>
+      </c>
+      <c r="I72" s="6">
+        <v>71</v>
+      </c>
+      <c r="J72" s="6">
+        <v>281</v>
+      </c>
+      <c r="K72" s="8">
+        <v>8</v>
+      </c>
+      <c r="L72" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6">
+        <v>71</v>
+      </c>
+      <c r="G73" s="6">
+        <v>67</v>
+      </c>
+      <c r="H73" s="6">
+        <v>69</v>
+      </c>
+      <c r="I73" s="6">
+        <v>74</v>
+      </c>
+      <c r="J73" s="6">
+        <v>281</v>
+      </c>
+      <c r="K73" s="8">
+        <v>8</v>
+      </c>
+      <c r="L73" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>7</v>
+      </c>
+      <c r="F74" s="6">
+        <v>66</v>
+      </c>
+      <c r="G74" s="6">
+        <v>68</v>
+      </c>
+      <c r="H74" s="6">
+        <v>69</v>
+      </c>
+      <c r="I74" s="6">
+        <v>78</v>
+      </c>
+      <c r="J74" s="6">
+        <v>281</v>
+      </c>
+      <c r="K74" s="8">
+        <v>8</v>
+      </c>
+      <c r="L74" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="6">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6">
+        <v>69</v>
+      </c>
+      <c r="G75" s="6">
+        <v>68</v>
+      </c>
+      <c r="H75" s="6">
+        <v>71</v>
+      </c>
+      <c r="I75" s="6">
+        <v>74</v>
+      </c>
+      <c r="J75" s="6">
+        <v>282</v>
+      </c>
+      <c r="K75" s="8">
+        <v>8</v>
+      </c>
+      <c r="L75" s="7" t="str">
+        <f t="shared" ref="L75:L118" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>68</v>
+      </c>
+      <c r="G76" s="6">
+        <v>70</v>
+      </c>
+      <c r="H76" s="6">
+        <v>68</v>
+      </c>
+      <c r="I76" s="6">
+        <v>76</v>
+      </c>
+      <c r="J76" s="6">
+        <v>282</v>
+      </c>
+      <c r="K76" s="8">
+        <v>8</v>
+      </c>
+      <c r="L76" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K77" s="8"/>
+      <c r="L77" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K6" s="2"/>
-      <c r="L6" s="4">
-        <f>IF(LEFT(A6,1)="T",RIGHT(A6,LEN(A6)-1),A6)</f>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K78" s="8"/>
+      <c r="L78" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <f>IF(LEFT(A7,1)="T",RIGHT(A7,LEN(A7)-1),A7)</f>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K79" s="8"/>
+      <c r="L79" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K8" s="2"/>
-      <c r="L8" s="4">
-        <f>IF(LEFT(A8,1)="T",RIGHT(A8,LEN(A8)-1),A8)</f>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K80" s="8"/>
+      <c r="L80" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K9" s="2"/>
-      <c r="L9" s="4">
-        <f>IF(LEFT(A9,1)="T",RIGHT(A9,LEN(A9)-1),A9)</f>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L81" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K10" s="2"/>
-      <c r="L10" s="4">
-        <f>IF(LEFT(A10,1)="T",RIGHT(A10,LEN(A10)-1),A10)</f>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <f t="shared" ref="L11:L74" si="0">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K12" s="2"/>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L84" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K13" s="2"/>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K14" s="2"/>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L86" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K15" s="2"/>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K16" s="2"/>
-      <c r="L16" s="4">
-        <f t="shared" si="0"/>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K17" s="2"/>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L89" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K18" s="2"/>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K19" s="2"/>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K20" s="2"/>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L92" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K21" s="2"/>
-      <c r="L21" s="4">
-        <f t="shared" si="0"/>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K22" s="2"/>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K23" s="2"/>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K24" s="2"/>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K25" s="2"/>
-      <c r="L25" s="4">
-        <f t="shared" si="0"/>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K26" s="2"/>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K27" s="2"/>
-      <c r="L27" s="4">
-        <f t="shared" si="0"/>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K28" s="2"/>
-      <c r="L28" s="4">
-        <f t="shared" si="0"/>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K29" s="2"/>
-      <c r="L29" s="4">
-        <f t="shared" si="0"/>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L101" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K30" s="2"/>
-      <c r="L30" s="4">
-        <f t="shared" si="0"/>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K31" s="2"/>
-      <c r="L31" s="4">
-        <f t="shared" si="0"/>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K32" s="2"/>
-      <c r="L32" s="4">
-        <f t="shared" si="0"/>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K33" s="2"/>
-      <c r="L33" s="4">
-        <f t="shared" si="0"/>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K34" s="2"/>
-      <c r="L34" s="4">
-        <f t="shared" si="0"/>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K35" s="2"/>
-      <c r="L35" s="4">
-        <f t="shared" si="0"/>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L107" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K36" s="2"/>
-      <c r="L36" s="4">
-        <f t="shared" si="0"/>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K37" s="2"/>
-      <c r="L37" s="4">
-        <f t="shared" si="0"/>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K38" s="2"/>
-      <c r="L38" s="4">
-        <f t="shared" si="0"/>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L110" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K39" s="2"/>
-      <c r="L39" s="4">
-        <f t="shared" si="0"/>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K40" s="2"/>
-      <c r="L40" s="4">
-        <f t="shared" si="0"/>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K41" s="2"/>
-      <c r="L41" s="4">
-        <f t="shared" si="0"/>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K42" s="2"/>
-      <c r="L42" s="4">
-        <f t="shared" si="0"/>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K43" s="2"/>
-      <c r="L43" s="4">
-        <f t="shared" si="0"/>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L115" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K44" s="2"/>
-      <c r="L44" s="4">
-        <f t="shared" si="0"/>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L116" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K45" s="2"/>
-      <c r="L45" s="4">
-        <f t="shared" si="0"/>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L117" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K46" s="2"/>
-      <c r="L46" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K47" s="2"/>
-      <c r="L47" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K48" s="2"/>
-      <c r="L48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K49" s="2"/>
-      <c r="L49" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K50" s="2"/>
-      <c r="L50" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K51" s="2"/>
-      <c r="L51" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K52" s="2"/>
-      <c r="L52" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K53" s="2"/>
-      <c r="L53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K54" s="2"/>
-      <c r="L54" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K55" s="2"/>
-      <c r="L55" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K56" s="2"/>
-      <c r="L56" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K57" s="2"/>
-      <c r="L57" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K58" s="2"/>
-      <c r="L58" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K59" s="2"/>
-      <c r="L59" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K60" s="2"/>
-      <c r="L60" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K61" s="2"/>
-      <c r="L61" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K62" s="2"/>
-      <c r="L62" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K63" s="2"/>
-      <c r="L63" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K64" s="2"/>
-      <c r="L64" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K65" s="2"/>
-      <c r="L65" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K66" s="2"/>
-      <c r="L66" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K67" s="2"/>
-      <c r="L67" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K68" s="2"/>
-      <c r="L68" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K69" s="2"/>
-      <c r="L69" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K70" s="2"/>
-      <c r="L70" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K71" s="2"/>
-      <c r="L71" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K72" s="2"/>
-      <c r="L72" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K73" s="2"/>
-      <c r="L73" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K74" s="2"/>
-      <c r="L74" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K75" s="2"/>
-      <c r="L75" s="4">
-        <f t="shared" ref="L75:L118" si="1">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K76" s="2"/>
-      <c r="L76" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K77" s="2"/>
-      <c r="L77" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K78" s="2"/>
-      <c r="L78" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K79" s="2"/>
-      <c r="L79" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K80" s="2"/>
-      <c r="L80" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L81" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L82" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L83" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L84" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L85" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L86" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L87" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L88" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L89" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L90" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L91" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L92" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L93" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L94" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L95" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L96" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L97" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L98" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L99" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L100" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L101" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L102" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L103" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L104" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L105" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L106" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L107" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L108" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L109" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L110" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L111" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L112" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L113" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L114" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L115" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L116" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L117" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L118" s="4">
-        <f t="shared" si="1"/>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L118" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1620,20 +4243,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +4297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1709,14 +4332,14 @@
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <f>IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
+        <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
         <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1751,14 +4374,14 @@
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f>IF(LEFT(A3,1)="T",RIGHT(A3,LEN(A3)-1),A3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1793,14 +4416,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IF(LEFT(A4,1)="T",RIGHT(A4,LEN(A4)-1),A4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1835,11 +4458,11 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IF(LEFT(A5,1)="T",RIGHT(A5,LEN(A5)-1),A5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1874,11 +4497,11 @@
         <v>1</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IF(LEFT(A6,1)="T",RIGHT(A6,LEN(A6)-1),A6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1913,11 +4536,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IF(LEFT(A7,1)="T",RIGHT(A7,LEN(A7)-1),A7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1952,11 +4575,11 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IF(LEFT(A8,1)="T",RIGHT(A8,LEN(A8)-1),A8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1991,11 +4614,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IF(LEFT(A9,1)="T",RIGHT(A9,LEN(A9)-1),A9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2030,11 +4653,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>IF(LEFT(A10,1)="T",RIGHT(A10,LEN(A10)-1),A10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2069,11 +4692,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" ref="L11:L74" si="0">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2108,11 +4731,11 @@
         <v>1</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2147,11 +4770,11 @@
         <v>1</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2186,11 +4809,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2225,11 +4848,11 @@
         <v>1</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2264,11 +4887,11 @@
         <v>1</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2303,11 +4926,11 @@
         <v>1</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2342,11 +4965,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2381,11 +5004,11 @@
         <v>1</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2420,11 +5043,11 @@
         <v>1</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2459,11 +5082,11 @@
         <v>1</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2498,11 +5121,11 @@
         <v>1</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2537,11 +5160,11 @@
         <v>1</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2576,11 +5199,11 @@
         <v>1</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2615,11 +5238,11 @@
         <v>1</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2654,11 +5277,11 @@
         <v>1</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2693,11 +5316,11 @@
         <v>1</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2732,11 +5355,11 @@
         <v>1</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2771,11 +5394,11 @@
         <v>1</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2810,11 +5433,11 @@
         <v>1</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2849,11 +5472,11 @@
         <v>1</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2888,11 +5511,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2927,11 +5550,11 @@
         <v>1</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2966,11 +5589,11 @@
         <v>1</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3005,11 +5628,11 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3044,11 +5667,11 @@
         <v>1</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3083,11 +5706,11 @@
         <v>1</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3122,11 +5745,11 @@
         <v>1</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3161,11 +5784,11 @@
         <v>1</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3200,11 +5823,11 @@
         <v>1</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3239,11 +5862,11 @@
         <v>1</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3278,11 +5901,11 @@
         <v>1</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3317,11 +5940,11 @@
         <v>1</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3356,11 +5979,11 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3395,11 +6018,11 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3434,11 +6057,11 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3473,11 +6096,11 @@
         <v>1</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3512,11 +6135,11 @@
         <v>1</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3551,11 +6174,11 @@
         <v>1</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3590,11 +6213,11 @@
         <v>1</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -3629,11 +6252,11 @@
         <v>1</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3668,11 +6291,11 @@
         <v>1</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3707,11 +6330,11 @@
         <v>1</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3746,11 +6369,11 @@
         <v>1</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3785,11 +6408,11 @@
         <v>1</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3824,11 +6447,11 @@
         <v>1</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3863,11 +6486,11 @@
         <v>1</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3902,11 +6525,11 @@
         <v>1</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3941,11 +6564,11 @@
         <v>1</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3980,11 +6603,11 @@
         <v>1</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4019,11 +6642,11 @@
         <v>1</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4058,11 +6681,11 @@
         <v>1</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4097,11 +6720,11 @@
         <v>1</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4136,11 +6759,11 @@
         <v>1</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4175,11 +6798,11 @@
         <v>1</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4214,11 +6837,11 @@
         <v>1</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4253,11 +6876,11 @@
         <v>1</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4292,11 +6915,11 @@
         <v>1</v>
       </c>
       <c r="L68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -4331,11 +6954,11 @@
         <v>1</v>
       </c>
       <c r="L69" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4370,11 +6993,11 @@
         <v>1</v>
       </c>
       <c r="L70" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -4409,11 +7032,11 @@
         <v>1</v>
       </c>
       <c r="L71" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -4448,11 +7071,11 @@
         <v>1</v>
       </c>
       <c r="L72" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4487,11 +7110,11 @@
         <v>1</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -4526,11 +7149,11 @@
         <v>1</v>
       </c>
       <c r="L74" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -4565,11 +7188,11 @@
         <v>1</v>
       </c>
       <c r="L75" s="4" t="str">
-        <f t="shared" ref="L75:L80" si="1">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
+        <f t="shared" ref="L75:L80" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -4604,11 +7227,11 @@
         <v>1</v>
       </c>
       <c r="L76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -4643,11 +7266,11 @@
         <v>1</v>
       </c>
       <c r="L77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -4682,11 +7305,11 @@
         <v>1</v>
       </c>
       <c r="L78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4721,11 +7344,11 @@
         <v>1</v>
       </c>
       <c r="L79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4760,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>POS</t>
   </si>
@@ -377,201 +377,6 @@
   </si>
   <si>
     <t>STROKES</t>
-  </si>
-  <si>
-    <t>Webb Simpson</t>
-  </si>
-  <si>
-    <t>Abraham Ancer</t>
-  </si>
-  <si>
-    <t>Daniel Berger</t>
-  </si>
-  <si>
-    <t>Tyrrell Hatton</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Sergio Garcia</t>
-  </si>
-  <si>
-    <t>Brooks Koepka</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>Justin Thomas</t>
-  </si>
-  <si>
-    <t>J.T. Poston</t>
-  </si>
-  <si>
-    <t>Bryson DeChambeau</t>
-  </si>
-  <si>
-    <t>Michael Thompson</t>
-  </si>
-  <si>
-    <t>Justin Rose</t>
-  </si>
-  <si>
-    <t>Ian Poulter</t>
-  </si>
-  <si>
-    <t>Matthew Fitzpatrick</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>Dustin Johnson</t>
-  </si>
-  <si>
-    <t>Brice Garnett</t>
-  </si>
-  <si>
-    <t>Rory Sabbatini</t>
-  </si>
-  <si>
-    <t>Viktor Hovland</t>
-  </si>
-  <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
-    <t>Corey Conners</t>
-  </si>
-  <si>
-    <t>Erik van Rooyen</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>Brian Harman</t>
-  </si>
-  <si>
-    <t>Christiaan Bezuidenhout</t>
-  </si>
-  <si>
-    <t>Sebastián Muñoz</t>
-  </si>
-  <si>
-    <t>Tyler Duncan</t>
-  </si>
-  <si>
-    <t>Chris Stroud</t>
-  </si>
-  <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>Jim Herman</t>
-  </si>
-  <si>
-    <t>Sepp Straka</t>
-  </si>
-  <si>
-    <t>Mark Hubbard</t>
-  </si>
-  <si>
-    <t>Andrew Landry</t>
-  </si>
-  <si>
-    <t>Carlos Ortiz</t>
-  </si>
-  <si>
-    <t>T41</t>
-  </si>
-  <si>
-    <t>Adam Hadwin</t>
-  </si>
-  <si>
-    <t>Charl Schwartzel</t>
-  </si>
-  <si>
-    <t>Matt Kuchar</t>
-  </si>
-  <si>
-    <t>Sam Ryder</t>
-  </si>
-  <si>
-    <t>T48</t>
-  </si>
-  <si>
-    <t>Ernie Els</t>
-  </si>
-  <si>
-    <t>T52</t>
-  </si>
-  <si>
-    <t>Brian Stuard</t>
-  </si>
-  <si>
-    <t>C.T. Pan</t>
-  </si>
-  <si>
-    <t>Vaughn Taylor</t>
-  </si>
-  <si>
-    <t>T58</t>
-  </si>
-  <si>
-    <t>Bernhard Langer</t>
-  </si>
-  <si>
-    <t>Chesson Hadley</t>
-  </si>
-  <si>
-    <t>Branden Grace</t>
-  </si>
-  <si>
-    <t>T62</t>
-  </si>
-  <si>
-    <t>Gary Woodland</t>
-  </si>
-  <si>
-    <t>T64</t>
-  </si>
-  <si>
-    <t>Xander Schauffele</t>
-  </si>
-  <si>
-    <t>Wyndham Clark</t>
-  </si>
-  <si>
-    <t>Matt Wallace</t>
-  </si>
-  <si>
-    <t>Wesley Bryan</t>
-  </si>
-  <si>
-    <t>T70</t>
-  </si>
-  <si>
-    <t>Danny Lee</t>
-  </si>
-  <si>
-    <t>Troy Merritt</t>
-  </si>
-  <si>
-    <t>Peter Malnati</t>
-  </si>
-  <si>
-    <t>Mackenzie Hughes</t>
-  </si>
-  <si>
-    <t>T74</t>
-  </si>
-  <si>
-    <t>Ryan Armour</t>
-  </si>
-  <si>
-    <t>Chez Reavie</t>
   </si>
 </sst>
 </file>
@@ -972,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -983,7 +788,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:L76"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,3194 +846,1118 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-7</v>
-      </c>
-      <c r="F2" s="6">
-        <v>65</v>
-      </c>
-      <c r="G2" s="6">
-        <v>65</v>
-      </c>
-      <c r="H2" s="6">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6">
-        <v>64</v>
-      </c>
-      <c r="J2" s="6">
-        <v>262</v>
-      </c>
-      <c r="K2" s="8">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
-        <v>1</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>69</v>
-      </c>
-      <c r="G3" s="6">
-        <v>64</v>
-      </c>
-      <c r="H3" s="6">
-        <v>65</v>
-      </c>
-      <c r="I3" s="6">
-        <v>65</v>
-      </c>
-      <c r="J3" s="6">
-        <v>263</v>
-      </c>
-      <c r="K3" s="8">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
       <c r="N3" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>67</v>
-      </c>
-      <c r="G4" s="6">
-        <v>69</v>
-      </c>
-      <c r="H4" s="6">
-        <v>63</v>
-      </c>
-      <c r="I4" s="6">
-        <v>65</v>
-      </c>
-      <c r="J4" s="6">
-        <v>264</v>
-      </c>
-      <c r="K4" s="8">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>71</v>
-      </c>
-      <c r="G5" s="6">
-        <v>64</v>
-      </c>
-      <c r="H5" s="6">
-        <v>63</v>
-      </c>
-      <c r="I5" s="6">
-        <v>66</v>
-      </c>
-      <c r="J5" s="6">
-        <v>264</v>
-      </c>
-      <c r="K5" s="8">
-        <v>8</v>
-      </c>
-      <c r="L5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F6" s="6">
-        <v>70</v>
-      </c>
-      <c r="G6" s="6">
-        <v>65</v>
-      </c>
-      <c r="H6" s="6">
-        <v>65</v>
-      </c>
-      <c r="I6" s="6">
-        <v>65</v>
-      </c>
-      <c r="J6" s="6">
-        <v>265</v>
-      </c>
-      <c r="K6" s="8">
-        <v>8</v>
-      </c>
-      <c r="L6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>69</v>
-      </c>
-      <c r="G7" s="6">
-        <v>68</v>
-      </c>
-      <c r="H7" s="6">
-        <v>63</v>
-      </c>
-      <c r="I7" s="6">
-        <v>65</v>
-      </c>
-      <c r="J7" s="6">
-        <v>265</v>
-      </c>
-      <c r="K7" s="8">
-        <v>8</v>
-      </c>
-      <c r="L7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F8" s="6">
-        <v>67</v>
-      </c>
-      <c r="G8" s="6">
-        <v>66</v>
-      </c>
-      <c r="H8" s="6">
-        <v>68</v>
-      </c>
-      <c r="I8" s="6">
-        <v>65</v>
-      </c>
-      <c r="J8" s="6">
-        <v>266</v>
-      </c>
-      <c r="K8" s="8">
-        <v>8</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-9</v>
-      </c>
-      <c r="F9" s="6">
-        <v>65</v>
-      </c>
-      <c r="G9" s="6">
-        <v>69</v>
-      </c>
-      <c r="H9" s="6">
-        <v>71</v>
-      </c>
-      <c r="I9" s="6">
-        <v>62</v>
-      </c>
-      <c r="J9" s="6">
-        <v>267</v>
-      </c>
-      <c r="K9" s="8">
-        <v>8</v>
-      </c>
-      <c r="L9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>72</v>
-      </c>
-      <c r="G10" s="6">
-        <v>66</v>
-      </c>
-      <c r="H10" s="6">
-        <v>66</v>
-      </c>
-      <c r="I10" s="6">
-        <v>63</v>
-      </c>
-      <c r="J10" s="6">
-        <v>267</v>
-      </c>
-      <c r="K10" s="8">
-        <v>8</v>
-      </c>
-      <c r="L10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F11" s="6">
-        <v>67</v>
-      </c>
-      <c r="G11" s="6">
-        <v>69</v>
-      </c>
-      <c r="H11" s="6">
-        <v>66</v>
-      </c>
-      <c r="I11" s="6">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6">
-        <v>267</v>
-      </c>
-      <c r="K11" s="8">
-        <v>8</v>
-      </c>
-      <c r="L11" s="7" t="str">
-        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
-        <v>8</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>67</v>
-      </c>
-      <c r="G12" s="6">
-        <v>64</v>
-      </c>
-      <c r="H12" s="6">
-        <v>70</v>
-      </c>
-      <c r="I12" s="6">
-        <v>66</v>
-      </c>
-      <c r="J12" s="6">
-        <v>267</v>
-      </c>
-      <c r="K12" s="8">
-        <v>8</v>
-      </c>
-      <c r="L12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F13" s="6">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6">
-        <v>69</v>
-      </c>
-      <c r="H13" s="6">
-        <v>66</v>
-      </c>
-      <c r="I13" s="6">
-        <v>67</v>
-      </c>
-      <c r="J13" s="6">
-        <v>267</v>
-      </c>
-      <c r="K13" s="8">
-        <v>8</v>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6">
-        <v>67</v>
-      </c>
-      <c r="H14" s="6">
-        <v>66</v>
-      </c>
-      <c r="I14" s="6">
-        <v>69</v>
-      </c>
-      <c r="J14" s="6">
-        <v>267</v>
-      </c>
-      <c r="K14" s="8">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F15" s="6">
-        <v>70</v>
-      </c>
-      <c r="G15" s="6">
-        <v>67</v>
-      </c>
-      <c r="H15" s="6">
-        <v>66</v>
-      </c>
-      <c r="I15" s="6">
-        <v>65</v>
-      </c>
-      <c r="J15" s="6">
-        <v>268</v>
-      </c>
-      <c r="K15" s="8">
-        <v>8</v>
-      </c>
-      <c r="L15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-16</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>64</v>
-      </c>
-      <c r="G16" s="6">
-        <v>69</v>
-      </c>
-      <c r="H16" s="6">
-        <v>67</v>
-      </c>
-      <c r="I16" s="6">
-        <v>68</v>
-      </c>
-      <c r="J16" s="6">
-        <v>268</v>
-      </c>
-      <c r="K16" s="8">
-        <v>8</v>
-      </c>
-      <c r="L16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>66</v>
-      </c>
-      <c r="G17" s="6">
-        <v>66</v>
-      </c>
-      <c r="H17" s="6">
-        <v>68</v>
-      </c>
-      <c r="I17" s="6">
-        <v>68</v>
-      </c>
-      <c r="J17" s="6">
-        <v>268</v>
-      </c>
-      <c r="K17" s="8">
-        <v>8</v>
-      </c>
-      <c r="L17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>-7</v>
-      </c>
-      <c r="F18" s="6">
-        <v>67</v>
-      </c>
-      <c r="G18" s="6">
-        <v>70</v>
-      </c>
-      <c r="H18" s="6">
-        <v>68</v>
-      </c>
-      <c r="I18" s="6">
-        <v>64</v>
-      </c>
-      <c r="J18" s="6">
-        <v>269</v>
-      </c>
-      <c r="K18" s="8">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>70</v>
-      </c>
-      <c r="G19" s="6">
-        <v>63</v>
-      </c>
-      <c r="H19" s="6">
-        <v>69</v>
-      </c>
-      <c r="I19" s="6">
-        <v>67</v>
-      </c>
-      <c r="J19" s="6">
-        <v>269</v>
-      </c>
-      <c r="K19" s="8">
-        <v>8</v>
-      </c>
-      <c r="L19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F20" s="6">
-        <v>68</v>
-      </c>
-      <c r="G20" s="6">
-        <v>66</v>
-      </c>
-      <c r="H20" s="6">
-        <v>67</v>
-      </c>
-      <c r="I20" s="6">
-        <v>68</v>
-      </c>
-      <c r="J20" s="6">
-        <v>269</v>
-      </c>
-      <c r="K20" s="8">
-        <v>8</v>
-      </c>
-      <c r="L20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>65</v>
-      </c>
-      <c r="G21" s="6">
-        <v>71</v>
-      </c>
-      <c r="H21" s="6">
-        <v>65</v>
-      </c>
-      <c r="I21" s="6">
-        <v>68</v>
-      </c>
-      <c r="J21" s="6">
-        <v>269</v>
-      </c>
-      <c r="K21" s="8">
-        <v>8</v>
-      </c>
-      <c r="L21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F22" s="6">
-        <v>70</v>
-      </c>
-      <c r="G22" s="6">
-        <v>67</v>
-      </c>
-      <c r="H22" s="6">
-        <v>68</v>
-      </c>
-      <c r="I22" s="6">
-        <v>65</v>
-      </c>
-      <c r="J22" s="6">
-        <v>270</v>
-      </c>
-      <c r="K22" s="8">
-        <v>8</v>
-      </c>
-      <c r="L22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F23" s="6">
-        <v>65</v>
-      </c>
-      <c r="G23" s="6">
-        <v>71</v>
-      </c>
-      <c r="H23" s="6">
-        <v>68</v>
-      </c>
-      <c r="I23" s="6">
-        <v>66</v>
-      </c>
-      <c r="J23" s="6">
-        <v>270</v>
-      </c>
-      <c r="K23" s="8">
-        <v>8</v>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F24" s="6">
-        <v>69</v>
-      </c>
-      <c r="G24" s="6">
-        <v>68</v>
-      </c>
-      <c r="H24" s="6">
-        <v>66</v>
-      </c>
-      <c r="I24" s="6">
-        <v>67</v>
-      </c>
-      <c r="J24" s="6">
-        <v>270</v>
-      </c>
-      <c r="K24" s="8">
-        <v>8</v>
-      </c>
-      <c r="L24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F25" s="6">
-        <v>72</v>
-      </c>
-      <c r="G25" s="6">
-        <v>66</v>
-      </c>
-      <c r="H25" s="6">
-        <v>65</v>
-      </c>
-      <c r="I25" s="6">
-        <v>67</v>
-      </c>
-      <c r="J25" s="6">
-        <v>270</v>
-      </c>
-      <c r="K25" s="8">
-        <v>8</v>
-      </c>
-      <c r="L25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>69</v>
-      </c>
-      <c r="G26" s="6">
-        <v>66</v>
-      </c>
-      <c r="H26" s="6">
-        <v>66</v>
-      </c>
-      <c r="I26" s="6">
-        <v>69</v>
-      </c>
-      <c r="J26" s="6">
-        <v>270</v>
-      </c>
-      <c r="K26" s="8">
-        <v>8</v>
-      </c>
-      <c r="L26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>68</v>
-      </c>
-      <c r="G27" s="6">
-        <v>63</v>
-      </c>
-      <c r="H27" s="6">
-        <v>69</v>
-      </c>
-      <c r="I27" s="6">
-        <v>70</v>
-      </c>
-      <c r="J27" s="6">
-        <v>270</v>
-      </c>
-      <c r="K27" s="8">
-        <v>8</v>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>66</v>
-      </c>
-      <c r="G28" s="6">
-        <v>68</v>
-      </c>
-      <c r="H28" s="6">
-        <v>66</v>
-      </c>
-      <c r="I28" s="6">
-        <v>70</v>
-      </c>
-      <c r="J28" s="6">
-        <v>270</v>
-      </c>
-      <c r="K28" s="8">
-        <v>8</v>
-      </c>
-      <c r="L28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F29" s="6">
-        <v>70</v>
-      </c>
-      <c r="G29" s="6">
-        <v>67</v>
-      </c>
-      <c r="H29" s="6">
-        <v>69</v>
-      </c>
-      <c r="I29" s="6">
-        <v>65</v>
-      </c>
-      <c r="J29" s="6">
-        <v>271</v>
-      </c>
-      <c r="K29" s="8">
-        <v>8</v>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F30" s="6">
-        <v>67</v>
-      </c>
-      <c r="G30" s="6">
-        <v>69</v>
-      </c>
-      <c r="H30" s="6">
-        <v>68</v>
-      </c>
-      <c r="I30" s="6">
-        <v>67</v>
-      </c>
-      <c r="J30" s="6">
-        <v>271</v>
-      </c>
-      <c r="K30" s="8">
-        <v>8</v>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F31" s="6">
-        <v>65</v>
-      </c>
-      <c r="G31" s="6">
-        <v>69</v>
-      </c>
-      <c r="H31" s="6">
-        <v>69</v>
-      </c>
-      <c r="I31" s="6">
-        <v>68</v>
-      </c>
-      <c r="J31" s="6">
-        <v>271</v>
-      </c>
-      <c r="K31" s="8">
-        <v>8</v>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F32" s="6">
-        <v>71</v>
-      </c>
-      <c r="G32" s="6">
-        <v>63</v>
-      </c>
-      <c r="H32" s="6">
-        <v>68</v>
-      </c>
-      <c r="I32" s="6">
-        <v>69</v>
-      </c>
-      <c r="J32" s="6">
-        <v>271</v>
-      </c>
-      <c r="K32" s="8">
-        <v>8</v>
-      </c>
-      <c r="L32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6">
-        <v>68</v>
-      </c>
-      <c r="G33" s="6">
-        <v>69</v>
-      </c>
-      <c r="H33" s="6">
-        <v>63</v>
-      </c>
-      <c r="I33" s="6">
-        <v>71</v>
-      </c>
-      <c r="J33" s="6">
-        <v>271</v>
-      </c>
-      <c r="K33" s="8">
-        <v>8</v>
-      </c>
-      <c r="L33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>66</v>
-      </c>
-      <c r="G34" s="6">
-        <v>67</v>
-      </c>
-      <c r="H34" s="6">
-        <v>73</v>
-      </c>
-      <c r="I34" s="6">
-        <v>66</v>
-      </c>
-      <c r="J34" s="6">
-        <v>272</v>
-      </c>
-      <c r="K34" s="8">
-        <v>8</v>
-      </c>
-      <c r="L34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F35" s="6">
-        <v>68</v>
-      </c>
-      <c r="G35" s="6">
-        <v>69</v>
-      </c>
-      <c r="H35" s="6">
-        <v>69</v>
-      </c>
-      <c r="I35" s="6">
-        <v>66</v>
-      </c>
-      <c r="J35" s="6">
-        <v>272</v>
-      </c>
-      <c r="K35" s="8">
-        <v>8</v>
-      </c>
-      <c r="L35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F36" s="6">
-        <v>67</v>
-      </c>
-      <c r="G36" s="6">
-        <v>71</v>
-      </c>
-      <c r="H36" s="6">
-        <v>67</v>
-      </c>
-      <c r="I36" s="6">
-        <v>67</v>
-      </c>
-      <c r="J36" s="6">
-        <v>272</v>
-      </c>
-      <c r="K36" s="8">
-        <v>8</v>
-      </c>
-      <c r="L36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>64</v>
-      </c>
-      <c r="G37" s="6">
-        <v>72</v>
-      </c>
-      <c r="H37" s="6">
-        <v>68</v>
-      </c>
-      <c r="I37" s="6">
-        <v>68</v>
-      </c>
-      <c r="J37" s="6">
-        <v>272</v>
-      </c>
-      <c r="K37" s="8">
-        <v>8</v>
-      </c>
-      <c r="L37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F38" s="6">
-        <v>71</v>
-      </c>
-      <c r="G38" s="6">
-        <v>67</v>
-      </c>
-      <c r="H38" s="6">
-        <v>66</v>
-      </c>
-      <c r="I38" s="6">
-        <v>68</v>
-      </c>
-      <c r="J38" s="6">
-        <v>272</v>
-      </c>
-      <c r="K38" s="8">
-        <v>8</v>
-      </c>
-      <c r="L38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>66</v>
-      </c>
-      <c r="G39" s="6">
-        <v>68</v>
-      </c>
-      <c r="H39" s="6">
-        <v>68</v>
-      </c>
-      <c r="I39" s="6">
-        <v>70</v>
-      </c>
-      <c r="J39" s="6">
-        <v>272</v>
-      </c>
-      <c r="K39" s="8">
-        <v>8</v>
-      </c>
-      <c r="L39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>68</v>
-      </c>
-      <c r="G40" s="6">
-        <v>67</v>
-      </c>
-      <c r="H40" s="6">
-        <v>66</v>
-      </c>
-      <c r="I40" s="6">
-        <v>71</v>
-      </c>
-      <c r="J40" s="6">
-        <v>272</v>
-      </c>
-      <c r="K40" s="8">
-        <v>8</v>
-      </c>
-      <c r="L40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6">
-        <v>69</v>
-      </c>
-      <c r="G41" s="6">
-        <v>67</v>
-      </c>
-      <c r="H41" s="6">
-        <v>63</v>
-      </c>
-      <c r="I41" s="6">
-        <v>73</v>
-      </c>
-      <c r="J41" s="6">
-        <v>272</v>
-      </c>
-      <c r="K41" s="8">
-        <v>8</v>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F42" s="6">
-        <v>67</v>
-      </c>
-      <c r="G42" s="6">
-        <v>69</v>
-      </c>
-      <c r="H42" s="6">
-        <v>69</v>
-      </c>
-      <c r="I42" s="6">
-        <v>68</v>
-      </c>
-      <c r="J42" s="6">
-        <v>273</v>
-      </c>
-      <c r="K42" s="8">
-        <v>8</v>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F43" s="6">
-        <v>69</v>
-      </c>
-      <c r="G43" s="6">
-        <v>66</v>
-      </c>
-      <c r="H43" s="6">
-        <v>70</v>
-      </c>
-      <c r="I43" s="6">
-        <v>68</v>
-      </c>
-      <c r="J43" s="6">
-        <v>273</v>
-      </c>
-      <c r="K43" s="8">
-        <v>8</v>
-      </c>
-      <c r="L43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F44" s="6">
-        <v>72</v>
-      </c>
-      <c r="G44" s="6">
-        <v>65</v>
-      </c>
-      <c r="H44" s="6">
-        <v>67</v>
-      </c>
-      <c r="I44" s="6">
-        <v>69</v>
-      </c>
-      <c r="J44" s="6">
-        <v>273</v>
-      </c>
-      <c r="K44" s="8">
-        <v>8</v>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F45" s="6">
-        <v>71</v>
-      </c>
-      <c r="G45" s="6">
-        <v>67</v>
-      </c>
-      <c r="H45" s="6">
-        <v>66</v>
-      </c>
-      <c r="I45" s="6">
-        <v>69</v>
-      </c>
-      <c r="J45" s="6">
-        <v>273</v>
-      </c>
-      <c r="K45" s="8">
-        <v>8</v>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>70</v>
-      </c>
-      <c r="G46" s="6">
-        <v>66</v>
-      </c>
-      <c r="H46" s="6">
-        <v>67</v>
-      </c>
-      <c r="I46" s="6">
-        <v>70</v>
-      </c>
-      <c r="J46" s="6">
-        <v>273</v>
-      </c>
-      <c r="K46" s="8">
-        <v>8</v>
-      </c>
-      <c r="L46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>72</v>
-      </c>
-      <c r="G47" s="6">
-        <v>65</v>
-      </c>
-      <c r="H47" s="6">
-        <v>66</v>
-      </c>
-      <c r="I47" s="6">
-        <v>70</v>
-      </c>
-      <c r="J47" s="6">
-        <v>273</v>
-      </c>
-      <c r="K47" s="8">
-        <v>8</v>
-      </c>
-      <c r="L47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6">
-        <v>69</v>
-      </c>
-      <c r="G48" s="6">
-        <v>65</v>
-      </c>
-      <c r="H48" s="6">
-        <v>68</v>
-      </c>
-      <c r="I48" s="6">
-        <v>71</v>
-      </c>
-      <c r="J48" s="6">
-        <v>273</v>
-      </c>
-      <c r="K48" s="8">
-        <v>8</v>
-      </c>
-      <c r="L48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F49" s="6">
-        <v>67</v>
-      </c>
-      <c r="G49" s="6">
-        <v>67</v>
-      </c>
-      <c r="H49" s="6">
-        <v>72</v>
-      </c>
-      <c r="I49" s="6">
-        <v>68</v>
-      </c>
-      <c r="J49" s="6">
-        <v>274</v>
-      </c>
-      <c r="K49" s="8">
-        <v>8</v>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F50" s="6">
-        <v>71</v>
-      </c>
-      <c r="G50" s="6">
-        <v>66</v>
-      </c>
-      <c r="H50" s="6">
-        <v>68</v>
-      </c>
-      <c r="I50" s="6">
-        <v>69</v>
-      </c>
-      <c r="J50" s="6">
-        <v>274</v>
-      </c>
-      <c r="K50" s="8">
-        <v>8</v>
-      </c>
-      <c r="L50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="6">
-        <v>70</v>
-      </c>
-      <c r="G51" s="6">
-        <v>68</v>
-      </c>
-      <c r="H51" s="6">
-        <v>65</v>
-      </c>
-      <c r="I51" s="6">
-        <v>71</v>
-      </c>
-      <c r="J51" s="6">
-        <v>274</v>
-      </c>
-      <c r="K51" s="8">
-        <v>8</v>
-      </c>
-      <c r="L51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6">
-        <v>4</v>
-      </c>
-      <c r="F52" s="6">
-        <v>68</v>
-      </c>
-      <c r="G52" s="6">
-        <v>68</v>
-      </c>
-      <c r="H52" s="6">
-        <v>63</v>
-      </c>
-      <c r="I52" s="6">
-        <v>75</v>
-      </c>
-      <c r="J52" s="6">
-        <v>274</v>
-      </c>
-      <c r="K52" s="8">
-        <v>8</v>
-      </c>
-      <c r="L52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F53" s="6">
-        <v>69</v>
-      </c>
-      <c r="G53" s="6">
-        <v>68</v>
-      </c>
-      <c r="H53" s="6">
-        <v>73</v>
-      </c>
-      <c r="I53" s="6">
-        <v>65</v>
-      </c>
-      <c r="J53" s="6">
-        <v>275</v>
-      </c>
-      <c r="K53" s="8">
-        <v>8</v>
-      </c>
-      <c r="L53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F54" s="6">
-        <v>68</v>
-      </c>
-      <c r="G54" s="6">
-        <v>70</v>
-      </c>
-      <c r="H54" s="6">
-        <v>70</v>
-      </c>
-      <c r="I54" s="6">
-        <v>67</v>
-      </c>
-      <c r="J54" s="6">
-        <v>275</v>
-      </c>
-      <c r="K54" s="8">
-        <v>8</v>
-      </c>
-      <c r="L54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F55" s="6">
-        <v>69</v>
-      </c>
-      <c r="G55" s="6">
-        <v>68</v>
-      </c>
-      <c r="H55" s="6">
-        <v>70</v>
-      </c>
-      <c r="I55" s="6">
-        <v>68</v>
-      </c>
-      <c r="J55" s="6">
-        <v>275</v>
-      </c>
-      <c r="K55" s="8">
-        <v>8</v>
-      </c>
-      <c r="L55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F56" s="6">
-        <v>68</v>
-      </c>
-      <c r="G56" s="6">
-        <v>68</v>
-      </c>
-      <c r="H56" s="6">
-        <v>70</v>
-      </c>
-      <c r="I56" s="6">
-        <v>69</v>
-      </c>
-      <c r="J56" s="6">
-        <v>275</v>
-      </c>
-      <c r="K56" s="8">
-        <v>8</v>
-      </c>
-      <c r="L56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F57" s="6">
-        <v>67</v>
-      </c>
-      <c r="G57" s="6">
-        <v>69</v>
-      </c>
-      <c r="H57" s="6">
-        <v>70</v>
-      </c>
-      <c r="I57" s="6">
-        <v>69</v>
-      </c>
-      <c r="J57" s="6">
-        <v>275</v>
-      </c>
-      <c r="K57" s="8">
-        <v>8</v>
-      </c>
-      <c r="L57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="6">
-        <v>69</v>
-      </c>
-      <c r="G58" s="6">
-        <v>69</v>
-      </c>
-      <c r="H58" s="6">
-        <v>66</v>
-      </c>
-      <c r="I58" s="6">
-        <v>71</v>
-      </c>
-      <c r="J58" s="6">
-        <v>275</v>
-      </c>
-      <c r="K58" s="8">
-        <v>8</v>
-      </c>
-      <c r="L58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F59" s="6">
-        <v>69</v>
-      </c>
-      <c r="G59" s="6">
-        <v>67</v>
-      </c>
-      <c r="H59" s="6">
-        <v>71</v>
-      </c>
-      <c r="I59" s="6">
-        <v>69</v>
-      </c>
-      <c r="J59" s="6">
-        <v>276</v>
-      </c>
-      <c r="K59" s="8">
-        <v>8</v>
-      </c>
-      <c r="L59" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
-        <v>68</v>
-      </c>
-      <c r="G60" s="6">
-        <v>68</v>
-      </c>
-      <c r="H60" s="6">
-        <v>68</v>
-      </c>
-      <c r="I60" s="6">
-        <v>72</v>
-      </c>
-      <c r="J60" s="6">
-        <v>276</v>
-      </c>
-      <c r="K60" s="8">
-        <v>8</v>
-      </c>
-      <c r="L60" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>72</v>
-      </c>
-      <c r="G61" s="6">
-        <v>66</v>
-      </c>
-      <c r="H61" s="6">
-        <v>66</v>
-      </c>
-      <c r="I61" s="6">
-        <v>72</v>
-      </c>
-      <c r="J61" s="6">
-        <v>276</v>
-      </c>
-      <c r="K61" s="8">
-        <v>8</v>
-      </c>
-      <c r="L61" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="A61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6">
-        <v>69</v>
-      </c>
-      <c r="G62" s="6">
-        <v>69</v>
-      </c>
-      <c r="H62" s="6">
-        <v>67</v>
-      </c>
-      <c r="I62" s="6">
-        <v>72</v>
-      </c>
-      <c r="J62" s="6">
-        <v>277</v>
-      </c>
-      <c r="K62" s="8">
-        <v>8</v>
-      </c>
-      <c r="L62" s="7">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="6">
-        <v>68</v>
-      </c>
-      <c r="G63" s="6">
-        <v>68</v>
-      </c>
-      <c r="H63" s="6">
-        <v>72</v>
-      </c>
-      <c r="I63" s="6">
-        <v>70</v>
-      </c>
-      <c r="J63" s="6">
-        <v>278</v>
-      </c>
-      <c r="K63" s="8">
-        <v>8</v>
-      </c>
-      <c r="L63" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
+      <c r="A63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F64" s="6">
-        <v>69</v>
-      </c>
-      <c r="G64" s="6">
-        <v>68</v>
-      </c>
-      <c r="H64" s="6">
-        <v>71</v>
-      </c>
-      <c r="I64" s="6">
-        <v>70</v>
-      </c>
-      <c r="J64" s="6">
-        <v>278</v>
-      </c>
-      <c r="K64" s="8">
-        <v>8</v>
-      </c>
-      <c r="L64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F65" s="6">
-        <v>72</v>
-      </c>
-      <c r="G65" s="6">
-        <v>66</v>
-      </c>
-      <c r="H65" s="6">
-        <v>75</v>
-      </c>
-      <c r="I65" s="6">
-        <v>66</v>
-      </c>
-      <c r="J65" s="6">
-        <v>279</v>
-      </c>
-      <c r="K65" s="8">
-        <v>8</v>
-      </c>
-      <c r="L65" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6">
-        <v>3</v>
-      </c>
-      <c r="F66" s="6">
-        <v>68</v>
-      </c>
-      <c r="G66" s="6">
-        <v>69</v>
-      </c>
-      <c r="H66" s="6">
-        <v>68</v>
-      </c>
-      <c r="I66" s="6">
-        <v>74</v>
-      </c>
-      <c r="J66" s="6">
-        <v>279</v>
-      </c>
-      <c r="K66" s="8">
-        <v>8</v>
-      </c>
-      <c r="L66" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4</v>
-      </c>
-      <c r="F67" s="6">
-        <v>68</v>
-      </c>
-      <c r="G67" s="6">
-        <v>66</v>
-      </c>
-      <c r="H67" s="6">
-        <v>70</v>
-      </c>
-      <c r="I67" s="6">
-        <v>75</v>
-      </c>
-      <c r="J67" s="6">
-        <v>279</v>
-      </c>
-      <c r="K67" s="8">
-        <v>8</v>
-      </c>
-      <c r="L67" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>6</v>
-      </c>
-      <c r="F68" s="6">
-        <v>68</v>
-      </c>
-      <c r="G68" s="6">
-        <v>68</v>
-      </c>
-      <c r="H68" s="6">
-        <v>66</v>
-      </c>
-      <c r="I68" s="6">
-        <v>77</v>
-      </c>
-      <c r="J68" s="6">
-        <v>279</v>
-      </c>
-      <c r="K68" s="8">
-        <v>8</v>
-      </c>
-      <c r="L68" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
+      <c r="A68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F69" s="6">
-        <v>66</v>
-      </c>
-      <c r="G69" s="6">
-        <v>70</v>
-      </c>
-      <c r="H69" s="6">
-        <v>75</v>
-      </c>
-      <c r="I69" s="6">
-        <v>69</v>
-      </c>
-      <c r="J69" s="6">
-        <v>280</v>
-      </c>
-      <c r="K69" s="8">
-        <v>8</v>
-      </c>
-      <c r="L69" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
+      <c r="A69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F70" s="6">
-        <v>69</v>
-      </c>
-      <c r="G70" s="6">
-        <v>68</v>
-      </c>
-      <c r="H70" s="6">
-        <v>73</v>
-      </c>
-      <c r="I70" s="6">
-        <v>70</v>
-      </c>
-      <c r="J70" s="6">
-        <v>280</v>
-      </c>
-      <c r="K70" s="8">
-        <v>8</v>
-      </c>
-      <c r="L70" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
+      <c r="A70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>68</v>
-      </c>
-      <c r="G71" s="6">
-        <v>67</v>
-      </c>
-      <c r="H71" s="6">
-        <v>76</v>
-      </c>
-      <c r="I71" s="6">
-        <v>70</v>
-      </c>
-      <c r="J71" s="6">
-        <v>281</v>
-      </c>
-      <c r="K71" s="8">
-        <v>8</v>
-      </c>
-      <c r="L71" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="A71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="6">
-        <v>70</v>
-      </c>
-      <c r="G72" s="6">
-        <v>68</v>
-      </c>
-      <c r="H72" s="6">
-        <v>72</v>
-      </c>
-      <c r="I72" s="6">
-        <v>71</v>
-      </c>
-      <c r="J72" s="6">
-        <v>281</v>
-      </c>
-      <c r="K72" s="8">
-        <v>8</v>
-      </c>
-      <c r="L72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="6">
-        <v>3</v>
-      </c>
-      <c r="F73" s="6">
-        <v>71</v>
-      </c>
-      <c r="G73" s="6">
-        <v>67</v>
-      </c>
-      <c r="H73" s="6">
-        <v>69</v>
-      </c>
-      <c r="I73" s="6">
-        <v>74</v>
-      </c>
-      <c r="J73" s="6">
-        <v>281</v>
-      </c>
-      <c r="K73" s="8">
-        <v>8</v>
-      </c>
-      <c r="L73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6">
-        <v>7</v>
-      </c>
-      <c r="F74" s="6">
-        <v>66</v>
-      </c>
-      <c r="G74" s="6">
-        <v>68</v>
-      </c>
-      <c r="H74" s="6">
-        <v>69</v>
-      </c>
-      <c r="I74" s="6">
-        <v>78</v>
-      </c>
-      <c r="J74" s="6">
-        <v>281</v>
-      </c>
-      <c r="K74" s="8">
-        <v>8</v>
-      </c>
-      <c r="L74" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="6">
-        <v>3</v>
-      </c>
-      <c r="F75" s="6">
-        <v>69</v>
-      </c>
-      <c r="G75" s="6">
-        <v>68</v>
-      </c>
-      <c r="H75" s="6">
-        <v>71</v>
-      </c>
-      <c r="I75" s="6">
-        <v>74</v>
-      </c>
-      <c r="J75" s="6">
-        <v>282</v>
-      </c>
-      <c r="K75" s="8">
-        <v>8</v>
-      </c>
-      <c r="L75" s="7" t="str">
-        <f t="shared" ref="L75:L118" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
-        <v>74</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="6">
-        <v>5</v>
-      </c>
-      <c r="F76" s="6">
-        <v>68</v>
-      </c>
-      <c r="G76" s="6">
-        <v>70</v>
-      </c>
-      <c r="H76" s="6">
-        <v>68</v>
-      </c>
-      <c r="I76" s="6">
-        <v>76</v>
-      </c>
-      <c r="J76" s="6">
-        <v>282</v>
-      </c>
-      <c r="K76" s="8">
-        <v>8</v>
-      </c>
-      <c r="L76" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K77" s="8"/>
-      <c r="L77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" s="8"/>
-      <c r="L78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K79" s="8"/>
-      <c r="L79" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K80" s="8"/>
-      <c r="L80" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L91" s="7"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L96" s="7"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L100" s="7"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L101" s="7"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L102" s="7"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L103" s="7"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L105" s="7"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L106" s="7"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L110" s="7"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L111" s="7"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L112" s="7"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L113" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L113" s="7"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L114" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L114" s="7"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L115" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L115" s="7"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L116" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L116" s="7"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L117" s="7"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L118" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -788,7 +788,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +800,8 @@
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,6 +847,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -863,6 +864,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -879,6 +881,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -895,6 +898,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -908,6 +912,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -921,6 +926,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -934,6 +940,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -947,6 +954,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -960,6 +968,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -973,6 +982,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -986,6 +996,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -999,6 +1010,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1012,6 +1024,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1025,6 +1038,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1038,6 +1052,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1051,6 +1066,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1064,6 +1080,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1077,6 +1094,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1090,6 +1108,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1103,6 +1122,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1116,6 +1136,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1129,6 +1150,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1142,6 +1164,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1155,6 +1178,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1168,6 +1192,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1181,6 +1206,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1194,6 +1220,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1207,6 +1234,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1220,6 +1248,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1233,6 +1262,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1246,6 +1276,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1259,6 +1290,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1272,6 +1304,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1285,6 +1318,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1298,6 +1332,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1311,6 +1346,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1324,6 +1360,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1337,6 +1374,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1350,6 +1388,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1363,6 +1402,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1376,6 +1416,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1389,6 +1430,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1402,6 +1444,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1415,6 +1458,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1428,6 +1472,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1441,6 +1486,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -1454,6 +1500,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1467,6 +1514,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -1480,6 +1528,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1493,6 +1542,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1506,6 +1556,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -1519,6 +1570,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -1532,6 +1584,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1545,6 +1598,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1558,6 +1612,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1571,6 +1626,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1584,6 +1640,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1597,6 +1654,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -1610,6 +1668,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -1623,6 +1682,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -1636,6 +1696,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -1649,6 +1710,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -1662,6 +1724,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -1675,6 +1738,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -1688,6 +1752,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -1701,6 +1766,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -1714,6 +1780,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -1727,6 +1794,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -1740,6 +1808,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -1753,6 +1822,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -1766,6 +1836,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -1779,6 +1850,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -1792,6 +1864,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -1805,6 +1878,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -1830,134 +1904,170 @@
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="8"/>
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="8"/>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="8"/>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
       <c r="K80" s="8"/>
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="7"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="7"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="7"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="7"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="7"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="7"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="7"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="7"/>
+      <c r="L88" s="4"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="7"/>
+      <c r="L89" s="4"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="7"/>
+      <c r="L90" s="4"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="7"/>
+      <c r="L91" s="4"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="7"/>
+      <c r="L92" s="4"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="7"/>
+      <c r="L93" s="4"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="7"/>
+      <c r="L94" s="4"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="7"/>
+      <c r="L95" s="4"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="7"/>
+      <c r="L96" s="4"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="7"/>
+      <c r="L97" s="4"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="7"/>
+      <c r="L98" s="4"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="7"/>
+      <c r="L99" s="4"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="7"/>
+      <c r="L100" s="4"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" s="7"/>
+      <c r="L101" s="4"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L102" s="7"/>
+      <c r="L102" s="4"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="7"/>
+      <c r="L103" s="4"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="7"/>
+      <c r="L104" s="4"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="7"/>
+      <c r="L105" s="4"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="7"/>
+      <c r="L106" s="4"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="7"/>
+      <c r="L107" s="4"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="7"/>
+      <c r="L108" s="4"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="7"/>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" s="7"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="7"/>
+      <c r="L111" s="4"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="7"/>
+      <c r="L112" s="4"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L113" s="7"/>
+      <c r="L113" s="4"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L114" s="7"/>
+      <c r="L114" s="4"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L115" s="7"/>
+      <c r="L115" s="4"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L116" s="7"/>
+      <c r="L116" s="4"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="7"/>
+      <c r="L117" s="4"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="7"/>
+      <c r="L118" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -498,11 +498,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -847,7 +847,6 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -856,15 +855,14 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
       <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -873,15 +871,14 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="N3" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -890,15 +887,14 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -907,12 +903,11 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -921,12 +916,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -935,12 +929,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -949,12 +942,11 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -963,12 +955,11 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -977,12 +968,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -991,12 +981,11 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1005,12 +994,11 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1019,12 +1007,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1033,12 +1020,11 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1047,12 +1033,11 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1061,12 +1046,11 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1075,12 +1059,11 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1089,12 +1072,11 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1103,12 +1085,11 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1117,12 +1098,11 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1131,12 +1111,11 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1145,12 +1124,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1159,12 +1137,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1173,12 +1150,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1187,12 +1163,11 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1201,12 +1176,11 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1215,12 +1189,11 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1229,12 +1202,11 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1243,12 +1215,11 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1257,12 +1228,11 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1271,12 +1241,11 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1285,12 +1254,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1299,12 +1267,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1313,12 +1280,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1327,12 +1293,11 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1341,12 +1306,11 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1355,12 +1319,11 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1369,12 +1332,11 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1383,12 +1345,11 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1397,12 +1358,11 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1411,12 +1371,11 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1425,12 +1384,11 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1439,12 +1397,11 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1453,12 +1410,11 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1467,12 +1423,11 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1481,12 +1436,11 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -1495,12 +1449,11 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1509,12 +1462,11 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -1523,12 +1475,11 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1537,12 +1488,11 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1551,12 +1501,11 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -1565,12 +1514,11 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -1579,12 +1527,11 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1593,12 +1540,11 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1607,12 +1553,11 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1621,12 +1566,11 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1635,12 +1579,11 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1649,12 +1592,11 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -1663,12 +1605,11 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -1677,12 +1618,11 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -1691,12 +1631,11 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -1705,12 +1644,11 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -1719,12 +1657,11 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -1733,12 +1670,11 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -1747,12 +1683,11 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -1761,12 +1696,11 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -1775,12 +1709,11 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -1789,12 +1722,11 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -1803,12 +1735,11 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -1817,12 +1748,11 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -1831,12 +1761,11 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -1845,12 +1774,11 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -1859,12 +1787,11 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -1873,12 +1800,11 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -1887,8 +1813,8 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
@@ -1900,8 +1826,8 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
@@ -1913,8 +1839,8 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
@@ -1926,8 +1852,8 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
@@ -1939,8 +1865,8 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
@@ -1952,8 +1878,8 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L81" s="4"/>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
   <si>
     <t>POS</t>
   </si>
@@ -355,28 +355,217 @@
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
   </si>
   <si>
-    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
-  </si>
-  <si>
-    <t>THRU</t>
-  </si>
-  <si>
-    <t>ROUND</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>STROKES</t>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Daniel Berger</t>
+  </si>
+  <si>
+    <t>Tom Lewis</t>
+  </si>
+  <si>
+    <t>Phil Mickelson</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Shane Lowry</t>
+  </si>
+  <si>
+    <t>Chez Reavie</t>
+  </si>
+  <si>
+    <t>Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t>Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Dustin Johnson</t>
+  </si>
+  <si>
+    <t>Webb Simpson</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>Abraham Ancer</t>
+  </si>
+  <si>
+    <t>Scottie Scheffler</t>
+  </si>
+  <si>
+    <t>Rickie Fowler</t>
+  </si>
+  <si>
+    <t>Brendon Todd</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Erik van Rooyen</t>
+  </si>
+  <si>
+    <t>Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>Kevin Kisner</t>
+  </si>
+  <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Bryson DeChambeau</t>
+  </si>
+  <si>
+    <t>Andrew Landry</t>
+  </si>
+  <si>
+    <t>J.T. Poston</t>
+  </si>
+  <si>
+    <t>Corey Conners</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t>Patrick Cantlay</t>
+  </si>
+  <si>
+    <t>Kevin Na</t>
+  </si>
+  <si>
+    <t>Graeme McDowell</t>
+  </si>
+  <si>
+    <t>Henrik Stenson</t>
+  </si>
+  <si>
+    <t>Sergio Garcia</t>
+  </si>
+  <si>
+    <t>Nick Taylor</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>Lucas Herbert</t>
+  </si>
+  <si>
+    <t>Tyler Duncan</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>T57</t>
+  </si>
+  <si>
+    <t>Michael Thompson</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>T59</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Jazz Janewattananond</t>
+  </si>
+  <si>
+    <t>Viktor Hovland</t>
+  </si>
+  <si>
+    <t>Robert MacIntyre</t>
+  </si>
+  <si>
+    <t>T65</t>
+  </si>
+  <si>
+    <t>Victor Perez</t>
+  </si>
+  <si>
+    <t>T67</t>
+  </si>
+  <si>
+    <t>Paul Casey</t>
+  </si>
+  <si>
+    <t>T69</t>
+  </si>
+  <si>
+    <t>Tyrrell Hatton</t>
+  </si>
+  <si>
+    <t>Ian Poulter</t>
+  </si>
+  <si>
+    <t>Danny Willett</t>
+  </si>
+  <si>
+    <t>T72</t>
+  </si>
+  <si>
+    <t>Adam Hadwin</t>
+  </si>
+  <si>
+    <t>C.T. Pan</t>
+  </si>
+  <si>
+    <t>Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t>T75</t>
+  </si>
+  <si>
+    <t>Shaun Norris</t>
+  </si>
+  <si>
+    <t>Haotong Li</t>
+  </si>
+  <si>
+    <t>Sebastian Soderberg</t>
+  </si>
+  <si>
+    <t>Rafa Cabrera Bello</t>
   </si>
 </sst>
 </file>
@@ -777,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,36 +993,36 @@
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>118</v>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -846,1154 +1035,3055 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>66</v>
+      </c>
+      <c r="G2" s="6">
+        <v>70</v>
+      </c>
+      <c r="H2" s="6">
+        <v>66</v>
+      </c>
+      <c r="I2" s="6">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6">
+        <v>267</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
+        <v>1</v>
+      </c>
       <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6">
+        <v>67</v>
+      </c>
+      <c r="H3" s="6">
+        <v>67</v>
+      </c>
+      <c r="I3" s="6">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6">
+        <v>270</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>73</v>
+      </c>
+      <c r="G4" s="6">
+        <v>70</v>
+      </c>
+      <c r="H4" s="6">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6">
+        <v>66</v>
+      </c>
+      <c r="J4" s="6">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6">
+        <v>66</v>
+      </c>
+      <c r="I5" s="6">
+        <v>67</v>
+      </c>
+      <c r="J5" s="6">
+        <v>270</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>62</v>
+      </c>
+      <c r="G6" s="6">
+        <v>71</v>
+      </c>
+      <c r="H6" s="6">
+        <v>68</v>
+      </c>
+      <c r="I6" s="6">
+        <v>69</v>
+      </c>
+      <c r="J6" s="6">
+        <v>270</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>68</v>
+      </c>
+      <c r="G7" s="6">
+        <v>70</v>
+      </c>
+      <c r="H7" s="6">
+        <v>67</v>
+      </c>
+      <c r="I7" s="6">
+        <v>66</v>
+      </c>
+      <c r="J7" s="6">
+        <v>271</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6">
+        <v>67</v>
+      </c>
+      <c r="H8" s="6">
+        <v>69</v>
+      </c>
+      <c r="I8" s="6">
+        <v>67</v>
+      </c>
+      <c r="J8" s="6">
+        <v>271</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6">
+        <v>67</v>
+      </c>
+      <c r="J9" s="6">
+        <v>271</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>66</v>
+      </c>
+      <c r="G10" s="6">
+        <v>67</v>
+      </c>
+      <c r="H10" s="6">
+        <v>70</v>
+      </c>
+      <c r="I10" s="6">
+        <v>68</v>
+      </c>
+      <c r="J10" s="6">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6">
+        <v>68</v>
+      </c>
+      <c r="I11" s="6">
+        <v>68</v>
+      </c>
+      <c r="J11" s="6">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6">
+        <v>64</v>
+      </c>
+      <c r="H12" s="6">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6">
+        <v>68</v>
+      </c>
+      <c r="J12" s="6">
+        <v>271</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6">
+        <v>68</v>
+      </c>
+      <c r="H13" s="6">
+        <v>68</v>
+      </c>
+      <c r="I13" s="6">
+        <v>67</v>
+      </c>
+      <c r="J13" s="6">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6">
+        <v>66</v>
+      </c>
+      <c r="H14" s="6">
+        <v>69</v>
+      </c>
+      <c r="I14" s="6">
+        <v>68</v>
+      </c>
+      <c r="J14" s="6">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6">
+        <v>65</v>
+      </c>
+      <c r="H15" s="6">
+        <v>66</v>
+      </c>
+      <c r="I15" s="6">
+        <v>73</v>
+      </c>
+      <c r="J15" s="6">
+        <v>272</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6">
+        <v>69</v>
+      </c>
+      <c r="H16" s="6">
+        <v>71</v>
+      </c>
+      <c r="I16" s="6">
+        <v>64</v>
+      </c>
+      <c r="J16" s="6">
+        <v>273</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>67</v>
+      </c>
+      <c r="G17" s="6">
+        <v>75</v>
+      </c>
+      <c r="H17" s="6">
+        <v>65</v>
+      </c>
+      <c r="I17" s="6">
+        <v>66</v>
+      </c>
+      <c r="J17" s="6">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>69</v>
+      </c>
+      <c r="G18" s="6">
+        <v>67</v>
+      </c>
+      <c r="H18" s="6">
+        <v>69</v>
+      </c>
+      <c r="I18" s="6">
+        <v>68</v>
+      </c>
+      <c r="J18" s="6">
+        <v>273</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>64</v>
+      </c>
+      <c r="G19" s="6">
+        <v>67</v>
+      </c>
+      <c r="H19" s="6">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6">
+        <v>73</v>
+      </c>
+      <c r="J19" s="6">
+        <v>273</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6">
+        <v>69</v>
+      </c>
+      <c r="I20" s="6">
+        <v>75</v>
+      </c>
+      <c r="J20" s="6">
+        <v>273</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
+      <c r="A21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>71</v>
+      </c>
+      <c r="G21" s="6">
+        <v>70</v>
+      </c>
+      <c r="H21" s="6">
+        <v>68</v>
+      </c>
+      <c r="I21" s="6">
+        <v>65</v>
+      </c>
+      <c r="J21" s="6">
+        <v>274</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>70</v>
+      </c>
+      <c r="G22" s="6">
+        <v>71</v>
+      </c>
+      <c r="H22" s="6">
+        <v>67</v>
+      </c>
+      <c r="I22" s="6">
+        <v>66</v>
+      </c>
+      <c r="J22" s="6">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>68</v>
+      </c>
+      <c r="G23" s="6">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6">
+        <v>67</v>
+      </c>
+      <c r="I23" s="6">
+        <v>68</v>
+      </c>
+      <c r="J23" s="6">
+        <v>274</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>72</v>
+      </c>
+      <c r="G24" s="6">
+        <v>67</v>
+      </c>
+      <c r="H24" s="6">
+        <v>65</v>
+      </c>
+      <c r="I24" s="6">
+        <v>70</v>
+      </c>
+      <c r="J24" s="6">
+        <v>274</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>71</v>
+      </c>
+      <c r="G25" s="6">
+        <v>69</v>
+      </c>
+      <c r="H25" s="6">
+        <v>64</v>
+      </c>
+      <c r="I25" s="6">
+        <v>70</v>
+      </c>
+      <c r="J25" s="6">
+        <v>274</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6">
+        <v>68</v>
+      </c>
+      <c r="H26" s="6">
+        <v>72</v>
+      </c>
+      <c r="I26" s="6">
+        <v>65</v>
+      </c>
+      <c r="J26" s="6">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>66</v>
+      </c>
+      <c r="G27" s="6">
+        <v>72</v>
+      </c>
+      <c r="H27" s="6">
+        <v>71</v>
+      </c>
+      <c r="I27" s="6">
+        <v>66</v>
+      </c>
+      <c r="J27" s="6">
+        <v>275</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F28" s="6">
+        <v>68</v>
+      </c>
+      <c r="G28" s="6">
+        <v>70</v>
+      </c>
+      <c r="H28" s="6">
+        <v>71</v>
+      </c>
+      <c r="I28" s="6">
+        <v>66</v>
+      </c>
+      <c r="J28" s="6">
+        <v>275</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
+      <c r="A29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>70</v>
+      </c>
+      <c r="G29" s="6">
+        <v>70</v>
+      </c>
+      <c r="H29" s="6">
+        <v>68</v>
+      </c>
+      <c r="I29" s="6">
+        <v>67</v>
+      </c>
+      <c r="J29" s="6">
+        <v>275</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>71</v>
+      </c>
+      <c r="G30" s="6">
+        <v>68</v>
+      </c>
+      <c r="H30" s="6">
+        <v>67</v>
+      </c>
+      <c r="I30" s="6">
+        <v>69</v>
+      </c>
+      <c r="J30" s="6">
+        <v>275</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+      <c r="A31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>67</v>
+      </c>
+      <c r="G31" s="6">
+        <v>73</v>
+      </c>
+      <c r="H31" s="6">
+        <v>69</v>
+      </c>
+      <c r="I31" s="6">
+        <v>67</v>
+      </c>
+      <c r="J31" s="6">
+        <v>276</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="A32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6">
+        <v>72</v>
+      </c>
+      <c r="H32" s="6">
+        <v>66</v>
+      </c>
+      <c r="I32" s="6">
+        <v>68</v>
+      </c>
+      <c r="J32" s="6">
+        <v>276</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
+      <c r="A33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>70</v>
+      </c>
+      <c r="G33" s="6">
+        <v>68</v>
+      </c>
+      <c r="H33" s="6">
+        <v>70</v>
+      </c>
+      <c r="I33" s="6">
+        <v>68</v>
+      </c>
+      <c r="J33" s="6">
+        <v>276</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6">
+        <v>68</v>
+      </c>
+      <c r="H34" s="6">
+        <v>66</v>
+      </c>
+      <c r="I34" s="6">
+        <v>70</v>
+      </c>
+      <c r="J34" s="6">
+        <v>276</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="A35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>68</v>
+      </c>
+      <c r="G35" s="6">
+        <v>69</v>
+      </c>
+      <c r="H35" s="6">
+        <v>68</v>
+      </c>
+      <c r="I35" s="6">
+        <v>71</v>
+      </c>
+      <c r="J35" s="6">
+        <v>276</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>72</v>
+      </c>
+      <c r="G36" s="6">
+        <v>67</v>
+      </c>
+      <c r="H36" s="6">
+        <v>73</v>
+      </c>
+      <c r="I36" s="6">
+        <v>65</v>
+      </c>
+      <c r="J36" s="6">
+        <v>277</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="A37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>73</v>
+      </c>
+      <c r="G37" s="6">
+        <v>72</v>
+      </c>
+      <c r="H37" s="6">
+        <v>65</v>
+      </c>
+      <c r="I37" s="6">
+        <v>67</v>
+      </c>
+      <c r="J37" s="6">
+        <v>277</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>72</v>
+      </c>
+      <c r="G38" s="6">
+        <v>64</v>
+      </c>
+      <c r="H38" s="6">
+        <v>74</v>
+      </c>
+      <c r="I38" s="6">
+        <v>67</v>
+      </c>
+      <c r="J38" s="6">
+        <v>277</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
+      <c r="A39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>68</v>
+      </c>
+      <c r="G39" s="6">
+        <v>70</v>
+      </c>
+      <c r="H39" s="6">
+        <v>70</v>
+      </c>
+      <c r="I39" s="6">
+        <v>69</v>
+      </c>
+      <c r="J39" s="6">
+        <v>277</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>71</v>
+      </c>
+      <c r="G40" s="6">
+        <v>66</v>
+      </c>
+      <c r="H40" s="6">
+        <v>71</v>
+      </c>
+      <c r="I40" s="6">
+        <v>69</v>
+      </c>
+      <c r="J40" s="6">
+        <v>277</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
+      <c r="A41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>69</v>
+      </c>
+      <c r="G41" s="6">
+        <v>69</v>
+      </c>
+      <c r="H41" s="6">
+        <v>70</v>
+      </c>
+      <c r="I41" s="6">
+        <v>69</v>
+      </c>
+      <c r="J41" s="6">
+        <v>277</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="A42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>67</v>
+      </c>
+      <c r="G42" s="6">
+        <v>71</v>
+      </c>
+      <c r="H42" s="6">
+        <v>68</v>
+      </c>
+      <c r="I42" s="6">
+        <v>71</v>
+      </c>
+      <c r="J42" s="6">
+        <v>277</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
+      <c r="A43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>69</v>
+      </c>
+      <c r="G43" s="6">
+        <v>70</v>
+      </c>
+      <c r="H43" s="6">
+        <v>67</v>
+      </c>
+      <c r="I43" s="6">
+        <v>71</v>
+      </c>
+      <c r="J43" s="6">
+        <v>277</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
+      <c r="A44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>67</v>
+      </c>
+      <c r="G44" s="6">
+        <v>68</v>
+      </c>
+      <c r="H44" s="6">
+        <v>69</v>
+      </c>
+      <c r="I44" s="6">
+        <v>73</v>
+      </c>
+      <c r="J44" s="6">
+        <v>277</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="A45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>69</v>
+      </c>
+      <c r="G45" s="6">
+        <v>68</v>
+      </c>
+      <c r="H45" s="6">
+        <v>71</v>
+      </c>
+      <c r="I45" s="6">
+        <v>70</v>
+      </c>
+      <c r="J45" s="6">
+        <v>278</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>68</v>
+      </c>
+      <c r="G46" s="6">
+        <v>71</v>
+      </c>
+      <c r="H46" s="6">
+        <v>70</v>
+      </c>
+      <c r="I46" s="6">
+        <v>69</v>
+      </c>
+      <c r="J46" s="6">
+        <v>278</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>65</v>
+      </c>
+      <c r="G47" s="6">
+        <v>69</v>
+      </c>
+      <c r="H47" s="6">
+        <v>72</v>
+      </c>
+      <c r="I47" s="6">
+        <v>72</v>
+      </c>
+      <c r="J47" s="6">
+        <v>278</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+      <c r="A48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F48" s="6">
+        <v>73</v>
+      </c>
+      <c r="G48" s="6">
+        <v>66</v>
+      </c>
+      <c r="H48" s="6">
+        <v>73</v>
+      </c>
+      <c r="I48" s="6">
+        <v>67</v>
+      </c>
+      <c r="J48" s="6">
+        <v>279</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>71</v>
+      </c>
+      <c r="G49" s="6">
+        <v>69</v>
+      </c>
+      <c r="H49" s="6">
+        <v>69</v>
+      </c>
+      <c r="I49" s="6">
+        <v>70</v>
+      </c>
+      <c r="J49" s="6">
+        <v>279</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
+      <c r="A50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F50" s="6">
+        <v>71</v>
+      </c>
+      <c r="G50" s="6">
+        <v>73</v>
+      </c>
+      <c r="H50" s="6">
+        <v>69</v>
+      </c>
+      <c r="I50" s="6">
+        <v>67</v>
+      </c>
+      <c r="J50" s="6">
+        <v>280</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>74</v>
+      </c>
+      <c r="G51" s="6">
+        <v>70</v>
+      </c>
+      <c r="H51" s="6">
+        <v>66</v>
+      </c>
+      <c r="I51" s="6">
+        <v>70</v>
+      </c>
+      <c r="J51" s="6">
+        <v>280</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>69</v>
+      </c>
+      <c r="G52" s="6">
+        <v>74</v>
+      </c>
+      <c r="H52" s="6">
+        <v>65</v>
+      </c>
+      <c r="I52" s="6">
+        <v>72</v>
+      </c>
+      <c r="J52" s="6">
+        <v>280</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>70</v>
+      </c>
+      <c r="G53" s="6">
+        <v>74</v>
+      </c>
+      <c r="H53" s="6">
+        <v>71</v>
+      </c>
+      <c r="I53" s="6">
+        <v>66</v>
+      </c>
+      <c r="J53" s="6">
+        <v>281</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="A54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>73</v>
+      </c>
+      <c r="G54" s="6">
+        <v>73</v>
+      </c>
+      <c r="H54" s="6">
+        <v>68</v>
+      </c>
+      <c r="I54" s="6">
+        <v>67</v>
+      </c>
+      <c r="J54" s="6">
+        <v>281</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>66</v>
+      </c>
+      <c r="G55" s="6">
+        <v>73</v>
+      </c>
+      <c r="H55" s="6">
+        <v>72</v>
+      </c>
+      <c r="I55" s="6">
+        <v>70</v>
+      </c>
+      <c r="J55" s="6">
+        <v>281</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="A56" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6">
+        <v>68</v>
+      </c>
+      <c r="G56" s="6">
+        <v>70</v>
+      </c>
+      <c r="H56" s="6">
+        <v>70</v>
+      </c>
+      <c r="I56" s="6">
+        <v>73</v>
+      </c>
+      <c r="J56" s="6">
+        <v>281</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>3</v>
+      </c>
+      <c r="F57" s="6">
+        <v>70</v>
+      </c>
+      <c r="G57" s="6">
+        <v>69</v>
+      </c>
+      <c r="H57" s="6">
+        <v>69</v>
+      </c>
+      <c r="I57" s="6">
+        <v>73</v>
+      </c>
+      <c r="J57" s="6">
+        <v>281</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
+      <c r="A58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>70</v>
+      </c>
+      <c r="G58" s="6">
+        <v>74</v>
+      </c>
+      <c r="H58" s="6">
+        <v>69</v>
+      </c>
+      <c r="I58" s="6">
+        <v>69</v>
+      </c>
+      <c r="J58" s="6">
+        <v>282</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
+      <c r="A59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>71</v>
+      </c>
+      <c r="G59" s="6">
+        <v>69</v>
+      </c>
+      <c r="H59" s="6">
+        <v>73</v>
+      </c>
+      <c r="I59" s="6">
+        <v>69</v>
+      </c>
+      <c r="J59" s="6">
+        <v>282</v>
+      </c>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F60" s="6">
+        <v>72</v>
+      </c>
+      <c r="G60" s="6">
+        <v>71</v>
+      </c>
+      <c r="H60" s="6">
+        <v>73</v>
+      </c>
+      <c r="I60" s="6">
+        <v>67</v>
+      </c>
+      <c r="J60" s="6">
+        <v>283</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
+      <c r="A61" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F61" s="6">
+        <v>72</v>
+      </c>
+      <c r="G61" s="6">
+        <v>72</v>
+      </c>
+      <c r="H61" s="6">
+        <v>71</v>
+      </c>
+      <c r="I61" s="6">
+        <v>68</v>
+      </c>
+      <c r="J61" s="6">
+        <v>283</v>
+      </c>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="6">
+        <v>75</v>
+      </c>
+      <c r="G62" s="6">
+        <v>71</v>
+      </c>
+      <c r="H62" s="6">
+        <v>68</v>
+      </c>
+      <c r="I62" s="6">
+        <v>69</v>
+      </c>
+      <c r="J62" s="6">
+        <v>283</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>67</v>
+      </c>
+      <c r="G63" s="6">
+        <v>75</v>
+      </c>
+      <c r="H63" s="6">
+        <v>72</v>
+      </c>
+      <c r="I63" s="6">
+        <v>69</v>
+      </c>
+      <c r="J63" s="6">
+        <v>283</v>
+      </c>
+      <c r="K63" s="7">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="A64" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>71</v>
+      </c>
+      <c r="G64" s="6">
+        <v>73</v>
+      </c>
+      <c r="H64" s="6">
+        <v>69</v>
+      </c>
+      <c r="I64" s="6">
+        <v>70</v>
+      </c>
+      <c r="J64" s="6">
+        <v>283</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>71</v>
+      </c>
+      <c r="G65" s="6">
+        <v>72</v>
+      </c>
+      <c r="H65" s="6">
+        <v>69</v>
+      </c>
+      <c r="I65" s="6">
+        <v>71</v>
+      </c>
+      <c r="J65" s="6">
+        <v>283</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="6">
+        <v>73</v>
+      </c>
+      <c r="G66" s="6">
+        <v>71</v>
+      </c>
+      <c r="H66" s="6">
+        <v>70</v>
+      </c>
+      <c r="I66" s="6">
+        <v>70</v>
+      </c>
+      <c r="J66" s="6">
+        <v>284</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6">
+        <v>70</v>
+      </c>
+      <c r="G67" s="6">
+        <v>68</v>
+      </c>
+      <c r="H67" s="6">
+        <v>72</v>
+      </c>
+      <c r="I67" s="6">
+        <v>74</v>
+      </c>
+      <c r="J67" s="6">
+        <v>284</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F68" s="6">
+        <v>71</v>
+      </c>
+      <c r="G68" s="6">
+        <v>78</v>
+      </c>
+      <c r="H68" s="6">
+        <v>69</v>
+      </c>
+      <c r="I68" s="6">
+        <v>67</v>
+      </c>
+      <c r="J68" s="6">
+        <v>285</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
+      <c r="A69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>73</v>
+      </c>
+      <c r="G69" s="6">
+        <v>71</v>
+      </c>
+      <c r="H69" s="6">
+        <v>72</v>
+      </c>
+      <c r="I69" s="6">
+        <v>69</v>
+      </c>
+      <c r="J69" s="6">
+        <v>285</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="6">
+        <v>7</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>3</v>
+      </c>
+      <c r="F70" s="6">
+        <v>72</v>
+      </c>
+      <c r="G70" s="6">
+        <v>69</v>
+      </c>
+      <c r="H70" s="6">
+        <v>73</v>
+      </c>
+      <c r="I70" s="6">
+        <v>73</v>
+      </c>
+      <c r="J70" s="6">
+        <v>287</v>
+      </c>
+      <c r="K70" s="7">
+        <v>1</v>
+      </c>
+      <c r="L70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="6">
+        <v>7</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6">
+        <v>73</v>
+      </c>
+      <c r="G71" s="6">
+        <v>69</v>
+      </c>
+      <c r="H71" s="6">
+        <v>72</v>
+      </c>
+      <c r="I71" s="6">
+        <v>73</v>
+      </c>
+      <c r="J71" s="6">
+        <v>287</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
+      <c r="A72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="6">
+        <v>7</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6">
+        <v>4</v>
+      </c>
+      <c r="F72" s="6">
+        <v>69</v>
+      </c>
+      <c r="G72" s="6">
+        <v>70</v>
+      </c>
+      <c r="H72" s="6">
+        <v>74</v>
+      </c>
+      <c r="I72" s="6">
+        <v>74</v>
+      </c>
+      <c r="J72" s="6">
+        <v>287</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
+      <c r="A73" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="6">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>73</v>
+      </c>
+      <c r="G73" s="6">
+        <v>71</v>
+      </c>
+      <c r="H73" s="6">
+        <v>75</v>
+      </c>
+      <c r="I73" s="6">
+        <v>69</v>
+      </c>
+      <c r="J73" s="6">
+        <v>288</v>
+      </c>
+      <c r="K73" s="7">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="6">
+        <v>8</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6">
+        <v>72</v>
+      </c>
+      <c r="G74" s="6">
+        <v>74</v>
+      </c>
+      <c r="H74" s="6">
+        <v>70</v>
+      </c>
+      <c r="I74" s="6">
+        <v>72</v>
+      </c>
+      <c r="J74" s="6">
+        <v>288</v>
+      </c>
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6">
+        <v>71</v>
+      </c>
+      <c r="G75" s="6">
+        <v>73</v>
+      </c>
+      <c r="H75" s="6">
+        <v>75</v>
+      </c>
+      <c r="I75" s="6">
+        <v>70</v>
+      </c>
+      <c r="J75" s="6">
+        <v>289</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" ref="L75:L79" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="6">
+        <v>10</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>73</v>
+      </c>
+      <c r="G76" s="6">
+        <v>76</v>
+      </c>
+      <c r="H76" s="6">
+        <v>72</v>
+      </c>
+      <c r="I76" s="6">
+        <v>69</v>
+      </c>
+      <c r="J76" s="6">
+        <v>290</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1</v>
+      </c>
+      <c r="L76" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="6">
+        <v>10</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6">
+        <v>68</v>
+      </c>
+      <c r="G77" s="6">
+        <v>73</v>
+      </c>
+      <c r="H77" s="6">
+        <v>74</v>
+      </c>
+      <c r="I77" s="6">
+        <v>75</v>
+      </c>
+      <c r="J77" s="6">
+        <v>290</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1</v>
+      </c>
+      <c r="L77" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6">
+        <v>72</v>
+      </c>
+      <c r="G78" s="6">
+        <v>71</v>
+      </c>
+      <c r="H78" s="6">
+        <v>75</v>
+      </c>
+      <c r="I78" s="6">
+        <v>73</v>
+      </c>
+      <c r="J78" s="6">
+        <v>291</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+      <c r="L78" s="8">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="4"/>
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="6">
+        <v>15</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" s="6">
+        <v>73</v>
+      </c>
+      <c r="G79" s="6">
+        <v>74</v>
+      </c>
+      <c r="H79" s="6">
+        <v>76</v>
+      </c>
+      <c r="I79" s="6">
+        <v>72</v>
+      </c>
+      <c r="J79" s="6">
+        <v>295</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="182">
   <si>
     <t>POS</t>
   </si>
@@ -966,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1066,7 @@
         <v>267</v>
       </c>
       <c r="K2" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
@@ -1108,7 +1108,7 @@
         <v>270</v>
       </c>
       <c r="K3" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1150,7 +1150,7 @@
         <v>270</v>
       </c>
       <c r="K4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1192,7 +1192,7 @@
         <v>270</v>
       </c>
       <c r="K5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1231,7 +1231,7 @@
         <v>270</v>
       </c>
       <c r="K6" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1270,7 +1270,7 @@
         <v>271</v>
       </c>
       <c r="K7" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1309,7 +1309,7 @@
         <v>271</v>
       </c>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1348,7 +1348,7 @@
         <v>271</v>
       </c>
       <c r="K9" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1387,7 +1387,7 @@
         <v>271</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1426,7 @@
         <v>271</v>
       </c>
       <c r="K11" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
@@ -1465,7 +1465,7 @@
         <v>271</v>
       </c>
       <c r="K12" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1504,7 +1504,7 @@
         <v>272</v>
       </c>
       <c r="K13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1543,7 +1543,7 @@
         <v>272</v>
       </c>
       <c r="K14" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1582,7 +1582,7 @@
         <v>272</v>
       </c>
       <c r="K15" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1621,7 +1621,7 @@
         <v>273</v>
       </c>
       <c r="K16" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1660,7 +1660,7 @@
         <v>273</v>
       </c>
       <c r="K17" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1699,7 +1699,7 @@
         <v>273</v>
       </c>
       <c r="K18" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1738,7 +1738,7 @@
         <v>273</v>
       </c>
       <c r="K19" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1777,7 +1777,7 @@
         <v>273</v>
       </c>
       <c r="K20" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
         <v>274</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1855,7 +1855,7 @@
         <v>274</v>
       </c>
       <c r="K22" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1894,7 +1894,7 @@
         <v>274</v>
       </c>
       <c r="K23" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1933,7 +1933,7 @@
         <v>274</v>
       </c>
       <c r="K24" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L24" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1972,7 +1972,7 @@
         <v>274</v>
       </c>
       <c r="K25" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L25" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2011,7 +2011,7 @@
         <v>275</v>
       </c>
       <c r="K26" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L26" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2050,7 +2050,7 @@
         <v>275</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2089,7 +2089,7 @@
         <v>275</v>
       </c>
       <c r="K28" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L28" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2128,7 +2128,7 @@
         <v>275</v>
       </c>
       <c r="K29" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L29" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2167,7 +2167,7 @@
         <v>275</v>
       </c>
       <c r="K30" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L30" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2206,7 +2206,7 @@
         <v>276</v>
       </c>
       <c r="K31" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L31" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2245,7 +2245,7 @@
         <v>276</v>
       </c>
       <c r="K32" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L32" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2284,7 +2284,7 @@
         <v>276</v>
       </c>
       <c r="K33" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L33" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2323,7 +2323,7 @@
         <v>276</v>
       </c>
       <c r="K34" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L34" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2362,7 +2362,7 @@
         <v>276</v>
       </c>
       <c r="K35" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L35" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2401,7 +2401,7 @@
         <v>277</v>
       </c>
       <c r="K36" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L36" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2440,7 +2440,7 @@
         <v>277</v>
       </c>
       <c r="K37" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2479,7 +2479,7 @@
         <v>277</v>
       </c>
       <c r="K38" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L38" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2518,7 +2518,7 @@
         <v>277</v>
       </c>
       <c r="K39" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L39" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2557,7 +2557,7 @@
         <v>277</v>
       </c>
       <c r="K40" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L40" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2596,7 +2596,7 @@
         <v>277</v>
       </c>
       <c r="K41" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L41" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2635,7 +2635,7 @@
         <v>277</v>
       </c>
       <c r="K42" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L42" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2674,7 +2674,7 @@
         <v>277</v>
       </c>
       <c r="K43" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L43" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2713,7 +2713,7 @@
         <v>277</v>
       </c>
       <c r="K44" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L44" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2752,7 +2752,7 @@
         <v>278</v>
       </c>
       <c r="K45" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L45" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2791,7 +2791,7 @@
         <v>278</v>
       </c>
       <c r="K46" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L46" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2830,7 +2830,7 @@
         <v>278</v>
       </c>
       <c r="K47" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L47" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2869,7 +2869,7 @@
         <v>279</v>
       </c>
       <c r="K48" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L48" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2908,7 +2908,7 @@
         <v>279</v>
       </c>
       <c r="K49" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L49" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2922,8 +2922,8 @@
       <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>5</v>
+      <c r="C50" s="6">
+        <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>2</v>
@@ -2947,7 +2947,7 @@
         <v>280</v>
       </c>
       <c r="K50" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L50" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2961,8 +2961,8 @@
       <c r="B51" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>5</v>
+      <c r="C51" s="6">
+        <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>2</v>
@@ -2986,7 +2986,7 @@
         <v>280</v>
       </c>
       <c r="K51" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3000,8 +3000,8 @@
       <c r="B52" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>5</v>
+      <c r="C52" s="6">
+        <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>2</v>
@@ -3025,7 +3025,7 @@
         <v>280</v>
       </c>
       <c r="K52" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L52" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3064,7 +3064,7 @@
         <v>281</v>
       </c>
       <c r="K53" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L53" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3103,7 +3103,7 @@
         <v>281</v>
       </c>
       <c r="K54" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L54" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3142,7 +3142,7 @@
         <v>281</v>
       </c>
       <c r="K55" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L55" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3181,7 +3181,7 @@
         <v>281</v>
       </c>
       <c r="K56" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L56" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3220,7 +3220,7 @@
         <v>281</v>
       </c>
       <c r="K57" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L57" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3259,7 +3259,7 @@
         <v>282</v>
       </c>
       <c r="K58" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L58" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3298,7 +3298,7 @@
         <v>282</v>
       </c>
       <c r="K59" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L59" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3337,7 +3337,7 @@
         <v>283</v>
       </c>
       <c r="K60" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L60" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3376,7 +3376,7 @@
         <v>283</v>
       </c>
       <c r="K61" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L61" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3415,7 +3415,7 @@
         <v>283</v>
       </c>
       <c r="K62" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L62" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3454,7 +3454,7 @@
         <v>283</v>
       </c>
       <c r="K63" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L63" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3493,7 +3493,7 @@
         <v>283</v>
       </c>
       <c r="K64" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L64" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3532,7 +3532,7 @@
         <v>283</v>
       </c>
       <c r="K65" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L65" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3571,7 +3571,7 @@
         <v>284</v>
       </c>
       <c r="K66" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L66" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3610,7 +3610,7 @@
         <v>284</v>
       </c>
       <c r="K67" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L67" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3649,7 +3649,7 @@
         <v>285</v>
       </c>
       <c r="K68" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L68" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3688,7 +3688,7 @@
         <v>285</v>
       </c>
       <c r="K69" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L69" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3727,7 +3727,7 @@
         <v>287</v>
       </c>
       <c r="K70" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L70" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3766,7 +3766,7 @@
         <v>287</v>
       </c>
       <c r="K71" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L71" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3805,7 +3805,7 @@
         <v>287</v>
       </c>
       <c r="K72" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L72" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3844,7 +3844,7 @@
         <v>288</v>
       </c>
       <c r="K73" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L73" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3883,7 +3883,7 @@
         <v>288</v>
       </c>
       <c r="K74" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L74" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3922,7 +3922,7 @@
         <v>289</v>
       </c>
       <c r="K75" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L75" s="8">
         <f t="shared" ref="L75:L79" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
@@ -3961,7 +3961,7 @@
         <v>290</v>
       </c>
       <c r="K76" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L76" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4000,7 +4000,7 @@
         <v>290</v>
       </c>
       <c r="K77" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L77" s="8" t="str">
         <f t="shared" si="2"/>
@@ -4039,7 +4039,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L78" s="8">
         <f t="shared" si="2"/>
@@ -4078,7 +4078,7 @@
         <v>295</v>
       </c>
       <c r="K79" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L79" s="8">
         <f t="shared" si="2"/>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timhy\Desktop\SWOFantasyGolf.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3898D-52BB-485C-9DFA-24EC924E55B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="7905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="5" r:id="rId1"/>
     <sheet name="Example" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="167">
   <si>
     <t>POS</t>
   </si>
@@ -355,223 +371,178 @@
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
   </si>
   <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T49</t>
-  </si>
-  <si>
     <t>Justin Thomas</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>Daniel Berger</t>
   </si>
   <si>
-    <t>Tom Lewis</t>
-  </si>
-  <si>
-    <t>Phil Mickelson</t>
-  </si>
-  <si>
-    <t>Brooks Koepka</t>
-  </si>
-  <si>
-    <t>Xander Schauffele</t>
-  </si>
-  <si>
     <t>Shane Lowry</t>
   </si>
   <si>
-    <t>Chez Reavie</t>
-  </si>
-  <si>
     <t>Louis Oosthuizen</t>
   </si>
   <si>
-    <t>Matthew Fitzpatrick</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
     <t>Dustin Johnson</t>
   </si>
   <si>
-    <t>Webb Simpson</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
     <t>Abraham Ancer</t>
   </si>
   <si>
     <t>Scottie Scheffler</t>
   </si>
   <si>
-    <t>Rickie Fowler</t>
-  </si>
-  <si>
-    <t>Brendon Todd</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
     <t>Erik van Rooyen</t>
   </si>
   <si>
-    <t>Christiaan Bezuidenhout</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
     <t>Kevin Kisner</t>
   </si>
   <si>
-    <t>Matt Kuchar</t>
-  </si>
-  <si>
-    <t>Bryson DeChambeau</t>
-  </si>
-  <si>
-    <t>Andrew Landry</t>
-  </si>
-  <si>
-    <t>J.T. Poston</t>
-  </si>
-  <si>
     <t>Corey Conners</t>
   </si>
   <si>
-    <t>T35</t>
-  </si>
-  <si>
     <t>Tommy Fleetwood</t>
   </si>
   <si>
-    <t>Patrick Cantlay</t>
-  </si>
-  <si>
-    <t>Kevin Na</t>
-  </si>
-  <si>
-    <t>Graeme McDowell</t>
-  </si>
-  <si>
-    <t>Henrik Stenson</t>
-  </si>
-  <si>
     <t>Sergio Garcia</t>
   </si>
   <si>
-    <t>Nick Taylor</t>
-  </si>
-  <si>
-    <t>T44</t>
-  </si>
-  <si>
-    <t>Mackenzie Hughes</t>
-  </si>
-  <si>
-    <t>T47</t>
-  </si>
-  <si>
     <t>Lucas Herbert</t>
   </si>
   <si>
-    <t>Tyler Duncan</t>
-  </si>
-  <si>
-    <t>T52</t>
-  </si>
-  <si>
-    <t>T57</t>
-  </si>
-  <si>
     <t>Michael Thompson</t>
   </si>
   <si>
-    <t>Gary Woodland</t>
-  </si>
-  <si>
-    <t>T59</t>
-  </si>
-  <si>
-    <t>Matt Wallace</t>
-  </si>
-  <si>
-    <t>Jazz Janewattananond</t>
-  </si>
-  <si>
     <t>Viktor Hovland</t>
   </si>
   <si>
-    <t>Robert MacIntyre</t>
-  </si>
-  <si>
-    <t>T65</t>
-  </si>
-  <si>
-    <t>Victor Perez</t>
-  </si>
-  <si>
-    <t>T67</t>
-  </si>
-  <si>
     <t>Paul Casey</t>
   </si>
   <si>
-    <t>T69</t>
-  </si>
-  <si>
     <t>Tyrrell Hatton</t>
   </si>
   <si>
     <t>Ian Poulter</t>
   </si>
   <si>
-    <t>Danny Willett</t>
-  </si>
-  <si>
-    <t>T72</t>
-  </si>
-  <si>
     <t>Adam Hadwin</t>
   </si>
   <si>
-    <t>C.T. Pan</t>
-  </si>
-  <si>
-    <t>Bernd Wiesberger</t>
-  </si>
-  <si>
-    <t>T75</t>
-  </si>
-  <si>
-    <t>Shaun Norris</t>
-  </si>
-  <si>
-    <t>Haotong Li</t>
-  </si>
-  <si>
-    <t>Sebastian Soderberg</t>
-  </si>
-  <si>
-    <t>Rafa Cabrera Bello</t>
+    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
+  </si>
+  <si>
+    <t>THRU</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>STROKES</t>
+  </si>
+  <si>
+    <t>Anirban Lahiri</t>
+  </si>
+  <si>
+    <t>Harold Varner III</t>
+  </si>
+  <si>
+    <t>Doug Ghim</t>
+  </si>
+  <si>
+    <t>Sepp Straka</t>
+  </si>
+  <si>
+    <t>Russell Henley</t>
+  </si>
+  <si>
+    <t>Taylor Pendrith</t>
+  </si>
+  <si>
+    <t>Keith Mitchell</t>
+  </si>
+  <si>
+    <t>Brendan Steele</t>
+  </si>
+  <si>
+    <t>Patton Kizzire</t>
+  </si>
+  <si>
+    <t>Alex Noren</t>
+  </si>
+  <si>
+    <t>Will Zalatoris</t>
+  </si>
+  <si>
+    <t>Seamus Power</t>
+  </si>
+  <si>
+    <t>Sebastián Muñoz</t>
+  </si>
+  <si>
+    <t>Kramer Hickok</t>
+  </si>
+  <si>
+    <t>Francesco Molinari</t>
+  </si>
+  <si>
+    <t>Troy Merritt</t>
+  </si>
+  <si>
+    <t>Adam Long</t>
+  </si>
+  <si>
+    <t>Peter Malnati</t>
+  </si>
+  <si>
+    <t>Brice Garnett</t>
+  </si>
+  <si>
+    <t>Aaron Wise</t>
+  </si>
+  <si>
+    <t>Branden Grace</t>
+  </si>
+  <si>
+    <t>K.H. Lee</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>Hank Lebioda</t>
+  </si>
+  <si>
+    <t>Chesson Hadley</t>
+  </si>
+  <si>
+    <t>Brian Harman</t>
+  </si>
+  <si>
+    <t>Hayden Buckley</t>
+  </si>
+  <si>
+    <t>Nick Watney</t>
+  </si>
+  <si>
+    <t>Lee Hodges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,7 +667,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet4" xfId="1"/>
+    <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,18 +937,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection sqref="A1:L79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,36 +964,36 @@
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -1039,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6">
         <v>-13</v>
@@ -1048,25 +1019,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="6">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2" s="6">
+        <v>69</v>
+      </c>
+      <c r="G2" s="6">
+        <v>71</v>
+      </c>
+      <c r="H2" s="6">
+        <v>69</v>
+      </c>
+      <c r="I2" s="6">
         <v>66</v>
       </c>
-      <c r="G2" s="6">
-        <v>70</v>
-      </c>
-      <c r="H2" s="6">
-        <v>66</v>
-      </c>
-      <c r="I2" s="6">
-        <v>65</v>
-      </c>
       <c r="J2" s="6">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K2" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
@@ -1077,40 +1048,40 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>115</v>
+      <c r="A3" s="6">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F3" s="6">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H3" s="6">
         <v>67</v>
       </c>
       <c r="I3" s="6">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K3" s="7">
-        <v>13</v>
-      </c>
-      <c r="L3" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1119,53 +1090,53 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>115</v>
+      <c r="A4" s="6">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C4" s="6">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F4" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I4" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7">
-        <v>13</v>
-      </c>
-      <c r="L4" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>115</v>
+      <c r="A5" s="6">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6">
         <v>-10</v>
@@ -1174,49 +1145,49 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F5" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7">
-        <v>13</v>
-      </c>
-      <c r="L5" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>115</v>
+      <c r="A6" s="6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C6" s="6">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F6" s="6">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6">
         <v>71</v>
@@ -1225,457 +1196,457 @@
         <v>68</v>
       </c>
       <c r="I6" s="6">
+        <v>68</v>
+      </c>
+      <c r="J6" s="6">
+        <v>279</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="6">
         <v>69</v>
       </c>
-      <c r="J6" s="6">
-        <v>270</v>
-      </c>
-      <c r="K6" s="7">
-        <v>13</v>
-      </c>
-      <c r="L6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>68</v>
-      </c>
       <c r="G7" s="6">
+        <v>69</v>
+      </c>
+      <c r="H7" s="6">
+        <v>72</v>
+      </c>
+      <c r="I7" s="6">
         <v>70</v>
       </c>
-      <c r="H7" s="6">
-        <v>67</v>
-      </c>
-      <c r="I7" s="6">
-        <v>66</v>
-      </c>
       <c r="J7" s="6">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7">
-        <v>13</v>
-      </c>
-      <c r="L7" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
+      <c r="A8" s="6">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F8" s="6">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6">
+        <v>71</v>
+      </c>
+      <c r="H8" s="6">
         <v>68</v>
       </c>
-      <c r="G8" s="6">
-        <v>67</v>
-      </c>
-      <c r="H8" s="6">
-        <v>69</v>
-      </c>
       <c r="I8" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J8" s="6">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7">
-        <v>13</v>
-      </c>
-      <c r="L8" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>111</v>
+      <c r="A9" s="6">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
-        <v>-3</v>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="6">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6">
         <v>68</v>
       </c>
-      <c r="G9" s="6">
-        <v>69</v>
-      </c>
-      <c r="H9" s="6">
-        <v>67</v>
-      </c>
       <c r="I9" s="6">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J9" s="6">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7">
-        <v>13</v>
-      </c>
-      <c r="L9" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>111</v>
+      <c r="A10" s="6">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C10" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6">
+        <v>74</v>
+      </c>
+      <c r="H10" s="6">
+        <v>71</v>
+      </c>
+      <c r="I10" s="6">
+        <v>67</v>
+      </c>
+      <c r="J10" s="6">
+        <v>281</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>72</v>
+      </c>
+      <c r="G11" s="6">
+        <v>72</v>
+      </c>
+      <c r="H11" s="6">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6">
+        <v>67</v>
+      </c>
+      <c r="J11" s="6">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7">
+        <v>7</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>71</v>
+      </c>
+      <c r="G12" s="6">
+        <v>73</v>
+      </c>
+      <c r="H12" s="6">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6">
+        <v>69</v>
+      </c>
+      <c r="J12" s="6">
+        <v>281</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
         <v>-9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>66</v>
-      </c>
-      <c r="G10" s="6">
-        <v>67</v>
-      </c>
-      <c r="H10" s="6">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6">
-        <v>68</v>
-      </c>
-      <c r="J10" s="6">
-        <v>271</v>
-      </c>
-      <c r="K10" s="7">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6">
-        <v>67</v>
-      </c>
-      <c r="H11" s="6">
-        <v>68</v>
-      </c>
-      <c r="I11" s="6">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6">
-        <v>271</v>
-      </c>
-      <c r="K11" s="7">
-        <v>13</v>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>70</v>
-      </c>
-      <c r="G12" s="6">
-        <v>64</v>
-      </c>
-      <c r="H12" s="6">
-        <v>69</v>
-      </c>
-      <c r="I12" s="6">
-        <v>68</v>
-      </c>
-      <c r="J12" s="6">
-        <v>271</v>
-      </c>
-      <c r="K12" s="7">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-3</v>
       </c>
       <c r="F13" s="6">
         <v>69</v>
       </c>
       <c r="G13" s="6">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H13" s="6">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" s="6">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7">
+        <v>7</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="L13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F14" s="6">
         <v>69</v>
       </c>
       <c r="G14" s="6">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H14" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I14" s="6">
         <v>68</v>
       </c>
       <c r="J14" s="6">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>125</v>
+      <c r="A15" s="6">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C15" s="6">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F15" s="6">
         <v>68</v>
       </c>
       <c r="G15" s="6">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I15" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J15" s="6">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K15" s="7">
+        <v>7</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>128</v>
+      <c r="A16" s="6">
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C16" s="6">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6">
+        <v>72</v>
+      </c>
+      <c r="H16" s="6">
+        <v>74</v>
+      </c>
+      <c r="I16" s="6">
+        <v>69</v>
+      </c>
+      <c r="J16" s="6">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="6">
         <v>-6</v>
       </c>
-      <c r="F16" s="6">
-        <v>69</v>
-      </c>
-      <c r="G16" s="6">
-        <v>69</v>
-      </c>
-      <c r="H16" s="6">
-        <v>71</v>
-      </c>
-      <c r="I16" s="6">
-        <v>64</v>
-      </c>
-      <c r="J16" s="6">
-        <v>273</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6">
+        <v>67</v>
+      </c>
+      <c r="H17" s="6">
+        <v>74</v>
+      </c>
+      <c r="I17" s="6">
+        <v>70</v>
+      </c>
+      <c r="J17" s="6">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7">
+        <v>7</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F17" s="6">
-        <v>67</v>
-      </c>
-      <c r="G17" s="6">
-        <v>75</v>
-      </c>
-      <c r="H17" s="6">
-        <v>65</v>
-      </c>
-      <c r="I17" s="6">
-        <v>66</v>
-      </c>
-      <c r="J17" s="6">
-        <v>273</v>
-      </c>
-      <c r="K17" s="7">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="L17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
@@ -1684,112 +1655,112 @@
         <v>-2</v>
       </c>
       <c r="F18" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="6">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H18" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J18" s="6">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7">
+        <v>7</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>128</v>
+      <c r="A19" s="6">
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="F19" s="6">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G19" s="6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H19" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I19" s="6">
+        <v>66</v>
+      </c>
+      <c r="J19" s="6">
+        <v>282</v>
+      </c>
+      <c r="K19" s="7">
+        <v>7</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>70</v>
+      </c>
+      <c r="G20" s="6">
         <v>73</v>
-      </c>
-      <c r="J19" s="6">
-        <v>273</v>
-      </c>
-      <c r="K19" s="7">
-        <v>13</v>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
-        <v>64</v>
-      </c>
-      <c r="G20" s="6">
-        <v>65</v>
       </c>
       <c r="H20" s="6">
         <v>69</v>
       </c>
       <c r="I20" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="6">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7">
+        <v>7</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
+      <c r="A21" s="6">
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C21" s="6">
         <v>-6</v>
@@ -1798,37 +1769,37 @@
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G21" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="6">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J21" s="6">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>133</v>
+      <c r="A22" s="6">
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C22" s="6">
         <v>-6</v>
@@ -1836,41 +1807,41 @@
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
-        <v>-4</v>
+      <c r="E22" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="6">
+        <v>73</v>
+      </c>
+      <c r="G22" s="6">
         <v>70</v>
-      </c>
-      <c r="G22" s="6">
-        <v>71</v>
       </c>
       <c r="H22" s="6">
         <v>67</v>
       </c>
       <c r="I22" s="6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J22" s="6">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7">
+        <v>7</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>133</v>
+      <c r="A23" s="6">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
@@ -1879,76 +1850,76 @@
         <v>-2</v>
       </c>
       <c r="F23" s="6">
+        <v>67</v>
+      </c>
+      <c r="G23" s="6">
+        <v>73</v>
+      </c>
+      <c r="H23" s="6">
+        <v>73</v>
+      </c>
+      <c r="I23" s="6">
+        <v>70</v>
+      </c>
+      <c r="J23" s="6">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7">
+        <v>7</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F24" s="6">
         <v>68</v>
       </c>
-      <c r="G23" s="6">
-        <v>71</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G24" s="6">
+        <v>76</v>
+      </c>
+      <c r="H24" s="6">
+        <v>72</v>
+      </c>
+      <c r="I24" s="6">
         <v>67</v>
       </c>
-      <c r="I23" s="6">
-        <v>68</v>
-      </c>
-      <c r="J23" s="6">
-        <v>274</v>
-      </c>
-      <c r="K23" s="7">
-        <v>13</v>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
-        <v>72</v>
-      </c>
-      <c r="G24" s="6">
-        <v>67</v>
-      </c>
-      <c r="H24" s="6">
-        <v>65</v>
-      </c>
-      <c r="I24" s="6">
-        <v>70</v>
-      </c>
       <c r="J24" s="6">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7">
-        <v>13</v>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>133</v>
+      <c r="A25" s="6">
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C25" s="6">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>2</v>
@@ -1957,34 +1928,34 @@
         <v>5</v>
       </c>
       <c r="F25" s="6">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G25" s="6">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H25" s="6">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I25" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" s="6">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7">
-        <v>13</v>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>136</v>
+      <c r="A26" s="6">
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>-5</v>
@@ -1993,193 +1964,193 @@
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="6">
+        <v>73</v>
+      </c>
+      <c r="G26" s="6">
+        <v>71</v>
+      </c>
+      <c r="H26" s="6">
+        <v>66</v>
+      </c>
+      <c r="I26" s="6">
+        <v>73</v>
+      </c>
+      <c r="J26" s="6">
+        <v>283</v>
+      </c>
+      <c r="K26" s="7">
+        <v>7</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F27" s="6">
         <v>70</v>
       </c>
-      <c r="G26" s="6">
-        <v>68</v>
-      </c>
-      <c r="H26" s="6">
-        <v>72</v>
-      </c>
-      <c r="I26" s="6">
-        <v>65</v>
-      </c>
-      <c r="J26" s="6">
-        <v>275</v>
-      </c>
-      <c r="K26" s="7">
-        <v>13</v>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="G27" s="6">
+        <v>69</v>
+      </c>
+      <c r="H27" s="6">
+        <v>75</v>
+      </c>
+      <c r="I27" s="6">
+        <v>70</v>
+      </c>
+      <c r="J27" s="6">
+        <v>284</v>
+      </c>
+      <c r="K27" s="7">
+        <v>7</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="6">
         <v>-4</v>
       </c>
-      <c r="F27" s="6">
-        <v>66</v>
-      </c>
-      <c r="G27" s="6">
-        <v>72</v>
-      </c>
-      <c r="H27" s="6">
-        <v>71</v>
-      </c>
-      <c r="I27" s="6">
-        <v>66</v>
-      </c>
-      <c r="J27" s="6">
-        <v>275</v>
-      </c>
-      <c r="K27" s="7">
-        <v>13</v>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-5</v>
-      </c>
       <c r="D28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G28" s="6">
         <v>70</v>
       </c>
       <c r="H28" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" s="6">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J28" s="6">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7">
-        <v>13</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>136</v>
+      <c r="A29" s="6">
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C29" s="6">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>71</v>
+      </c>
+      <c r="G29" s="6">
+        <v>71</v>
+      </c>
+      <c r="H29" s="6">
+        <v>71</v>
+      </c>
+      <c r="I29" s="6">
+        <v>71</v>
+      </c>
+      <c r="J29" s="6">
+        <v>284</v>
+      </c>
+      <c r="K29" s="7">
+        <v>7</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
         <v>-3</v>
       </c>
-      <c r="F29" s="6">
-        <v>70</v>
-      </c>
-      <c r="G29" s="6">
-        <v>70</v>
-      </c>
-      <c r="H29" s="6">
-        <v>68</v>
-      </c>
-      <c r="I29" s="6">
-        <v>67</v>
-      </c>
-      <c r="J29" s="6">
-        <v>275</v>
-      </c>
-      <c r="K29" s="7">
-        <v>13</v>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>-1</v>
-      </c>
       <c r="F30" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="6">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H30" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I30" s="6">
         <v>69</v>
       </c>
       <c r="J30" s="6">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K30" s="7">
-        <v>13</v>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>112</v>
+      <c r="A31" s="6">
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6">
         <v>-4</v>
@@ -2188,37 +2159,37 @@
         <v>2</v>
       </c>
       <c r="E31" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G31" s="6">
+        <v>70</v>
+      </c>
+      <c r="H31" s="6">
+        <v>68</v>
+      </c>
+      <c r="I31" s="6">
         <v>73</v>
       </c>
-      <c r="H31" s="6">
-        <v>69</v>
-      </c>
-      <c r="I31" s="6">
-        <v>67</v>
-      </c>
       <c r="J31" s="6">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K31" s="7">
-        <v>13</v>
-      </c>
-      <c r="L31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>112</v>
+      <c r="A32" s="6">
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C32" s="6">
         <v>-4</v>
@@ -2227,37 +2198,37 @@
         <v>2</v>
       </c>
       <c r="E32" s="6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F32" s="6">
+        <v>69</v>
+      </c>
+      <c r="G32" s="6">
+        <v>71</v>
+      </c>
+      <c r="H32" s="6">
         <v>70</v>
       </c>
-      <c r="G32" s="6">
-        <v>72</v>
-      </c>
-      <c r="H32" s="6">
-        <v>66</v>
-      </c>
       <c r="I32" s="6">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J32" s="6">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K32" s="7">
-        <v>13</v>
-      </c>
-      <c r="L32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>112</v>
+      <c r="A33" s="6">
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6">
         <v>-4</v>
@@ -2266,40 +2237,40 @@
         <v>2</v>
       </c>
       <c r="E33" s="6">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H33" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I33" s="6">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J33" s="6">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K33" s="7">
-        <v>13</v>
-      </c>
-      <c r="L33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>112</v>
+      <c r="A34" s="6">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C34" s="6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>2</v>
@@ -2308,73 +2279,73 @@
         <v>5</v>
       </c>
       <c r="F34" s="6">
+        <v>68</v>
+      </c>
+      <c r="G34" s="6">
+        <v>71</v>
+      </c>
+      <c r="H34" s="6">
+        <v>74</v>
+      </c>
+      <c r="I34" s="6">
         <v>72</v>
       </c>
-      <c r="G34" s="6">
-        <v>68</v>
-      </c>
-      <c r="H34" s="6">
-        <v>66</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
+        <v>285</v>
+      </c>
+      <c r="K34" s="7">
+        <v>7</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>73</v>
+      </c>
+      <c r="G35" s="6">
         <v>70</v>
       </c>
-      <c r="J34" s="6">
-        <v>276</v>
-      </c>
-      <c r="K34" s="7">
-        <v>13</v>
-      </c>
-      <c r="L34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>68</v>
-      </c>
-      <c r="G35" s="6">
-        <v>69</v>
-      </c>
       <c r="H35" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I35" s="6">
         <v>71</v>
       </c>
       <c r="J35" s="6">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="K35" s="7">
-        <v>13</v>
-      </c>
-      <c r="L35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>143</v>
+      <c r="A36" s="6">
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C36" s="6">
         <v>-3</v>
@@ -2382,77 +2353,77 @@
       <c r="D36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
-        <v>-5</v>
+      <c r="E36" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F36" s="6">
         <v>72</v>
       </c>
       <c r="G36" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H36" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36" s="6">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J36" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K36" s="7">
-        <v>13</v>
-      </c>
-      <c r="L36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>143</v>
+      <c r="A37" s="6">
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C37" s="6">
         <v>-3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E37" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F37" s="6">
+        <v>71</v>
+      </c>
+      <c r="G37" s="6">
+        <v>71</v>
+      </c>
+      <c r="H37" s="6">
         <v>73</v>
       </c>
-      <c r="G37" s="6">
-        <v>72</v>
-      </c>
-      <c r="H37" s="6">
-        <v>65</v>
-      </c>
       <c r="I37" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J37" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K37" s="7">
-        <v>13</v>
-      </c>
-      <c r="L37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>143</v>
+      <c r="A38" s="6">
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6">
         <v>-3</v>
@@ -2461,76 +2432,76 @@
         <v>2</v>
       </c>
       <c r="E38" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" s="6">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H38" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I38" s="6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J38" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K38" s="7">
-        <v>13</v>
-      </c>
-      <c r="L38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>143</v>
+      <c r="A39" s="6">
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6">
         <v>-3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E39" s="6">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F39" s="6">
+        <v>70</v>
+      </c>
+      <c r="G39" s="6">
+        <v>72</v>
+      </c>
+      <c r="H39" s="6">
+        <v>75</v>
+      </c>
+      <c r="I39" s="6">
         <v>68</v>
       </c>
-      <c r="G39" s="6">
-        <v>70</v>
-      </c>
-      <c r="H39" s="6">
-        <v>70</v>
-      </c>
-      <c r="I39" s="6">
-        <v>69</v>
-      </c>
       <c r="J39" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K39" s="7">
-        <v>13</v>
-      </c>
-      <c r="L39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>143</v>
+      <c r="A40" s="6">
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6">
         <v>-3</v>
@@ -2539,76 +2510,76 @@
         <v>2</v>
       </c>
       <c r="E40" s="6">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F40" s="6">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G40" s="6">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H40" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" s="6">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J40" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7">
-        <v>13</v>
-      </c>
-      <c r="L40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>143</v>
+      <c r="A41" s="6">
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="C41" s="6">
         <v>-3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F41" s="6">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G41" s="6">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H41" s="6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I41" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J41" s="6">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7">
-        <v>13</v>
-      </c>
-      <c r="L41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>143</v>
+      <c r="A42" s="6">
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="6">
         <v>-3</v>
@@ -2617,79 +2588,79 @@
         <v>2</v>
       </c>
       <c r="E42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" s="6">
+        <v>70</v>
+      </c>
+      <c r="G42" s="6">
+        <v>73</v>
+      </c>
+      <c r="H42" s="6">
+        <v>65</v>
+      </c>
+      <c r="I42" s="6">
+        <v>77</v>
+      </c>
+      <c r="J42" s="6">
+        <v>285</v>
+      </c>
+      <c r="K42" s="7">
+        <v>7</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
         <v>67</v>
       </c>
-      <c r="G42" s="6">
-        <v>71</v>
-      </c>
-      <c r="H42" s="6">
-        <v>68</v>
-      </c>
-      <c r="I42" s="6">
-        <v>71</v>
-      </c>
-      <c r="J42" s="6">
-        <v>277</v>
-      </c>
-      <c r="K42" s="7">
-        <v>13</v>
-      </c>
-      <c r="L42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>69</v>
-      </c>
       <c r="G43" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H43" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I43" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J43" s="6">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K43" s="7">
-        <v>13</v>
-      </c>
-      <c r="L43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>143</v>
+      <c r="A44" s="6">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C44" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>2</v>
@@ -2698,34 +2669,34 @@
         <v>3</v>
       </c>
       <c r="F44" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G44" s="6">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H44" s="6">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I44" s="6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" s="6">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7">
-        <v>13</v>
-      </c>
-      <c r="L44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>151</v>
+      <c r="A45" s="6">
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C45" s="6">
         <v>-2</v>
@@ -2733,38 +2704,38 @@
       <c r="D45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>5</v>
+      <c r="E45" s="6">
+        <v>2</v>
       </c>
       <c r="F45" s="6">
+        <v>70</v>
+      </c>
+      <c r="G45" s="6">
+        <v>73</v>
+      </c>
+      <c r="H45" s="6">
         <v>69</v>
       </c>
-      <c r="G45" s="6">
-        <v>68</v>
-      </c>
-      <c r="H45" s="6">
-        <v>71</v>
-      </c>
       <c r="I45" s="6">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J45" s="6">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K45" s="7">
-        <v>13</v>
-      </c>
-      <c r="L45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>151</v>
+      <c r="A46" s="6">
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C46" s="6">
         <v>-2</v>
@@ -2773,1317 +2744,1109 @@
         <v>2</v>
       </c>
       <c r="E46" s="6">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6">
+        <v>69</v>
+      </c>
+      <c r="G46" s="6">
+        <v>72</v>
+      </c>
+      <c r="H46" s="6">
+        <v>69</v>
+      </c>
+      <c r="I46" s="6">
+        <v>76</v>
+      </c>
+      <c r="J46" s="6">
+        <v>286</v>
+      </c>
+      <c r="K46" s="7">
+        <v>7</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="6">
         <v>-1</v>
       </c>
-      <c r="F46" s="6">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
-        <v>71</v>
-      </c>
-      <c r="H46" s="6">
-        <v>70</v>
-      </c>
-      <c r="I46" s="6">
-        <v>69</v>
-      </c>
-      <c r="J46" s="6">
-        <v>278</v>
-      </c>
-      <c r="K46" s="7">
-        <v>13</v>
-      </c>
-      <c r="L46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-2</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F47" s="6">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G47" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H47" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I47" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47" s="6">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K47" s="7">
-        <v>13</v>
-      </c>
-      <c r="L47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>153</v>
+      <c r="A48" s="6">
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6">
         <v>-1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E48" s="6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F48" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G48" s="6">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H48" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I48" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J48" s="6">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K48" s="7">
-        <v>13</v>
-      </c>
-      <c r="L48" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>153</v>
+      <c r="A49" s="6">
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C49" s="6">
         <v>-1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <v>-2</v>
       </c>
       <c r="F49" s="6">
         <v>71</v>
       </c>
       <c r="G49" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H49" s="6">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I49" s="6">
         <v>70</v>
       </c>
       <c r="J49" s="6">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K49" s="7">
-        <v>13</v>
-      </c>
-      <c r="L49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>113</v>
+      <c r="A50" s="6">
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E50" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>70</v>
+      </c>
+      <c r="G50" s="6">
+        <v>75</v>
+      </c>
+      <c r="H50" s="6">
+        <v>72</v>
+      </c>
+      <c r="I50" s="6">
+        <v>70</v>
+      </c>
+      <c r="J50" s="6">
+        <v>287</v>
+      </c>
+      <c r="K50" s="7">
+        <v>7</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>67</v>
+      </c>
+      <c r="G51" s="6">
+        <v>76</v>
+      </c>
+      <c r="H51" s="6">
+        <v>74</v>
+      </c>
+      <c r="I51" s="6">
+        <v>71</v>
+      </c>
+      <c r="J51" s="6">
+        <v>288</v>
+      </c>
+      <c r="K51" s="7">
+        <v>7</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>73</v>
+      </c>
+      <c r="G52" s="6">
+        <v>72</v>
+      </c>
+      <c r="H52" s="6">
+        <v>73</v>
+      </c>
+      <c r="I52" s="6">
+        <v>70</v>
+      </c>
+      <c r="J52" s="6">
+        <v>288</v>
+      </c>
+      <c r="K52" s="7">
+        <v>7</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="6">
         <v>-3</v>
       </c>
-      <c r="F50" s="6">
-        <v>71</v>
-      </c>
-      <c r="G50" s="6">
-        <v>73</v>
-      </c>
-      <c r="H50" s="6">
-        <v>69</v>
-      </c>
-      <c r="I50" s="6">
-        <v>67</v>
-      </c>
-      <c r="J50" s="6">
-        <v>280</v>
-      </c>
-      <c r="K50" s="7">
-        <v>13</v>
-      </c>
-      <c r="L50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="6">
-        <v>74</v>
-      </c>
-      <c r="G51" s="6">
-        <v>70</v>
-      </c>
-      <c r="H51" s="6">
-        <v>66</v>
-      </c>
-      <c r="I51" s="6">
-        <v>70</v>
-      </c>
-      <c r="J51" s="6">
-        <v>280</v>
-      </c>
-      <c r="K51" s="7">
-        <v>13</v>
-      </c>
-      <c r="L51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" s="6">
-        <v>69</v>
-      </c>
-      <c r="G52" s="6">
-        <v>74</v>
-      </c>
-      <c r="H52" s="6">
-        <v>65</v>
-      </c>
-      <c r="I52" s="6">
-        <v>72</v>
-      </c>
-      <c r="J52" s="6">
-        <v>280</v>
-      </c>
-      <c r="K52" s="7">
-        <v>13</v>
-      </c>
-      <c r="L52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6">
-        <v>-4</v>
-      </c>
       <c r="F53" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G53" s="6">
         <v>74</v>
       </c>
       <c r="H53" s="6">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I53" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J53" s="6">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K53" s="7">
-        <v>13</v>
-      </c>
-      <c r="L53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>156</v>
+      <c r="A54" s="6">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E54" s="6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="6">
+        <v>72</v>
+      </c>
+      <c r="G54" s="6">
+        <v>72</v>
+      </c>
+      <c r="H54" s="6">
+        <v>71</v>
+      </c>
+      <c r="I54" s="6">
+        <v>74</v>
+      </c>
+      <c r="J54" s="6">
+        <v>289</v>
+      </c>
+      <c r="K54" s="7">
+        <v>7</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>71</v>
+      </c>
+      <c r="G55" s="6">
+        <v>72</v>
+      </c>
+      <c r="H55" s="6">
         <v>73</v>
       </c>
-      <c r="G54" s="6">
+      <c r="I55" s="6">
         <v>73</v>
       </c>
-      <c r="H54" s="6">
+      <c r="J55" s="6">
+        <v>289</v>
+      </c>
+      <c r="K55" s="7">
+        <v>7</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6">
+        <v>70</v>
+      </c>
+      <c r="G56" s="6">
+        <v>73</v>
+      </c>
+      <c r="H56" s="6">
+        <v>71</v>
+      </c>
+      <c r="I56" s="6">
+        <v>76</v>
+      </c>
+      <c r="J56" s="6">
+        <v>290</v>
+      </c>
+      <c r="K56" s="7">
+        <v>7</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4</v>
+      </c>
+      <c r="F57" s="6">
+        <v>72</v>
+      </c>
+      <c r="G57" s="6">
+        <v>72</v>
+      </c>
+      <c r="H57" s="6">
+        <v>70</v>
+      </c>
+      <c r="I57" s="6">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6">
+        <v>290</v>
+      </c>
+      <c r="K57" s="7">
+        <v>7</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>69</v>
+      </c>
+      <c r="G58" s="6">
+        <v>72</v>
+      </c>
+      <c r="H58" s="6">
+        <v>72</v>
+      </c>
+      <c r="I58" s="6">
+        <v>77</v>
+      </c>
+      <c r="J58" s="6">
+        <v>290</v>
+      </c>
+      <c r="K58" s="7">
+        <v>7</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>70</v>
+      </c>
+      <c r="G59" s="6">
+        <v>76</v>
+      </c>
+      <c r="H59" s="6">
         <v>68</v>
       </c>
-      <c r="I54" s="6">
-        <v>67</v>
-      </c>
-      <c r="J54" s="6">
-        <v>281</v>
-      </c>
-      <c r="K54" s="7">
-        <v>13</v>
-      </c>
-      <c r="L54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6">
-        <v>66</v>
-      </c>
-      <c r="G55" s="6">
+      <c r="I59" s="6">
+        <v>76</v>
+      </c>
+      <c r="J59" s="6">
+        <v>290</v>
+      </c>
+      <c r="K59" s="7">
+        <v>7</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>70</v>
+      </c>
+      <c r="G60" s="6">
         <v>73</v>
       </c>
-      <c r="H55" s="6">
-        <v>72</v>
-      </c>
-      <c r="I55" s="6">
-        <v>70</v>
-      </c>
-      <c r="J55" s="6">
-        <v>281</v>
-      </c>
-      <c r="K55" s="7">
-        <v>13</v>
-      </c>
-      <c r="L55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>3</v>
-      </c>
-      <c r="F56" s="6">
-        <v>68</v>
-      </c>
-      <c r="G56" s="6">
-        <v>70</v>
-      </c>
-      <c r="H56" s="6">
-        <v>70</v>
-      </c>
-      <c r="I56" s="6">
-        <v>73</v>
-      </c>
-      <c r="J56" s="6">
-        <v>281</v>
-      </c>
-      <c r="K56" s="7">
-        <v>13</v>
-      </c>
-      <c r="L56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>3</v>
-      </c>
-      <c r="F57" s="6">
-        <v>70</v>
-      </c>
-      <c r="G57" s="6">
-        <v>69</v>
-      </c>
-      <c r="H57" s="6">
-        <v>69</v>
-      </c>
-      <c r="I57" s="6">
-        <v>73</v>
-      </c>
-      <c r="J57" s="6">
-        <v>281</v>
-      </c>
-      <c r="K57" s="7">
-        <v>13</v>
-      </c>
-      <c r="L57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="6">
-        <v>2</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F58" s="6">
-        <v>70</v>
-      </c>
-      <c r="G58" s="6">
-        <v>74</v>
-      </c>
-      <c r="H58" s="6">
-        <v>69</v>
-      </c>
-      <c r="I58" s="6">
-        <v>69</v>
-      </c>
-      <c r="J58" s="6">
-        <v>282</v>
-      </c>
-      <c r="K58" s="7">
-        <v>13</v>
-      </c>
-      <c r="L58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>71</v>
-      </c>
-      <c r="G59" s="6">
-        <v>69</v>
-      </c>
-      <c r="H59" s="6">
-        <v>73</v>
-      </c>
-      <c r="I59" s="6">
-        <v>69</v>
-      </c>
-      <c r="J59" s="6">
-        <v>282</v>
-      </c>
-      <c r="K59" s="7">
-        <v>13</v>
-      </c>
-      <c r="L59" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="H60" s="6">
+        <v>76</v>
+      </c>
+      <c r="I60" s="6">
+        <v>71</v>
+      </c>
+      <c r="J60" s="6">
+        <v>290</v>
+      </c>
+      <c r="K60" s="7">
+        <v>7</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>160</v>
-      </c>
-      <c r="B60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="6">
-        <v>3</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F60" s="6">
-        <v>72</v>
-      </c>
-      <c r="G60" s="6">
-        <v>71</v>
-      </c>
-      <c r="H60" s="6">
-        <v>73</v>
-      </c>
-      <c r="I60" s="6">
-        <v>67</v>
-      </c>
-      <c r="J60" s="6">
-        <v>283</v>
-      </c>
-      <c r="K60" s="7">
-        <v>13</v>
-      </c>
-      <c r="L60" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
-        <v>87</v>
       </c>
       <c r="C61" s="6">
         <v>3</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E61" s="6">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="6">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G61" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H61" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I61" s="6">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J61" s="6">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K61" s="7">
-        <v>13</v>
-      </c>
-      <c r="L61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>160</v>
+      <c r="A62" s="6">
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C62" s="6">
         <v>3</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="6">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G62" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H62" s="6">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I62" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J62" s="6">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K62" s="7">
-        <v>13</v>
-      </c>
-      <c r="L62" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>160</v>
+      <c r="A63" s="6">
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="C63" s="6">
         <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F63" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G63" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H63" s="6">
+        <v>73</v>
+      </c>
+      <c r="I63" s="6">
         <v>72</v>
       </c>
-      <c r="I63" s="6">
-        <v>69</v>
-      </c>
       <c r="J63" s="6">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K63" s="7">
-        <v>13</v>
-      </c>
-      <c r="L63" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>160</v>
+      <c r="A64" s="6">
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C64" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="6">
+        <v>6</v>
+      </c>
+      <c r="F64" s="6">
+        <v>72</v>
+      </c>
+      <c r="G64" s="6">
+        <v>70</v>
+      </c>
+      <c r="H64" s="6">
+        <v>72</v>
+      </c>
+      <c r="I64" s="6">
+        <v>78</v>
+      </c>
+      <c r="J64" s="6">
+        <v>292</v>
+      </c>
+      <c r="K64" s="7">
+        <v>7</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="6">
         <v>5</v>
       </c>
-      <c r="F64" s="6">
-        <v>71</v>
-      </c>
-      <c r="G64" s="6">
-        <v>73</v>
-      </c>
-      <c r="H64" s="6">
-        <v>69</v>
-      </c>
-      <c r="I64" s="6">
+      <c r="F65" s="6">
         <v>70</v>
       </c>
-      <c r="J64" s="6">
-        <v>283</v>
-      </c>
-      <c r="K64" s="7">
-        <v>13</v>
-      </c>
-      <c r="L64" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>71</v>
-      </c>
       <c r="G65" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H65" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I65" s="6">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J65" s="6">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K65" s="7">
-        <v>13</v>
-      </c>
-      <c r="L65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>165</v>
+      <c r="A66" s="6">
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C66" s="6">
         <v>4</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>68</v>
+      </c>
+      <c r="G66" s="6">
+        <v>74</v>
+      </c>
+      <c r="H66" s="6">
+        <v>75</v>
+      </c>
+      <c r="I66" s="6">
+        <v>75</v>
+      </c>
+      <c r="J66" s="6">
+        <v>292</v>
+      </c>
+      <c r="K66" s="7">
+        <v>7</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="6">
         <v>5</v>
       </c>
-      <c r="F66" s="6">
-        <v>73</v>
-      </c>
-      <c r="G66" s="6">
-        <v>71</v>
-      </c>
-      <c r="H66" s="6">
-        <v>70</v>
-      </c>
-      <c r="I66" s="6">
-        <v>70</v>
-      </c>
-      <c r="J66" s="6">
-        <v>284</v>
-      </c>
-      <c r="K66" s="7">
-        <v>13</v>
-      </c>
-      <c r="L66" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="6">
-        <v>4</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E67" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G67" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H67" s="6">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I67" s="6">
         <v>74</v>
       </c>
       <c r="J67" s="6">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K67" s="7">
-        <v>13</v>
-      </c>
-      <c r="L67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>167</v>
+      <c r="A68" s="6">
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" s="6">
         <v>5</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>-3</v>
+        <v>7</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F68" s="6">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G68" s="6">
+        <v>71</v>
+      </c>
+      <c r="H68" s="6">
+        <v>75</v>
+      </c>
+      <c r="I68" s="6">
+        <v>72</v>
+      </c>
+      <c r="J68" s="6">
+        <v>293</v>
+      </c>
+      <c r="K68" s="7">
+        <v>7</v>
+      </c>
+      <c r="L68" s="8">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="6">
+        <v>7</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6">
+        <v>70</v>
+      </c>
+      <c r="G69" s="6">
+        <v>74</v>
+      </c>
+      <c r="H69" s="6">
+        <v>75</v>
+      </c>
+      <c r="I69" s="6">
+        <v>76</v>
+      </c>
+      <c r="J69" s="6">
+        <v>295</v>
+      </c>
+      <c r="K69" s="7">
+        <v>7</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="6">
+        <v>7</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="6">
+        <v>4</v>
+      </c>
+      <c r="F70" s="6">
+        <v>73</v>
+      </c>
+      <c r="G70" s="6">
+        <v>68</v>
+      </c>
+      <c r="H70" s="6">
         <v>78</v>
       </c>
-      <c r="H68" s="6">
-        <v>69</v>
-      </c>
-      <c r="I68" s="6">
-        <v>67</v>
-      </c>
-      <c r="J68" s="6">
-        <v>285</v>
-      </c>
-      <c r="K68" s="7">
-        <v>13</v>
-      </c>
-      <c r="L68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="6">
-        <v>5</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F69" s="6">
-        <v>73</v>
-      </c>
-      <c r="G69" s="6">
-        <v>71</v>
-      </c>
-      <c r="H69" s="6">
+      <c r="I70" s="6">
+        <v>76</v>
+      </c>
+      <c r="J70" s="6">
+        <v>295</v>
+      </c>
+      <c r="K70" s="7">
+        <v>7</v>
+      </c>
+      <c r="L70" s="8">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="6">
+        <v>4</v>
+      </c>
+      <c r="F71" s="6">
         <v>72</v>
       </c>
-      <c r="I69" s="6">
-        <v>69</v>
-      </c>
-      <c r="J69" s="6">
-        <v>285</v>
-      </c>
-      <c r="K69" s="7">
-        <v>13</v>
-      </c>
-      <c r="L69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="6">
-        <v>7</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>3</v>
-      </c>
-      <c r="F70" s="6">
-        <v>72</v>
-      </c>
-      <c r="G70" s="6">
-        <v>69</v>
-      </c>
-      <c r="H70" s="6">
-        <v>73</v>
-      </c>
-      <c r="I70" s="6">
-        <v>73</v>
-      </c>
-      <c r="J70" s="6">
-        <v>287</v>
-      </c>
-      <c r="K70" s="7">
-        <v>13</v>
-      </c>
-      <c r="L70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="6">
-        <v>7</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6">
-        <v>73</v>
-      </c>
       <c r="G71" s="6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H71" s="6">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I71" s="6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J71" s="6">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K71" s="7">
-        <v>13</v>
-      </c>
-      <c r="L71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="6">
-        <v>7</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4</v>
-      </c>
-      <c r="F72" s="6">
-        <v>69</v>
-      </c>
-      <c r="G72" s="6">
-        <v>70</v>
-      </c>
-      <c r="H72" s="6">
-        <v>74</v>
-      </c>
-      <c r="I72" s="6">
-        <v>74</v>
-      </c>
-      <c r="J72" s="6">
-        <v>287</v>
-      </c>
-      <c r="K72" s="7">
-        <v>13</v>
-      </c>
-      <c r="L72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="6">
-        <v>8</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>73</v>
-      </c>
-      <c r="G73" s="6">
-        <v>71</v>
-      </c>
-      <c r="H73" s="6">
-        <v>75</v>
-      </c>
-      <c r="I73" s="6">
-        <v>69</v>
-      </c>
-      <c r="J73" s="6">
-        <v>288</v>
-      </c>
-      <c r="K73" s="7">
-        <v>13</v>
-      </c>
-      <c r="L73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="6">
-        <v>8</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" s="6">
-        <v>72</v>
-      </c>
-      <c r="G74" s="6">
-        <v>74</v>
-      </c>
-      <c r="H74" s="6">
-        <v>70</v>
-      </c>
-      <c r="I74" s="6">
-        <v>72</v>
-      </c>
-      <c r="J74" s="6">
-        <v>288</v>
-      </c>
-      <c r="K74" s="7">
-        <v>13</v>
-      </c>
-      <c r="L74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="6">
-        <v>9</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="6">
-        <v>71</v>
-      </c>
-      <c r="G75" s="6">
-        <v>73</v>
-      </c>
-      <c r="H75" s="6">
-        <v>75</v>
-      </c>
-      <c r="I75" s="6">
-        <v>70</v>
-      </c>
-      <c r="J75" s="6">
-        <v>289</v>
-      </c>
-      <c r="K75" s="7">
-        <v>13</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" ref="L75:L79" si="2">IF(LEFT(A75,1)="T",RIGHT(A75,LEN(A75)-1),A75)</f>
-        <v>74</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="6">
-        <v>10</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="6">
-        <v>73</v>
-      </c>
-      <c r="G76" s="6">
-        <v>76</v>
-      </c>
-      <c r="H76" s="6">
-        <v>72</v>
-      </c>
-      <c r="I76" s="6">
-        <v>69</v>
-      </c>
-      <c r="J76" s="6">
-        <v>290</v>
-      </c>
-      <c r="K76" s="7">
-        <v>13</v>
-      </c>
-      <c r="L76" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="6">
-        <v>10</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="6">
-        <v>5</v>
-      </c>
-      <c r="F77" s="6">
-        <v>68</v>
-      </c>
-      <c r="G77" s="6">
-        <v>73</v>
-      </c>
-      <c r="H77" s="6">
-        <v>74</v>
-      </c>
-      <c r="I77" s="6">
-        <v>75</v>
-      </c>
-      <c r="J77" s="6">
-        <v>290</v>
-      </c>
-      <c r="K77" s="7">
-        <v>13</v>
-      </c>
-      <c r="L77" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
+      <c r="A77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="6">
-        <v>11</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="6">
-        <v>3</v>
-      </c>
-      <c r="F78" s="6">
-        <v>72</v>
-      </c>
-      <c r="G78" s="6">
-        <v>71</v>
-      </c>
-      <c r="H78" s="6">
-        <v>75</v>
-      </c>
-      <c r="I78" s="6">
-        <v>73</v>
-      </c>
-      <c r="J78" s="6">
-        <v>291</v>
-      </c>
-      <c r="K78" s="7">
-        <v>13</v>
-      </c>
-      <c r="L78" s="8">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
+      <c r="A78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="6">
-        <v>15</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" s="6">
-        <v>73</v>
-      </c>
-      <c r="G79" s="6">
-        <v>74</v>
-      </c>
-      <c r="H79" s="6">
-        <v>76</v>
-      </c>
-      <c r="I79" s="6">
-        <v>72</v>
-      </c>
-      <c r="J79" s="6">
-        <v>295</v>
-      </c>
-      <c r="K79" s="7">
-        <v>13</v>
-      </c>
-      <c r="L79" s="8">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
+      <c r="A79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4091,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timhy\Desktop\SWOFantasyGolf.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3898D-52BB-485C-9DFA-24EC924E55B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0B9F2-58BF-45CA-B2AA-99BB8CADD2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="173">
   <si>
     <t>POS</t>
   </si>
@@ -371,42 +371,15 @@
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
   </si>
   <si>
-    <t>Justin Thomas</t>
-  </si>
-  <si>
     <t>Daniel Berger</t>
   </si>
   <si>
-    <t>Shane Lowry</t>
-  </si>
-  <si>
-    <t>Louis Oosthuizen</t>
-  </si>
-  <si>
-    <t>Dustin Johnson</t>
-  </si>
-  <si>
-    <t>Abraham Ancer</t>
-  </si>
-  <si>
     <t>Scottie Scheffler</t>
   </si>
   <si>
-    <t>Erik van Rooyen</t>
-  </si>
-  <si>
-    <t>Kevin Kisner</t>
-  </si>
-  <si>
-    <t>Corey Conners</t>
-  </si>
-  <si>
     <t>Tommy Fleetwood</t>
   </si>
   <si>
-    <t>Sergio Garcia</t>
-  </si>
-  <si>
     <t>Lucas Herbert</t>
   </si>
   <si>
@@ -416,18 +389,9 @@
     <t>Viktor Hovland</t>
   </si>
   <si>
-    <t>Paul Casey</t>
-  </si>
-  <si>
-    <t>Tyrrell Hatton</t>
-  </si>
-  <si>
     <t>Ian Poulter</t>
   </si>
   <si>
-    <t>Adam Hadwin</t>
-  </si>
-  <si>
     <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
   </si>
   <si>
@@ -452,91 +416,145 @@
     <t>STROKES</t>
   </si>
   <si>
-    <t>Anirban Lahiri</t>
-  </si>
-  <si>
     <t>Harold Varner III</t>
   </si>
   <si>
-    <t>Doug Ghim</t>
-  </si>
-  <si>
-    <t>Sepp Straka</t>
-  </si>
-  <si>
-    <t>Russell Henley</t>
-  </si>
-  <si>
-    <t>Taylor Pendrith</t>
-  </si>
-  <si>
-    <t>Keith Mitchell</t>
-  </si>
-  <si>
-    <t>Brendan Steele</t>
-  </si>
-  <si>
-    <t>Patton Kizzire</t>
-  </si>
-  <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
-    <t>Will Zalatoris</t>
-  </si>
-  <si>
-    <t>Seamus Power</t>
-  </si>
-  <si>
     <t>Sebastián Muñoz</t>
   </si>
   <si>
-    <t>Kramer Hickok</t>
-  </si>
-  <si>
-    <t>Francesco Molinari</t>
-  </si>
-  <si>
     <t>Troy Merritt</t>
   </si>
   <si>
     <t>Adam Long</t>
   </si>
   <si>
-    <t>Peter Malnati</t>
-  </si>
-  <si>
-    <t>Brice Garnett</t>
-  </si>
-  <si>
-    <t>Aaron Wise</t>
-  </si>
-  <si>
-    <t>Branden Grace</t>
-  </si>
-  <si>
-    <t>K.H. Lee</t>
-  </si>
-  <si>
-    <t>Sam Ryder</t>
-  </si>
-  <si>
-    <t>Hank Lebioda</t>
-  </si>
-  <si>
-    <t>Chesson Hadley</t>
-  </si>
-  <si>
-    <t>Brian Harman</t>
-  </si>
-  <si>
-    <t>Hayden Buckley</t>
-  </si>
-  <si>
-    <t>Nick Watney</t>
-  </si>
-  <si>
     <t>Lee Hodges</t>
+  </si>
+  <si>
+    <t>Brendon Todd</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Davis Riley</t>
+  </si>
+  <si>
+    <t>Kevin Na</t>
+  </si>
+  <si>
+    <t>Mito Pereira</t>
+  </si>
+  <si>
+    <t>Cam Davis</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>Tyler Duncan</t>
+  </si>
+  <si>
+    <t>Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t>Andrew Putnam</t>
+  </si>
+  <si>
+    <t>Chris Kirk</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>Danny Lee</t>
+  </si>
+  <si>
+    <t>Zach Johnson</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>Chez Reavie</t>
+  </si>
+  <si>
+    <t>Webb Simpson</t>
+  </si>
+  <si>
+    <t>Alex Smalley</t>
+  </si>
+  <si>
+    <t>Chad Ramey</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>Luke Donald</t>
+  </si>
+  <si>
+    <t>Kurt Kitayama</t>
+  </si>
+  <si>
+    <t>Adam Svensson</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>David Lipsky</t>
+  </si>
+  <si>
+    <t>Nick Taylor</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>Martin Trainer</t>
+  </si>
+  <si>
+    <t>Mark Hubbard</t>
+  </si>
+  <si>
+    <t>C.T. Pan</t>
+  </si>
+  <si>
+    <t>Rory Sabbatini</t>
+  </si>
+  <si>
+    <t>Max McGreevy</t>
+  </si>
+  <si>
+    <t>T57</t>
+  </si>
+  <si>
+    <t>Rickie Fowler</t>
+  </si>
+  <si>
+    <t>Matthias Schwab</t>
+  </si>
+  <si>
+    <t>Sahith Theegala</t>
+  </si>
+  <si>
+    <t>T63</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo</t>
+  </si>
+  <si>
+    <t>Austin Smotherman</t>
+  </si>
+  <si>
+    <t>Aaron Rai</t>
   </si>
 </sst>
 </file>
@@ -947,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,31 +987,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -1010,31 +1028,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F2" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="6">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K2" s="7">
         <v>7</v>
@@ -1052,31 +1070,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="6">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="6">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K3" s="7">
         <v>7</v>
@@ -1094,31 +1112,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" s="6">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I4" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="6">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7">
         <v>7</v>
@@ -1132,140 +1150,140 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
+      <c r="A5" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="6">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6">
         <v>68</v>
       </c>
-      <c r="G5" s="6">
-        <v>74</v>
-      </c>
       <c r="H5" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="6">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7">
         <v>7</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
+      <c r="A6" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="6">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6">
+        <v>70</v>
+      </c>
+      <c r="I6" s="6">
+        <v>69</v>
+      </c>
+      <c r="J6" s="6">
+        <v>273</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>67</v>
+      </c>
+      <c r="G7" s="6">
+        <v>64</v>
+      </c>
+      <c r="H7" s="6">
+        <v>70</v>
+      </c>
+      <c r="I7" s="6">
         <v>72</v>
       </c>
-      <c r="G6" s="6">
-        <v>71</v>
-      </c>
-      <c r="H6" s="6">
-        <v>68</v>
-      </c>
-      <c r="I6" s="6">
-        <v>68</v>
-      </c>
-      <c r="J6" s="6">
-        <v>279</v>
-      </c>
-      <c r="K6" s="7">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="J7" s="6">
+        <v>273</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>69</v>
-      </c>
-      <c r="G7" s="6">
-        <v>69</v>
-      </c>
-      <c r="H7" s="6">
-        <v>72</v>
-      </c>
-      <c r="I7" s="6">
-        <v>70</v>
-      </c>
-      <c r="J7" s="6">
-        <v>280</v>
-      </c>
-      <c r="K7" s="7">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
+      <c r="A8" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6">
         <v>67</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>71</v>
       </c>
       <c r="G8" s="6">
         <v>71</v>
@@ -1274,28 +1292,28 @@
         <v>68</v>
       </c>
       <c r="I8" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="6">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7">
         <v>7</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
+      <c r="A9" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>2</v>
@@ -1304,271 +1322,271 @@
         <v>5</v>
       </c>
       <c r="F9" s="6">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6">
+        <v>66</v>
+      </c>
+      <c r="H9" s="6">
         <v>70</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>70</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
+        <v>275</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6">
+        <v>66</v>
+      </c>
+      <c r="H10" s="6">
         <v>68</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
+        <v>71</v>
+      </c>
+      <c r="J10" s="6">
+        <v>275</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>66</v>
+      </c>
+      <c r="G11" s="6">
+        <v>66</v>
+      </c>
+      <c r="H11" s="6">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6">
         <v>72</v>
       </c>
-      <c r="J9" s="6">
-        <v>280</v>
-      </c>
-      <c r="K9" s="7">
-        <v>7</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="J11" s="6">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7">
+        <v>7</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" ref="L11:L71" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="6">
         <v>-5</v>
       </c>
-      <c r="F10" s="6">
-        <v>69</v>
-      </c>
-      <c r="G10" s="6">
-        <v>74</v>
-      </c>
-      <c r="H10" s="6">
-        <v>71</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6">
+        <v>275</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6">
+        <v>66</v>
+      </c>
+      <c r="H13" s="6">
+        <v>71</v>
+      </c>
+      <c r="I13" s="6">
+        <v>69</v>
+      </c>
+      <c r="J13" s="6">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7">
+        <v>7</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>67</v>
       </c>
-      <c r="J10" s="6">
-        <v>281</v>
-      </c>
-      <c r="K10" s="7">
-        <v>7</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>72</v>
-      </c>
-      <c r="G11" s="6">
-        <v>72</v>
-      </c>
-      <c r="H11" s="6">
-        <v>70</v>
-      </c>
-      <c r="I11" s="6">
-        <v>67</v>
-      </c>
-      <c r="J11" s="6">
-        <v>281</v>
-      </c>
-      <c r="K11" s="7">
-        <v>7</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" ref="L11:L74" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>71</v>
-      </c>
-      <c r="G12" s="6">
-        <v>73</v>
-      </c>
-      <c r="H12" s="6">
-        <v>68</v>
-      </c>
-      <c r="I12" s="6">
-        <v>69</v>
-      </c>
-      <c r="J12" s="6">
-        <v>281</v>
-      </c>
-      <c r="K12" s="7">
-        <v>7</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-9</v>
-      </c>
-      <c r="F13" s="6">
-        <v>69</v>
-      </c>
-      <c r="G13" s="6">
-        <v>73</v>
-      </c>
-      <c r="H13" s="6">
-        <v>76</v>
-      </c>
-      <c r="I13" s="6">
-        <v>63</v>
-      </c>
-      <c r="J13" s="6">
-        <v>281</v>
-      </c>
-      <c r="K13" s="7">
-        <v>7</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>69</v>
-      </c>
       <c r="G14" s="6">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H14" s="6">
         <v>72</v>
       </c>
       <c r="I14" s="6">
+        <v>71</v>
+      </c>
+      <c r="J14" s="6">
+        <v>276</v>
+      </c>
+      <c r="K14" s="7">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>69</v>
+      </c>
+      <c r="G15" s="6">
+        <v>66</v>
+      </c>
+      <c r="H15" s="6">
         <v>68</v>
       </c>
-      <c r="J14" s="6">
-        <v>282</v>
-      </c>
-      <c r="K14" s="7">
-        <v>7</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="I15" s="6">
+        <v>73</v>
+      </c>
+      <c r="J15" s="6">
+        <v>276</v>
+      </c>
+      <c r="K15" s="7">
+        <v>7</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="6">
         <v>-3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>68</v>
-      </c>
-      <c r="G15" s="6">
-        <v>71</v>
-      </c>
-      <c r="H15" s="6">
-        <v>74</v>
-      </c>
-      <c r="I15" s="6">
-        <v>69</v>
-      </c>
-      <c r="J15" s="6">
-        <v>282</v>
-      </c>
-      <c r="K15" s="7">
-        <v>7</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -1577,466 +1595,466 @@
         <v>-3</v>
       </c>
       <c r="F16" s="6">
+        <v>71</v>
+      </c>
+      <c r="G16" s="6">
         <v>67</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>72</v>
       </c>
-      <c r="H16" s="6">
-        <v>74</v>
-      </c>
       <c r="I16" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="6">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7">
         <v>7</v>
       </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
+      <c r="A17" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
-        <v>-2</v>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6">
+        <v>70</v>
+      </c>
+      <c r="H17" s="6">
         <v>67</v>
-      </c>
-      <c r="H17" s="6">
-        <v>74</v>
       </c>
       <c r="I17" s="6">
         <v>70</v>
       </c>
       <c r="J17" s="6">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7">
         <v>7</v>
       </c>
-      <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>13</v>
+      <c r="A18" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="6">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6">
         <v>70</v>
       </c>
       <c r="I18" s="6">
+        <v>71</v>
+      </c>
+      <c r="J18" s="6">
+        <v>277</v>
+      </c>
+      <c r="K18" s="7">
+        <v>7</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6">
+        <v>72</v>
+      </c>
+      <c r="J19" s="6">
+        <v>277</v>
+      </c>
+      <c r="K19" s="7">
+        <v>7</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>73</v>
+      </c>
+      <c r="G20" s="6">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6">
+        <v>67</v>
+      </c>
+      <c r="I20" s="6">
+        <v>72</v>
+      </c>
+      <c r="J20" s="6">
+        <v>277</v>
+      </c>
+      <c r="K20" s="7">
+        <v>7</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>66</v>
+      </c>
+      <c r="G21" s="6">
+        <v>67</v>
+      </c>
+      <c r="H21" s="6">
         <v>70</v>
       </c>
-      <c r="J18" s="6">
-        <v>282</v>
-      </c>
-      <c r="K18" s="7">
-        <v>7</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F19" s="6">
-        <v>72</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="I21" s="6">
+        <v>74</v>
+      </c>
+      <c r="J21" s="6">
+        <v>277</v>
+      </c>
+      <c r="K21" s="7">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6">
+        <v>65</v>
+      </c>
+      <c r="H22" s="6">
         <v>73</v>
       </c>
-      <c r="H19" s="6">
-        <v>71</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="I22" s="6">
+        <v>71</v>
+      </c>
+      <c r="J22" s="6">
+        <v>278</v>
+      </c>
+      <c r="K22" s="7">
+        <v>7</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
         <v>66</v>
       </c>
-      <c r="J19" s="6">
-        <v>282</v>
-      </c>
-      <c r="K19" s="7">
-        <v>7</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>70</v>
-      </c>
-      <c r="G20" s="6">
-        <v>73</v>
-      </c>
-      <c r="H20" s="6">
-        <v>69</v>
-      </c>
-      <c r="I20" s="6">
-        <v>70</v>
-      </c>
-      <c r="J20" s="6">
-        <v>282</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>73</v>
-      </c>
-      <c r="G21" s="6">
-        <v>69</v>
-      </c>
-      <c r="H21" s="6">
-        <v>69</v>
-      </c>
-      <c r="I21" s="6">
-        <v>71</v>
-      </c>
-      <c r="J21" s="6">
-        <v>282</v>
-      </c>
-      <c r="K21" s="7">
-        <v>7</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6">
-        <v>73</v>
-      </c>
-      <c r="G22" s="6">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6">
-        <v>67</v>
-      </c>
-      <c r="I22" s="6">
-        <v>72</v>
-      </c>
-      <c r="J22" s="6">
-        <v>282</v>
-      </c>
-      <c r="K22" s="7">
-        <v>7</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>67</v>
-      </c>
       <c r="G23" s="6">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H23" s="6">
         <v>73</v>
       </c>
       <c r="I23" s="6">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J23" s="6">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7">
         <v>7</v>
       </c>
-      <c r="L23" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>22</v>
+      <c r="A24" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="6">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
         <v>-5</v>
       </c>
       <c r="F24" s="6">
+        <v>73</v>
+      </c>
+      <c r="G24" s="6">
+        <v>64</v>
+      </c>
+      <c r="H24" s="6">
+        <v>77</v>
+      </c>
+      <c r="I24" s="6">
+        <v>65</v>
+      </c>
+      <c r="J24" s="6">
+        <v>279</v>
+      </c>
+      <c r="K24" s="7">
+        <v>7</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>69</v>
+      </c>
+      <c r="G25" s="6">
+        <v>69</v>
+      </c>
+      <c r="H25" s="6">
+        <v>73</v>
+      </c>
+      <c r="I25" s="6">
         <v>68</v>
       </c>
-      <c r="G24" s="6">
-        <v>76</v>
-      </c>
-      <c r="H24" s="6">
-        <v>72</v>
-      </c>
-      <c r="I24" s="6">
-        <v>67</v>
-      </c>
-      <c r="J24" s="6">
-        <v>283</v>
-      </c>
-      <c r="K24" s="7">
-        <v>7</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
-        <v>66</v>
-      </c>
-      <c r="G25" s="6">
-        <v>73</v>
-      </c>
-      <c r="H25" s="6">
-        <v>72</v>
-      </c>
-      <c r="I25" s="6">
-        <v>72</v>
-      </c>
       <c r="J25" s="6">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7">
         <v>7</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>22</v>
+      <c r="A26" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I26" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J26" s="6">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="1"/>
-        <v>22</v>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
+      <c r="A27" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C27" s="6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
         <v>70</v>
       </c>
       <c r="G27" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" s="6">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I27" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" s="6">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K27" s="7">
         <v>7</v>
       </c>
-      <c r="L27" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>26</v>
+      <c r="A28" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-4</v>
+        <v>147</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>2</v>
@@ -2045,358 +2063,358 @@
         <v>-1</v>
       </c>
       <c r="F28" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G28" s="6">
+        <v>72</v>
+      </c>
+      <c r="H28" s="6">
+        <v>71</v>
+      </c>
+      <c r="I28" s="6">
+        <v>69</v>
+      </c>
+      <c r="J28" s="6">
+        <v>280</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>68</v>
+      </c>
+      <c r="G29" s="6">
+        <v>71</v>
+      </c>
+      <c r="H29" s="6">
+        <v>71</v>
+      </c>
+      <c r="I29" s="6">
         <v>70</v>
       </c>
-      <c r="H28" s="6">
+      <c r="J29" s="6">
+        <v>280</v>
+      </c>
+      <c r="K29" s="7">
+        <v>7</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>66</v>
+      </c>
+      <c r="G30" s="6">
+        <v>69</v>
+      </c>
+      <c r="H30" s="6">
+        <v>73</v>
+      </c>
+      <c r="I30" s="6">
         <v>72</v>
       </c>
-      <c r="I28" s="6">
-        <v>71</v>
-      </c>
-      <c r="J28" s="6">
-        <v>284</v>
-      </c>
-      <c r="K28" s="7">
-        <v>7</v>
-      </c>
-      <c r="L28" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="J30" s="6">
+        <v>280</v>
+      </c>
+      <c r="K30" s="7">
+        <v>7</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>72</v>
+      </c>
+      <c r="G31" s="6">
+        <v>69</v>
+      </c>
+      <c r="H31" s="6">
+        <v>67</v>
+      </c>
+      <c r="I31" s="6">
+        <v>72</v>
+      </c>
+      <c r="J31" s="6">
+        <v>280</v>
+      </c>
+      <c r="K31" s="7">
+        <v>7</v>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6">
+        <v>68</v>
+      </c>
+      <c r="H32" s="6">
+        <v>71</v>
+      </c>
+      <c r="I32" s="6">
+        <v>73</v>
+      </c>
+      <c r="J32" s="6">
+        <v>280</v>
+      </c>
+      <c r="K32" s="7">
+        <v>7</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6">
+        <v>72</v>
+      </c>
+      <c r="G33" s="6">
+        <v>66</v>
+      </c>
+      <c r="H33" s="6">
+        <v>69</v>
+      </c>
+      <c r="I33" s="6">
+        <v>73</v>
+      </c>
+      <c r="J33" s="6">
+        <v>280</v>
+      </c>
+      <c r="K33" s="7">
+        <v>7</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>70</v>
+      </c>
+      <c r="G34" s="6">
+        <v>66</v>
+      </c>
+      <c r="H34" s="6">
+        <v>69</v>
+      </c>
+      <c r="I34" s="6">
+        <v>75</v>
+      </c>
+      <c r="J34" s="6">
+        <v>280</v>
+      </c>
+      <c r="K34" s="7">
+        <v>7</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>8</v>
+      </c>
+      <c r="F35" s="6">
+        <v>66</v>
+      </c>
+      <c r="G35" s="6">
+        <v>68</v>
+      </c>
+      <c r="H35" s="6">
+        <v>68</v>
+      </c>
+      <c r="I35" s="6">
+        <v>78</v>
+      </c>
+      <c r="J35" s="6">
+        <v>280</v>
+      </c>
+      <c r="K35" s="7">
+        <v>7</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
         <v>-4</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="F36" s="6">
+        <v>71</v>
+      </c>
+      <c r="G36" s="6">
+        <v>70</v>
+      </c>
+      <c r="H36" s="6">
+        <v>74</v>
+      </c>
+      <c r="I36" s="6">
+        <v>66</v>
+      </c>
+      <c r="J36" s="6">
+        <v>281</v>
+      </c>
+      <c r="K36" s="7">
+        <v>7</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
         <v>-1</v>
       </c>
-      <c r="F29" s="6">
-        <v>71</v>
-      </c>
-      <c r="G29" s="6">
-        <v>71</v>
-      </c>
-      <c r="H29" s="6">
-        <v>71</v>
-      </c>
-      <c r="I29" s="6">
-        <v>71</v>
-      </c>
-      <c r="J29" s="6">
-        <v>284</v>
-      </c>
-      <c r="K29" s="7">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F30" s="6">
-        <v>69</v>
-      </c>
-      <c r="G30" s="6">
-        <v>75</v>
-      </c>
-      <c r="H30" s="6">
-        <v>71</v>
-      </c>
-      <c r="I30" s="6">
-        <v>69</v>
-      </c>
-      <c r="J30" s="6">
-        <v>284</v>
-      </c>
-      <c r="K30" s="7">
-        <v>7</v>
-      </c>
-      <c r="L30" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>73</v>
-      </c>
-      <c r="G31" s="6">
-        <v>70</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="F37" s="6">
         <v>68</v>
-      </c>
-      <c r="I31" s="6">
-        <v>73</v>
-      </c>
-      <c r="J31" s="6">
-        <v>284</v>
-      </c>
-      <c r="K31" s="7">
-        <v>7</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6">
-        <v>69</v>
-      </c>
-      <c r="G32" s="6">
-        <v>71</v>
-      </c>
-      <c r="H32" s="6">
-        <v>70</v>
-      </c>
-      <c r="I32" s="6">
-        <v>74</v>
-      </c>
-      <c r="J32" s="6">
-        <v>284</v>
-      </c>
-      <c r="K32" s="7">
-        <v>7</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>4</v>
-      </c>
-      <c r="F33" s="6">
-        <v>68</v>
-      </c>
-      <c r="G33" s="6">
-        <v>69</v>
-      </c>
-      <c r="H33" s="6">
-        <v>71</v>
-      </c>
-      <c r="I33" s="6">
-        <v>76</v>
-      </c>
-      <c r="J33" s="6">
-        <v>284</v>
-      </c>
-      <c r="K33" s="7">
-        <v>7</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>68</v>
-      </c>
-      <c r="G34" s="6">
-        <v>71</v>
-      </c>
-      <c r="H34" s="6">
-        <v>74</v>
-      </c>
-      <c r="I34" s="6">
-        <v>72</v>
-      </c>
-      <c r="J34" s="6">
-        <v>285</v>
-      </c>
-      <c r="K34" s="7">
-        <v>7</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>73</v>
-      </c>
-      <c r="G35" s="6">
-        <v>70</v>
-      </c>
-      <c r="H35" s="6">
-        <v>71</v>
-      </c>
-      <c r="I35" s="6">
-        <v>71</v>
-      </c>
-      <c r="J35" s="6">
-        <v>285</v>
-      </c>
-      <c r="K35" s="7">
-        <v>7</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6">
-        <v>72</v>
-      </c>
-      <c r="G36" s="6">
-        <v>69</v>
-      </c>
-      <c r="H36" s="6">
-        <v>72</v>
-      </c>
-      <c r="I36" s="6">
-        <v>72</v>
-      </c>
-      <c r="J36" s="6">
-        <v>285</v>
-      </c>
-      <c r="K36" s="7">
-        <v>7</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F37" s="6">
-        <v>71</v>
       </c>
       <c r="G37" s="6">
         <v>71</v>
@@ -2405,106 +2423,106 @@
         <v>73</v>
       </c>
       <c r="I37" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="6">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K37" s="7">
         <v>7</v>
       </c>
-      <c r="L37" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>33</v>
+      <c r="A38" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C38" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="6">
         <v>70</v>
       </c>
       <c r="G38" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I38" s="6">
+        <v>69</v>
+      </c>
+      <c r="J38" s="6">
+        <v>281</v>
+      </c>
+      <c r="K38" s="7">
+        <v>7</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>69</v>
+      </c>
+      <c r="G39" s="6">
+        <v>71</v>
+      </c>
+      <c r="H39" s="6">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6">
         <v>73</v>
       </c>
-      <c r="J38" s="6">
-        <v>285</v>
-      </c>
-      <c r="K38" s="7">
-        <v>7</v>
-      </c>
-      <c r="L38" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F39" s="6">
-        <v>70</v>
-      </c>
-      <c r="G39" s="6">
-        <v>72</v>
-      </c>
-      <c r="H39" s="6">
-        <v>75</v>
-      </c>
-      <c r="I39" s="6">
-        <v>68</v>
-      </c>
       <c r="J39" s="6">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K39" s="7">
         <v>7</v>
       </c>
-      <c r="L39" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="L39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>33</v>
+      <c r="A40" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>2</v>
@@ -2513,154 +2531,154 @@
         <v>4</v>
       </c>
       <c r="F40" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G40" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I40" s="6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J40" s="6">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7">
         <v>7</v>
       </c>
-      <c r="L40" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>33</v>
+      <c r="A41" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="C41" s="6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E41" s="6">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="F41" s="6">
         <v>73</v>
       </c>
       <c r="G41" s="6">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H41" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I41" s="6">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J41" s="6">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7">
         <v>7</v>
       </c>
-      <c r="L41" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="L41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>33</v>
+      <c r="A42" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C42" s="6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6">
         <v>70</v>
       </c>
       <c r="G42" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H42" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I42" s="6">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J42" s="6">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K42" s="7">
         <v>7</v>
       </c>
-      <c r="L42" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="L42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
+      <c r="A43" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C43" s="6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43" s="6">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H43" s="6">
         <v>71</v>
       </c>
       <c r="I43" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J43" s="6">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7">
         <v>7</v>
       </c>
-      <c r="L43" s="8">
-        <f t="shared" si="1"/>
-        <v>42</v>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>42</v>
+      <c r="A44" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C44" s="6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>2</v>
@@ -2669,882 +2687,882 @@
         <v>3</v>
       </c>
       <c r="F44" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="6">
+        <v>69</v>
+      </c>
+      <c r="H44" s="6">
+        <v>71</v>
+      </c>
+      <c r="I44" s="6">
+        <v>73</v>
+      </c>
+      <c r="J44" s="6">
+        <v>282</v>
+      </c>
+      <c r="K44" s="7">
+        <v>7</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6">
+        <v>69</v>
+      </c>
+      <c r="G45" s="6">
+        <v>69</v>
+      </c>
+      <c r="H45" s="6">
+        <v>71</v>
+      </c>
+      <c r="I45" s="6">
+        <v>73</v>
+      </c>
+      <c r="J45" s="6">
+        <v>282</v>
+      </c>
+      <c r="K45" s="7">
+        <v>7</v>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6">
+        <v>70</v>
+      </c>
+      <c r="G46" s="6">
+        <v>67</v>
+      </c>
+      <c r="H46" s="6">
+        <v>70</v>
+      </c>
+      <c r="I46" s="6">
         <v>75</v>
       </c>
-      <c r="H44" s="6">
+      <c r="J46" s="6">
+        <v>282</v>
+      </c>
+      <c r="K46" s="7">
+        <v>7</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>6</v>
+      </c>
+      <c r="F47" s="6">
+        <v>71</v>
+      </c>
+      <c r="G47" s="6">
         <v>65</v>
       </c>
-      <c r="I44" s="6">
-        <v>75</v>
-      </c>
-      <c r="J44" s="6">
-        <v>286</v>
-      </c>
-      <c r="K44" s="7">
-        <v>7</v>
-      </c>
-      <c r="L44" s="8">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="H47" s="6">
+        <v>70</v>
+      </c>
+      <c r="I47" s="6">
+        <v>76</v>
+      </c>
+      <c r="J47" s="6">
+        <v>282</v>
+      </c>
+      <c r="K47" s="7">
+        <v>7</v>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6">
+        <v>69</v>
+      </c>
+      <c r="G48" s="6">
+        <v>68</v>
+      </c>
+      <c r="H48" s="6">
+        <v>69</v>
+      </c>
+      <c r="I48" s="6">
+        <v>76</v>
+      </c>
+      <c r="J48" s="6">
+        <v>282</v>
+      </c>
+      <c r="K48" s="7">
+        <v>7</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>71</v>
+      </c>
+      <c r="G49" s="6">
+        <v>68</v>
+      </c>
+      <c r="H49" s="6">
+        <v>73</v>
+      </c>
+      <c r="I49" s="6">
+        <v>71</v>
+      </c>
+      <c r="J49" s="6">
+        <v>283</v>
+      </c>
+      <c r="K49" s="7">
+        <v>7</v>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>71</v>
+      </c>
+      <c r="G50" s="6">
         <v>70</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H50" s="6">
+        <v>70</v>
+      </c>
+      <c r="I50" s="6">
+        <v>72</v>
+      </c>
+      <c r="J50" s="6">
+        <v>283</v>
+      </c>
+      <c r="K50" s="7">
+        <v>7</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>70</v>
+      </c>
+      <c r="G51" s="6">
+        <v>70</v>
+      </c>
+      <c r="H51" s="6">
+        <v>70</v>
+      </c>
+      <c r="I51" s="6">
         <v>73</v>
       </c>
-      <c r="H45" s="6">
-        <v>69</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="J51" s="6">
+        <v>283</v>
+      </c>
+      <c r="K51" s="7">
+        <v>7</v>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6">
+        <v>66</v>
+      </c>
+      <c r="G52" s="6">
+        <v>71</v>
+      </c>
+      <c r="H52" s="6">
+        <v>72</v>
+      </c>
+      <c r="I52" s="6">
         <v>74</v>
       </c>
-      <c r="J45" s="6">
-        <v>286</v>
-      </c>
-      <c r="K45" s="7">
-        <v>7</v>
-      </c>
-      <c r="L45" s="8">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="J52" s="6">
+        <v>283</v>
+      </c>
+      <c r="K52" s="7">
+        <v>7</v>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="6">
         <v>4</v>
       </c>
-      <c r="F46" s="6">
-        <v>69</v>
-      </c>
-      <c r="G46" s="6">
-        <v>72</v>
-      </c>
-      <c r="H46" s="6">
-        <v>69</v>
-      </c>
-      <c r="I46" s="6">
-        <v>76</v>
-      </c>
-      <c r="J46" s="6">
-        <v>286</v>
-      </c>
-      <c r="K46" s="7">
-        <v>7</v>
-      </c>
-      <c r="L46" s="8">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>74</v>
-      </c>
-      <c r="G47" s="6">
-        <v>71</v>
-      </c>
-      <c r="H47" s="6">
-        <v>71</v>
-      </c>
-      <c r="I47" s="6">
-        <v>71</v>
-      </c>
-      <c r="J47" s="6">
-        <v>287</v>
-      </c>
-      <c r="K47" s="7">
-        <v>7</v>
-      </c>
-      <c r="L47" s="8">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="D53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>68</v>
+      </c>
+      <c r="G53" s="6">
         <v>70</v>
-      </c>
-      <c r="G48" s="6">
-        <v>76</v>
-      </c>
-      <c r="H48" s="6">
-        <v>70</v>
-      </c>
-      <c r="I48" s="6">
-        <v>71</v>
-      </c>
-      <c r="J48" s="6">
-        <v>287</v>
-      </c>
-      <c r="K48" s="7">
-        <v>7</v>
-      </c>
-      <c r="L48" s="8">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F49" s="6">
-        <v>71</v>
-      </c>
-      <c r="G49" s="6">
-        <v>71</v>
-      </c>
-      <c r="H49" s="6">
-        <v>75</v>
-      </c>
-      <c r="I49" s="6">
-        <v>70</v>
-      </c>
-      <c r="J49" s="6">
-        <v>287</v>
-      </c>
-      <c r="K49" s="7">
-        <v>7</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F50" s="6">
-        <v>70</v>
-      </c>
-      <c r="G50" s="6">
-        <v>75</v>
-      </c>
-      <c r="H50" s="6">
-        <v>72</v>
-      </c>
-      <c r="I50" s="6">
-        <v>70</v>
-      </c>
-      <c r="J50" s="6">
-        <v>287</v>
-      </c>
-      <c r="K50" s="7">
-        <v>7</v>
-      </c>
-      <c r="L50" s="8">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>67</v>
-      </c>
-      <c r="G51" s="6">
-        <v>76</v>
-      </c>
-      <c r="H51" s="6">
-        <v>74</v>
-      </c>
-      <c r="I51" s="6">
-        <v>71</v>
-      </c>
-      <c r="J51" s="6">
-        <v>288</v>
-      </c>
-      <c r="K51" s="7">
-        <v>7</v>
-      </c>
-      <c r="L51" s="8">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F52" s="6">
-        <v>73</v>
-      </c>
-      <c r="G52" s="6">
-        <v>72</v>
-      </c>
-      <c r="H52" s="6">
-        <v>73</v>
-      </c>
-      <c r="I52" s="6">
-        <v>70</v>
-      </c>
-      <c r="J52" s="6">
-        <v>288</v>
-      </c>
-      <c r="K52" s="7">
-        <v>7</v>
-      </c>
-      <c r="L52" s="8">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F53" s="6">
-        <v>71</v>
-      </c>
-      <c r="G53" s="6">
-        <v>74</v>
       </c>
       <c r="H53" s="6">
         <v>74</v>
       </c>
       <c r="I53" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J53" s="6">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K53" s="7">
         <v>7</v>
       </c>
-      <c r="L53" s="8">
-        <f t="shared" si="1"/>
-        <v>50</v>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>53</v>
+      <c r="A54" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="C54" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="6">
+        <v>71</v>
+      </c>
+      <c r="G54" s="6">
+        <v>70</v>
+      </c>
+      <c r="H54" s="6">
         <v>72</v>
       </c>
-      <c r="G54" s="6">
+      <c r="I54" s="6">
+        <v>71</v>
+      </c>
+      <c r="J54" s="6">
+        <v>284</v>
+      </c>
+      <c r="K54" s="7">
+        <v>7</v>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>69</v>
+      </c>
+      <c r="G55" s="6">
+        <v>69</v>
+      </c>
+      <c r="H55" s="6">
+        <v>74</v>
+      </c>
+      <c r="I55" s="6">
         <v>72</v>
       </c>
-      <c r="H54" s="6">
-        <v>71</v>
-      </c>
-      <c r="I54" s="6">
+      <c r="J55" s="6">
+        <v>284</v>
+      </c>
+      <c r="K55" s="7">
+        <v>7</v>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6">
+        <v>71</v>
+      </c>
+      <c r="G56" s="6">
+        <v>69</v>
+      </c>
+      <c r="H56" s="6">
+        <v>71</v>
+      </c>
+      <c r="I56" s="6">
+        <v>73</v>
+      </c>
+      <c r="J56" s="6">
+        <v>284</v>
+      </c>
+      <c r="K56" s="7">
+        <v>7</v>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>68</v>
+      </c>
+      <c r="G57" s="6">
+        <v>66</v>
+      </c>
+      <c r="H57" s="6">
         <v>74</v>
-      </c>
-      <c r="J54" s="6">
-        <v>289</v>
-      </c>
-      <c r="K54" s="7">
-        <v>7</v>
-      </c>
-      <c r="L54" s="8">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>71</v>
-      </c>
-      <c r="G55" s="6">
-        <v>72</v>
-      </c>
-      <c r="H55" s="6">
-        <v>73</v>
-      </c>
-      <c r="I55" s="6">
-        <v>73</v>
-      </c>
-      <c r="J55" s="6">
-        <v>289</v>
-      </c>
-      <c r="K55" s="7">
-        <v>7</v>
-      </c>
-      <c r="L55" s="8">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="6">
-        <v>4</v>
-      </c>
-      <c r="F56" s="6">
-        <v>70</v>
-      </c>
-      <c r="G56" s="6">
-        <v>73</v>
-      </c>
-      <c r="H56" s="6">
-        <v>71</v>
-      </c>
-      <c r="I56" s="6">
-        <v>76</v>
-      </c>
-      <c r="J56" s="6">
-        <v>290</v>
-      </c>
-      <c r="K56" s="7">
-        <v>7</v>
-      </c>
-      <c r="L56" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="6">
-        <v>4</v>
-      </c>
-      <c r="F57" s="6">
-        <v>72</v>
-      </c>
-      <c r="G57" s="6">
-        <v>72</v>
-      </c>
-      <c r="H57" s="6">
-        <v>70</v>
       </c>
       <c r="I57" s="6">
         <v>76</v>
       </c>
       <c r="J57" s="6">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K57" s="7">
         <v>7</v>
       </c>
-      <c r="L57" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>55</v>
+      <c r="A58" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C58" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F58" s="6">
         <v>69</v>
       </c>
       <c r="G58" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H58" s="6">
         <v>72</v>
       </c>
       <c r="I58" s="6">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J58" s="6">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K58" s="7">
         <v>7</v>
       </c>
-      <c r="L58" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
+      <c r="L58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>55</v>
+      <c r="A59" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C59" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
       </c>
       <c r="F59" s="6">
+        <v>73</v>
+      </c>
+      <c r="G59" s="6">
+        <v>66</v>
+      </c>
+      <c r="H59" s="6">
+        <v>72</v>
+      </c>
+      <c r="I59" s="6">
+        <v>74</v>
+      </c>
+      <c r="J59" s="6">
+        <v>285</v>
+      </c>
+      <c r="K59" s="7">
+        <v>7</v>
+      </c>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>69</v>
+      </c>
+      <c r="G60" s="6">
         <v>70</v>
       </c>
-      <c r="G59" s="6">
-        <v>76</v>
-      </c>
-      <c r="H59" s="6">
-        <v>68</v>
-      </c>
-      <c r="I59" s="6">
-        <v>76</v>
-      </c>
-      <c r="J59" s="6">
-        <v>290</v>
-      </c>
-      <c r="K59" s="7">
-        <v>7</v>
-      </c>
-      <c r="L59" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="H60" s="6">
+        <v>71</v>
+      </c>
+      <c r="I60" s="6">
+        <v>75</v>
+      </c>
+      <c r="J60" s="6">
+        <v>285</v>
+      </c>
+      <c r="K60" s="7">
+        <v>7</v>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6">
+        <v>69</v>
+      </c>
+      <c r="G61" s="6">
+        <v>71</v>
+      </c>
+      <c r="H61" s="6">
         <v>70</v>
-      </c>
-      <c r="G60" s="6">
-        <v>73</v>
-      </c>
-      <c r="H60" s="6">
-        <v>76</v>
-      </c>
-      <c r="I60" s="6">
-        <v>71</v>
-      </c>
-      <c r="J60" s="6">
-        <v>290</v>
-      </c>
-      <c r="K60" s="7">
-        <v>7</v>
-      </c>
-      <c r="L60" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="6">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="6">
-        <v>3</v>
-      </c>
-      <c r="F61" s="6">
-        <v>69</v>
-      </c>
-      <c r="G61" s="6">
-        <v>74</v>
-      </c>
-      <c r="H61" s="6">
-        <v>73</v>
       </c>
       <c r="I61" s="6">
         <v>75</v>
       </c>
       <c r="J61" s="6">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K61" s="7">
         <v>7</v>
       </c>
-      <c r="L61" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>60</v>
+      <c r="A62" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="C62" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
         <v>5</v>
       </c>
       <c r="F62" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H62" s="6">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I62" s="6">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J62" s="6">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K62" s="7">
         <v>7</v>
       </c>
-      <c r="L62" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+      <c r="L62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>60</v>
+      <c r="A63" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C63" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>9</v>
       </c>
       <c r="F63" s="6">
         <v>70</v>
       </c>
       <c r="G63" s="6">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H63" s="6">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I63" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J63" s="6">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K63" s="7">
         <v>7</v>
       </c>
-      <c r="L63" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>63</v>
+      <c r="A64" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C64" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64" s="6">
         <v>70</v>
       </c>
       <c r="H64" s="6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I64" s="6">
+        <v>75</v>
+      </c>
+      <c r="J64" s="6">
+        <v>286</v>
+      </c>
+      <c r="K64" s="7">
+        <v>7</v>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6">
+        <v>69</v>
+      </c>
+      <c r="G65" s="6">
+        <v>68</v>
+      </c>
+      <c r="H65" s="6">
+        <v>71</v>
+      </c>
+      <c r="I65" s="6">
         <v>78</v>
       </c>
-      <c r="J64" s="6">
-        <v>292</v>
-      </c>
-      <c r="K64" s="7">
-        <v>7</v>
-      </c>
-      <c r="L64" s="8">
+      <c r="J65" s="6">
+        <v>286</v>
+      </c>
+      <c r="K65" s="7">
+        <v>7</v>
+      </c>
+      <c r="L65" s="8" t="str">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="6">
-        <v>4</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="6">
-        <v>5</v>
-      </c>
-      <c r="F65" s="6">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6">
+        <v>67</v>
+      </c>
+      <c r="G66" s="6">
+        <v>71</v>
+      </c>
+      <c r="H66" s="6">
         <v>70</v>
       </c>
-      <c r="G65" s="6">
-        <v>74</v>
-      </c>
-      <c r="H65" s="6">
-        <v>71</v>
-      </c>
-      <c r="I65" s="6">
-        <v>77</v>
-      </c>
-      <c r="J65" s="6">
-        <v>292</v>
-      </c>
-      <c r="K65" s="7">
-        <v>7</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="6">
-        <v>4</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="6">
-        <v>3</v>
-      </c>
-      <c r="F66" s="6">
-        <v>68</v>
-      </c>
-      <c r="G66" s="6">
-        <v>74</v>
-      </c>
-      <c r="H66" s="6">
-        <v>75</v>
-      </c>
       <c r="I66" s="6">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J66" s="6">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K66" s="7">
         <v>7</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="8" t="str">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -3554,31 +3572,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C67" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E67" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F67" s="6">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G67" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H67" s="6">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I67" s="6">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J67" s="6">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K67" s="7">
         <v>7</v>
@@ -3590,41 +3608,41 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="C68" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2</v>
       </c>
       <c r="F68" s="6">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G68" s="6">
         <v>71</v>
       </c>
       <c r="H68" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I68" s="6">
         <v>72</v>
       </c>
       <c r="J68" s="6">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K68" s="7">
         <v>7</v>
       </c>
       <c r="L68" s="8">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3632,31 +3650,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C69" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E69" s="6">
         <v>4</v>
       </c>
       <c r="F69" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G69" s="6">
+        <v>68</v>
+      </c>
+      <c r="H69" s="6">
+        <v>76</v>
+      </c>
+      <c r="I69" s="6">
         <v>74</v>
       </c>
-      <c r="H69" s="6">
-        <v>75</v>
-      </c>
-      <c r="I69" s="6">
-        <v>76</v>
-      </c>
       <c r="J69" s="6">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K69" s="7">
         <v>7</v>
@@ -3668,31 +3686,31 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C70" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E70" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G70" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H70" s="6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I70" s="6">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J70" s="6">
         <v>295</v>
@@ -3702,7 +3720,7 @@
       </c>
       <c r="L70" s="8">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,7 +3728,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C71" s="6">
         <v>9</v>

--- a/SavePgaResults.xlsx
+++ b/SavePgaResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timhy\Desktop\SWOFantasyGolf.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3504c70a7fb4bf4/Documents/GitHub/SWOFantasyGolf.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0B9F2-58BF-45CA-B2AA-99BB8CADD2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4CE0B9F2-58BF-45CA-B2AA-99BB8CADD2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A7DAF08-C94B-460F-A7D8-F9E8BC73D0C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="186">
   <si>
     <t>POS</t>
   </si>
@@ -371,30 +371,12 @@
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
   </si>
   <si>
-    <t>Daniel Berger</t>
-  </si>
-  <si>
-    <t>Scottie Scheffler</t>
-  </si>
-  <si>
     <t>Tommy Fleetwood</t>
   </si>
   <si>
-    <t>Lucas Herbert</t>
-  </si>
-  <si>
     <t>Michael Thompson</t>
   </si>
   <si>
-    <t>Viktor Hovland</t>
-  </si>
-  <si>
-    <t>Ian Poulter</t>
-  </si>
-  <si>
-    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
-  </si>
-  <si>
     <t>THRU</t>
   </si>
   <si>
@@ -416,72 +398,18 @@
     <t>STROKES</t>
   </si>
   <si>
-    <t>Harold Varner III</t>
-  </si>
-  <si>
-    <t>Sebastián Muñoz</t>
-  </si>
-  <si>
-    <t>Troy Merritt</t>
-  </si>
-  <si>
     <t>Adam Long</t>
   </si>
   <si>
     <t>Lee Hodges</t>
   </si>
   <si>
-    <t>Brendon Todd</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Davis Riley</t>
   </si>
   <si>
-    <t>Kevin Na</t>
-  </si>
-  <si>
-    <t>Mito Pereira</t>
-  </si>
-  <si>
-    <t>Cam Davis</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>Tyler Duncan</t>
-  </si>
-  <si>
-    <t>Christiaan Bezuidenhout</t>
-  </si>
-  <si>
-    <t>Andrew Putnam</t>
-  </si>
-  <si>
-    <t>Chris Kirk</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>Danny Lee</t>
-  </si>
-  <si>
-    <t>Zach Johnson</t>
-  </si>
-  <si>
     <t>T27</t>
   </si>
   <si>
-    <t>Chez Reavie</t>
-  </si>
-  <si>
     <t>Webb Simpson</t>
   </si>
   <si>
@@ -491,77 +419,188 @@
     <t>Chad Ramey</t>
   </si>
   <si>
-    <t>T35</t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>Luke Donald</t>
-  </si>
-  <si>
-    <t>Kurt Kitayama</t>
-  </si>
-  <si>
-    <t>Adam Svensson</t>
-  </si>
-  <si>
-    <t>T48</t>
-  </si>
-  <si>
     <t>David Lipsky</t>
   </si>
   <si>
     <t>Nick Taylor</t>
   </si>
   <si>
-    <t>T52</t>
-  </si>
-  <si>
-    <t>Martin Trainer</t>
-  </si>
-  <si>
-    <t>Mark Hubbard</t>
-  </si>
-  <si>
-    <t>C.T. Pan</t>
-  </si>
-  <si>
     <t>Rory Sabbatini</t>
   </si>
   <si>
-    <t>Max McGreevy</t>
-  </si>
-  <si>
-    <t>T57</t>
-  </si>
-  <si>
-    <t>Rickie Fowler</t>
-  </si>
-  <si>
-    <t>Matthias Schwab</t>
-  </si>
-  <si>
-    <t>Sahith Theegala</t>
-  </si>
-  <si>
     <t>T63</t>
   </si>
   <si>
-    <t>Emiliano Grillo</t>
-  </si>
-  <si>
     <t>Austin Smotherman</t>
   </si>
   <si>
-    <t>Aaron Rai</t>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>Taylor Moore</t>
+  </si>
+  <si>
+    <t>Adam Schenk</t>
+  </si>
+  <si>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Cody Gribble</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Erik van Rooyen</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>J.T. Poston</t>
+  </si>
+  <si>
+    <t>Patton Kizzire</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>K.H. Lee</t>
+  </si>
+  <si>
+    <t>MJ Daffue</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>Sean O'Hair</t>
+  </si>
+  <si>
+    <t>Doug Ghim</t>
+  </si>
+  <si>
+    <t>Trevor Werbylo</t>
+  </si>
+  <si>
+    <t>Andrew Novak</t>
+  </si>
+  <si>
+    <t>Stephan Jaeger</t>
+  </si>
+  <si>
+    <t>David Lingmerth</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>Justin Rose</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>Victor Perez</t>
+  </si>
+  <si>
+    <t>S.H. Kim</t>
+  </si>
+  <si>
+    <t>Justin Suh</t>
+  </si>
+  <si>
+    <t>Andrew Landry</t>
+  </si>
+  <si>
+    <t>Ryan Armour</t>
+  </si>
+  <si>
+    <t>Henrik Norlander</t>
+  </si>
+  <si>
+    <t>Kramer Hickok</t>
+  </si>
+  <si>
+    <t>Ben Martin</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>Ben Griffin</t>
+  </si>
+  <si>
+    <t>Michael Kim</t>
+  </si>
+  <si>
+    <t>Greyson Sigg</t>
+  </si>
+  <si>
+    <t>T58</t>
+  </si>
+  <si>
+    <t>Hank Lebioda</t>
+  </si>
+  <si>
+    <t>Garrick Higgo</t>
+  </si>
+  <si>
+    <t>Dylan Wu</t>
+  </si>
+  <si>
+    <t>T61</t>
+  </si>
+  <si>
+    <t>Ludvig Aberg</t>
+  </si>
+  <si>
+    <t>Carl Yuan</t>
+  </si>
+  <si>
+    <t>T65</t>
+  </si>
+  <si>
+    <t>Trevor Cone</t>
+  </si>
+  <si>
+    <t>Harrison Endycott</t>
+  </si>
+  <si>
+    <t>Tyson Alexander</t>
+  </si>
+  <si>
+    <t>T69</t>
+  </si>
+  <si>
+    <t>Nick Gabrelcik</t>
+  </si>
+  <si>
+    <t>Zecheng Dou</t>
+  </si>
+  <si>
+    <t>T71</t>
+  </si>
+  <si>
+    <t>James Hahn</t>
+  </si>
+  <si>
+    <t>Ryan Gerard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +620,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1A202C"/>
+      <name val="Var(--chakra-fonts-heading)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1A202C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFED0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF25845D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +675,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -655,17 +729,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,11 +768,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,6 +814,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="USA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D234BBF-0D21-496D-926C-2BB50F1A658F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,53 +1134,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="L73" sqref="A1:L73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -1023,39 +1192,39 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>71</v>
-      </c>
-      <c r="G2" s="6">
-        <v>68</v>
-      </c>
-      <c r="H2" s="6">
+    <row r="2" spans="1:14">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-4</v>
+      </c>
+      <c r="F2" s="12">
+        <v>71</v>
+      </c>
+      <c r="G2" s="12">
         <v>67</v>
       </c>
-      <c r="I2" s="6">
-        <v>65</v>
-      </c>
-      <c r="J2" s="6">
-        <v>271</v>
+      <c r="H2" s="12">
+        <v>69</v>
+      </c>
+      <c r="I2" s="11">
+        <v>67</v>
+      </c>
+      <c r="J2" s="12">
+        <v>274</v>
       </c>
       <c r="K2" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:L10" si="0">IF(LEFT(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</f>
@@ -1065,39 +1234,39 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="6">
+    <row r="3" spans="1:14">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14">
         <v>-9</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="11">
         <v>66</v>
       </c>
-      <c r="G3" s="6">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6">
-        <v>68</v>
-      </c>
-      <c r="I3" s="6">
-        <v>72</v>
-      </c>
-      <c r="J3" s="6">
-        <v>271</v>
+      <c r="G3" s="11">
+        <v>69</v>
+      </c>
+      <c r="H3" s="11">
+        <v>70</v>
+      </c>
+      <c r="I3" s="11">
+        <v>70</v>
+      </c>
+      <c r="J3" s="11">
+        <v>275</v>
       </c>
       <c r="K3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
@@ -1107,41 +1276,41 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:14">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="14">
         <v>-8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="11">
         <v>68</v>
       </c>
-      <c r="G4" s="6">
-        <v>68</v>
-      </c>
-      <c r="H4" s="6">
-        <v>65</v>
-      </c>
-      <c r="I4" s="6">
-        <v>71</v>
-      </c>
-      <c r="J4" s="6">
-        <v>272</v>
+      <c r="G4" s="11">
+        <v>69</v>
+      </c>
+      <c r="H4" s="11">
+        <v>69</v>
+      </c>
+      <c r="I4" s="11">
+        <v>70</v>
+      </c>
+      <c r="J4" s="11">
+        <v>276</v>
       </c>
       <c r="K4" s="7">
-        <v>7</v>
-      </c>
-      <c r="L4" s="8">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1149,2646 +1318,2696 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>71</v>
-      </c>
-      <c r="G5" s="6">
-        <v>68</v>
-      </c>
-      <c r="H5" s="6">
+    <row r="5" spans="1:14">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="11">
         <v>67</v>
       </c>
-      <c r="I5" s="6">
-        <v>67</v>
-      </c>
-      <c r="J5" s="6">
-        <v>273</v>
+      <c r="G5" s="11">
+        <v>70</v>
+      </c>
+      <c r="H5" s="11">
+        <v>69</v>
+      </c>
+      <c r="I5" s="11">
+        <v>70</v>
+      </c>
+      <c r="J5" s="11">
+        <v>276</v>
       </c>
       <c r="K5" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>72</v>
+      </c>
+      <c r="G6" s="11">
+        <v>66</v>
+      </c>
+      <c r="H6" s="11">
+        <v>70</v>
+      </c>
+      <c r="I6" s="11">
+        <v>70</v>
+      </c>
+      <c r="J6" s="11">
+        <v>278</v>
+      </c>
+      <c r="K6" s="7">
+        <v>9</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>69</v>
+      </c>
+      <c r="G7" s="11">
+        <v>73</v>
+      </c>
+      <c r="H7" s="11">
+        <v>70</v>
+      </c>
+      <c r="I7" s="11">
+        <v>67</v>
+      </c>
+      <c r="J7" s="11">
+        <v>279</v>
+      </c>
+      <c r="K7" s="7">
+        <v>9</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>71</v>
+      </c>
+      <c r="G8" s="11">
         <v>67</v>
       </c>
-      <c r="G6" s="6">
-        <v>67</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="H8" s="11">
         <v>70</v>
       </c>
-      <c r="I6" s="6">
-        <v>69</v>
-      </c>
-      <c r="J6" s="6">
-        <v>273</v>
-      </c>
-      <c r="K6" s="7">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>67</v>
-      </c>
-      <c r="G7" s="6">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6">
-        <v>70</v>
-      </c>
-      <c r="I7" s="6">
-        <v>72</v>
-      </c>
-      <c r="J7" s="6">
-        <v>273</v>
-      </c>
-      <c r="K7" s="7">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>67</v>
-      </c>
-      <c r="G8" s="6">
-        <v>71</v>
-      </c>
-      <c r="H8" s="6">
-        <v>68</v>
-      </c>
-      <c r="I8" s="6">
-        <v>69</v>
-      </c>
-      <c r="J8" s="6">
-        <v>275</v>
+      <c r="I8" s="11">
+        <v>72</v>
+      </c>
+      <c r="J8" s="11">
+        <v>280</v>
       </c>
       <c r="K8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>69</v>
-      </c>
-      <c r="G9" s="6">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>72</v>
+      </c>
+      <c r="G9" s="11">
+        <v>65</v>
+      </c>
+      <c r="H9" s="11">
         <v>70</v>
       </c>
-      <c r="I9" s="6">
-        <v>70</v>
-      </c>
-      <c r="J9" s="6">
-        <v>275</v>
+      <c r="I9" s="11">
+        <v>73</v>
+      </c>
+      <c r="J9" s="11">
+        <v>280</v>
       </c>
       <c r="K9" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>70</v>
-      </c>
-      <c r="G10" s="6">
-        <v>66</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="B10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-4</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>71</v>
+      </c>
+      <c r="G10" s="11">
         <v>68</v>
       </c>
-      <c r="I10" s="6">
-        <v>71</v>
-      </c>
-      <c r="J10" s="6">
-        <v>275</v>
+      <c r="H10" s="11">
+        <v>68</v>
+      </c>
+      <c r="I10" s="11">
+        <v>73</v>
+      </c>
+      <c r="J10" s="11">
+        <v>280</v>
       </c>
       <c r="K10" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6">
-        <v>66</v>
-      </c>
-      <c r="H11" s="6">
-        <v>71</v>
-      </c>
-      <c r="I11" s="6">
-        <v>72</v>
-      </c>
-      <c r="J11" s="6">
-        <v>275</v>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11">
+        <v>73</v>
+      </c>
+      <c r="H11" s="11">
+        <v>71</v>
+      </c>
+      <c r="I11" s="11">
+        <v>67</v>
+      </c>
+      <c r="J11" s="11">
+        <v>281</v>
       </c>
       <c r="K11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ref="L11:L71" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>72</v>
+      </c>
+      <c r="G12" s="11">
+        <v>70</v>
+      </c>
+      <c r="H12" s="11">
+        <v>69</v>
+      </c>
+      <c r="I12" s="11">
+        <v>70</v>
+      </c>
+      <c r="J12" s="11">
+        <v>281</v>
+      </c>
+      <c r="K12" s="7">
+        <v>9</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>69</v>
+      </c>
+      <c r="G13" s="11">
+        <v>70</v>
+      </c>
+      <c r="H13" s="11">
+        <v>72</v>
+      </c>
+      <c r="I13" s="11">
+        <v>70</v>
+      </c>
+      <c r="J13" s="11">
+        <v>281</v>
+      </c>
+      <c r="K13" s="7">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>70</v>
+      </c>
+      <c r="G14" s="11">
+        <v>68</v>
+      </c>
+      <c r="H14" s="11">
+        <v>71</v>
+      </c>
+      <c r="I14" s="11">
+        <v>72</v>
+      </c>
+      <c r="J14" s="11">
+        <v>281</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>71</v>
+      </c>
+      <c r="G15" s="11">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11">
+        <v>68</v>
+      </c>
+      <c r="I15" s="11">
+        <v>72</v>
+      </c>
+      <c r="J15" s="11">
+        <v>281</v>
+      </c>
+      <c r="K15" s="7">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>68</v>
+      </c>
+      <c r="G16" s="11">
+        <v>73</v>
+      </c>
+      <c r="H16" s="11">
+        <v>67</v>
+      </c>
+      <c r="I16" s="11">
+        <v>73</v>
+      </c>
+      <c r="J16" s="11">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>74</v>
+      </c>
+      <c r="G17" s="11">
+        <v>65</v>
+      </c>
+      <c r="H17" s="11">
+        <v>73</v>
+      </c>
+      <c r="I17" s="11">
+        <v>70</v>
+      </c>
+      <c r="J17" s="11">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7">
+        <v>9</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>72</v>
+      </c>
+      <c r="G18" s="11">
+        <v>71</v>
+      </c>
+      <c r="H18" s="11">
+        <v>69</v>
+      </c>
+      <c r="I18" s="11">
+        <v>70</v>
+      </c>
+      <c r="J18" s="11">
+        <v>282</v>
+      </c>
+      <c r="K18" s="7">
+        <v>9</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="11">
+        <v>74</v>
+      </c>
+      <c r="G19" s="11">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11">
+        <v>68</v>
+      </c>
+      <c r="I19" s="11">
+        <v>71</v>
+      </c>
+      <c r="J19" s="11">
+        <v>282</v>
+      </c>
+      <c r="K19" s="7">
+        <v>9</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>-5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>74</v>
+      </c>
+      <c r="G20" s="11">
+        <v>68</v>
+      </c>
+      <c r="H20" s="11">
+        <v>75</v>
+      </c>
+      <c r="I20" s="11">
+        <v>66</v>
+      </c>
+      <c r="J20" s="11">
+        <v>283</v>
+      </c>
+      <c r="K20" s="7">
+        <v>9</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>69</v>
+      </c>
+      <c r="G21" s="11">
+        <v>74</v>
+      </c>
+      <c r="H21" s="11">
+        <v>71</v>
+      </c>
+      <c r="I21" s="11">
+        <v>69</v>
+      </c>
+      <c r="J21" s="11">
+        <v>283</v>
+      </c>
+      <c r="K21" s="7">
+        <v>9</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>72</v>
+      </c>
+      <c r="G22" s="11">
+        <v>69</v>
+      </c>
+      <c r="H22" s="11">
+        <v>72</v>
+      </c>
+      <c r="I22" s="11">
+        <v>70</v>
+      </c>
+      <c r="J22" s="11">
+        <v>283</v>
+      </c>
+      <c r="K22" s="7">
+        <v>9</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="11">
+        <v>72</v>
+      </c>
+      <c r="G23" s="11">
+        <v>71</v>
+      </c>
+      <c r="H23" s="11">
+        <v>69</v>
+      </c>
+      <c r="I23" s="11">
+        <v>71</v>
+      </c>
+      <c r="J23" s="11">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7">
+        <v>9</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>71</v>
+      </c>
+      <c r="G24" s="11">
+        <v>72</v>
+      </c>
+      <c r="H24" s="11">
+        <v>68</v>
+      </c>
+      <c r="I24" s="11">
+        <v>72</v>
+      </c>
+      <c r="J24" s="11">
+        <v>283</v>
+      </c>
+      <c r="K24" s="7">
+        <v>9</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>71</v>
+      </c>
+      <c r="G25" s="11">
+        <v>68</v>
+      </c>
+      <c r="H25" s="11">
+        <v>71</v>
+      </c>
+      <c r="I25" s="11">
+        <v>73</v>
+      </c>
+      <c r="J25" s="11">
+        <v>283</v>
+      </c>
+      <c r="K25" s="7">
+        <v>9</v>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>3</v>
+      </c>
+      <c r="F26" s="11">
+        <v>69</v>
+      </c>
+      <c r="G26" s="11">
+        <v>68</v>
+      </c>
+      <c r="H26" s="11">
+        <v>72</v>
+      </c>
+      <c r="I26" s="11">
+        <v>74</v>
+      </c>
+      <c r="J26" s="11">
+        <v>283</v>
+      </c>
+      <c r="K26" s="7">
+        <v>9</v>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11">
+        <v>74</v>
+      </c>
+      <c r="G27" s="11">
+        <v>66</v>
+      </c>
+      <c r="H27" s="11">
+        <v>69</v>
+      </c>
+      <c r="I27" s="11">
+        <v>74</v>
+      </c>
+      <c r="J27" s="11">
+        <v>283</v>
+      </c>
+      <c r="K27" s="7">
+        <v>9</v>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="11">
+        <v>69</v>
+      </c>
+      <c r="G28" s="11">
+        <v>70</v>
+      </c>
+      <c r="H28" s="11">
+        <v>74</v>
+      </c>
+      <c r="I28" s="11">
+        <v>71</v>
+      </c>
+      <c r="J28" s="11">
+        <v>284</v>
+      </c>
+      <c r="K28" s="7">
+        <v>9</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11">
+        <v>71</v>
+      </c>
+      <c r="G29" s="11">
+        <v>69</v>
+      </c>
+      <c r="H29" s="11">
+        <v>73</v>
+      </c>
+      <c r="I29" s="11">
+        <v>71</v>
+      </c>
+      <c r="J29" s="11">
+        <v>284</v>
+      </c>
+      <c r="K29" s="7">
+        <v>9</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11">
+        <v>72</v>
+      </c>
+      <c r="G30" s="11">
+        <v>70</v>
+      </c>
+      <c r="H30" s="11">
+        <v>71</v>
+      </c>
+      <c r="I30" s="11">
+        <v>71</v>
+      </c>
+      <c r="J30" s="11">
+        <v>284</v>
+      </c>
+      <c r="K30" s="7">
+        <v>9</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="11">
+        <v>71</v>
+      </c>
+      <c r="G31" s="11">
+        <v>71</v>
+      </c>
+      <c r="H31" s="11">
+        <v>71</v>
+      </c>
+      <c r="I31" s="11">
+        <v>71</v>
+      </c>
+      <c r="J31" s="11">
+        <v>284</v>
+      </c>
+      <c r="K31" s="7">
+        <v>9</v>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11">
+        <v>73</v>
+      </c>
+      <c r="G32" s="11">
+        <v>70</v>
+      </c>
+      <c r="H32" s="11">
+        <v>68</v>
+      </c>
+      <c r="I32" s="11">
+        <v>73</v>
+      </c>
+      <c r="J32" s="11">
+        <v>284</v>
+      </c>
+      <c r="K32" s="7">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11">
+        <v>68</v>
+      </c>
+      <c r="G33" s="11">
+        <v>71</v>
+      </c>
+      <c r="H33" s="11">
+        <v>71</v>
+      </c>
+      <c r="I33" s="11">
+        <v>74</v>
+      </c>
+      <c r="J33" s="11">
+        <v>284</v>
+      </c>
+      <c r="K33" s="7">
+        <v>9</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>66</v>
+      </c>
+      <c r="G34" s="11">
+        <v>72</v>
+      </c>
+      <c r="H34" s="11">
+        <v>72</v>
+      </c>
+      <c r="I34" s="11">
+        <v>74</v>
+      </c>
+      <c r="J34" s="11">
+        <v>284</v>
+      </c>
+      <c r="K34" s="7">
+        <v>9</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>4</v>
+      </c>
+      <c r="F35" s="11">
+        <v>72</v>
+      </c>
+      <c r="G35" s="11">
+        <v>68</v>
+      </c>
+      <c r="H35" s="11">
+        <v>69</v>
+      </c>
+      <c r="I35" s="11">
+        <v>75</v>
+      </c>
+      <c r="J35" s="11">
+        <v>284</v>
+      </c>
+      <c r="K35" s="7">
+        <v>9</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4</v>
+      </c>
+      <c r="F36" s="11">
+        <v>70</v>
+      </c>
+      <c r="G36" s="11">
+        <v>71</v>
+      </c>
+      <c r="H36" s="11">
+        <v>68</v>
+      </c>
+      <c r="I36" s="11">
+        <v>75</v>
+      </c>
+      <c r="J36" s="11">
+        <v>284</v>
+      </c>
+      <c r="K36" s="7">
+        <v>9</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>70</v>
+      </c>
+      <c r="G37" s="11">
+        <v>73</v>
+      </c>
+      <c r="H37" s="11">
+        <v>73</v>
+      </c>
+      <c r="I37" s="11">
+        <v>69</v>
+      </c>
+      <c r="J37" s="11">
+        <v>285</v>
+      </c>
+      <c r="K37" s="7">
+        <v>9</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>-2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>71</v>
+      </c>
+      <c r="G38" s="11">
+        <v>72</v>
+      </c>
+      <c r="H38" s="11">
+        <v>73</v>
+      </c>
+      <c r="I38" s="11">
+        <v>69</v>
+      </c>
+      <c r="J38" s="11">
+        <v>285</v>
+      </c>
+      <c r="K38" s="7">
+        <v>9</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>67</v>
+      </c>
+      <c r="G39" s="11">
+        <v>74</v>
+      </c>
+      <c r="H39" s="11">
+        <v>74</v>
+      </c>
+      <c r="I39" s="11">
+        <v>70</v>
+      </c>
+      <c r="J39" s="11">
+        <v>285</v>
+      </c>
+      <c r="K39" s="7">
+        <v>9</v>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="11">
+        <v>71</v>
+      </c>
+      <c r="G40" s="11">
+        <v>71</v>
+      </c>
+      <c r="H40" s="11">
+        <v>72</v>
+      </c>
+      <c r="I40" s="11">
+        <v>71</v>
+      </c>
+      <c r="J40" s="11">
+        <v>285</v>
+      </c>
+      <c r="K40" s="7">
+        <v>9</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="11">
+        <v>71</v>
+      </c>
+      <c r="G41" s="11">
+        <v>72</v>
+      </c>
+      <c r="H41" s="11">
+        <v>71</v>
+      </c>
+      <c r="I41" s="11">
+        <v>71</v>
+      </c>
+      <c r="J41" s="11">
+        <v>285</v>
+      </c>
+      <c r="K41" s="7">
+        <v>9</v>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="11">
+        <v>70</v>
+      </c>
+      <c r="G42" s="11">
+        <v>73</v>
+      </c>
+      <c r="H42" s="11">
+        <v>71</v>
+      </c>
+      <c r="I42" s="11">
+        <v>71</v>
+      </c>
+      <c r="J42" s="11">
+        <v>285</v>
+      </c>
+      <c r="K42" s="7">
+        <v>9</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11">
+        <v>72</v>
+      </c>
+      <c r="G43" s="11">
+        <v>69</v>
+      </c>
+      <c r="H43" s="11">
+        <v>72</v>
+      </c>
+      <c r="I43" s="11">
+        <v>72</v>
+      </c>
+      <c r="J43" s="11">
+        <v>285</v>
+      </c>
+      <c r="K43" s="7">
+        <v>9</v>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11">
+        <v>67</v>
+      </c>
+      <c r="G44" s="11">
+        <v>72</v>
+      </c>
+      <c r="H44" s="11">
+        <v>73</v>
+      </c>
+      <c r="I44" s="11">
+        <v>73</v>
+      </c>
+      <c r="J44" s="11">
+        <v>285</v>
+      </c>
+      <c r="K44" s="7">
+        <v>9</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2</v>
+      </c>
+      <c r="F45" s="11">
+        <v>72</v>
+      </c>
+      <c r="G45" s="11">
+        <v>70</v>
+      </c>
+      <c r="H45" s="11">
+        <v>70</v>
+      </c>
+      <c r="I45" s="11">
+        <v>73</v>
+      </c>
+      <c r="J45" s="11">
+        <v>285</v>
+      </c>
+      <c r="K45" s="7">
+        <v>9</v>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="11">
+        <v>70</v>
+      </c>
+      <c r="G46" s="11">
+        <v>71</v>
+      </c>
+      <c r="H46" s="11">
+        <v>75</v>
+      </c>
+      <c r="I46" s="11">
+        <v>70</v>
+      </c>
+      <c r="J46" s="11">
+        <v>286</v>
+      </c>
+      <c r="K46" s="7">
+        <v>9</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>71</v>
+      </c>
+      <c r="G47" s="11">
+        <v>70</v>
+      </c>
+      <c r="H47" s="11">
+        <v>73</v>
+      </c>
+      <c r="I47" s="11">
+        <v>72</v>
+      </c>
+      <c r="J47" s="11">
+        <v>286</v>
+      </c>
+      <c r="K47" s="7">
+        <v>9</v>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>72</v>
+      </c>
+      <c r="G48" s="11">
+        <v>69</v>
+      </c>
+      <c r="H48" s="11">
+        <v>73</v>
+      </c>
+      <c r="I48" s="11">
+        <v>72</v>
+      </c>
+      <c r="J48" s="11">
+        <v>286</v>
+      </c>
+      <c r="K48" s="7">
+        <v>9</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="16">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11">
+        <v>71</v>
+      </c>
+      <c r="G49" s="11">
+        <v>72</v>
+      </c>
+      <c r="H49" s="11">
+        <v>71</v>
+      </c>
+      <c r="I49" s="11">
+        <v>72</v>
+      </c>
+      <c r="J49" s="11">
+        <v>286</v>
+      </c>
+      <c r="K49" s="7">
+        <v>9</v>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11">
+        <v>71</v>
+      </c>
+      <c r="G50" s="11">
+        <v>72</v>
+      </c>
+      <c r="H50" s="11">
+        <v>71</v>
+      </c>
+      <c r="I50" s="11">
+        <v>72</v>
+      </c>
+      <c r="J50" s="11">
+        <v>286</v>
+      </c>
+      <c r="K50" s="7">
+        <v>9</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+      <c r="F51" s="11">
+        <v>72</v>
+      </c>
+      <c r="G51" s="11">
+        <v>71</v>
+      </c>
+      <c r="H51" s="11">
+        <v>71</v>
+      </c>
+      <c r="I51" s="11">
+        <v>72</v>
+      </c>
+      <c r="J51" s="11">
+        <v>286</v>
+      </c>
+      <c r="K51" s="7">
+        <v>9</v>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="16">
+        <v>2</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="11">
+        <v>2</v>
+      </c>
+      <c r="F52" s="11">
+        <v>68</v>
+      </c>
+      <c r="G52" s="11">
+        <v>68</v>
+      </c>
+      <c r="H52" s="11">
+        <v>77</v>
+      </c>
+      <c r="I52" s="11">
+        <v>73</v>
+      </c>
+      <c r="J52" s="11">
+        <v>286</v>
+      </c>
+      <c r="K52" s="7">
+        <v>9</v>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="16">
+        <v>2</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2</v>
+      </c>
+      <c r="F53" s="11">
+        <v>69</v>
+      </c>
+      <c r="G53" s="11">
+        <v>71</v>
+      </c>
+      <c r="H53" s="11">
+        <v>73</v>
+      </c>
+      <c r="I53" s="11">
+        <v>73</v>
+      </c>
+      <c r="J53" s="11">
+        <v>286</v>
+      </c>
+      <c r="K53" s="7">
+        <v>9</v>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2</v>
+      </c>
+      <c r="F54" s="11">
+        <v>71</v>
+      </c>
+      <c r="G54" s="11">
+        <v>70</v>
+      </c>
+      <c r="H54" s="11">
+        <v>72</v>
+      </c>
+      <c r="I54" s="11">
+        <v>73</v>
+      </c>
+      <c r="J54" s="11">
+        <v>286</v>
+      </c>
+      <c r="K54" s="7">
+        <v>9</v>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="16">
+        <v>2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="11">
+        <v>2</v>
+      </c>
+      <c r="F55" s="11">
+        <v>69</v>
+      </c>
+      <c r="G55" s="11">
+        <v>72</v>
+      </c>
+      <c r="H55" s="11">
+        <v>72</v>
+      </c>
+      <c r="I55" s="11">
+        <v>73</v>
+      </c>
+      <c r="J55" s="11">
+        <v>286</v>
+      </c>
+      <c r="K55" s="7">
+        <v>9</v>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="16">
+        <v>2</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3</v>
+      </c>
+      <c r="F56" s="11">
+        <v>68</v>
+      </c>
+      <c r="G56" s="11">
+        <v>71</v>
+      </c>
+      <c r="H56" s="11">
+        <v>73</v>
+      </c>
+      <c r="I56" s="11">
+        <v>74</v>
+      </c>
+      <c r="J56" s="11">
+        <v>286</v>
+      </c>
+      <c r="K56" s="7">
+        <v>9</v>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="11">
+        <v>3</v>
+      </c>
+      <c r="F57" s="11">
+        <v>72</v>
+      </c>
+      <c r="G57" s="11">
+        <v>69</v>
+      </c>
+      <c r="H57" s="11">
+        <v>71</v>
+      </c>
+      <c r="I57" s="11">
+        <v>74</v>
+      </c>
+      <c r="J57" s="11">
+        <v>286</v>
+      </c>
+      <c r="K57" s="7">
+        <v>9</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="16">
+        <v>3</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>71</v>
+      </c>
+      <c r="G58" s="11">
+        <v>70</v>
+      </c>
+      <c r="H58" s="11">
+        <v>74</v>
+      </c>
+      <c r="I58" s="11">
+        <v>72</v>
+      </c>
+      <c r="J58" s="11">
+        <v>287</v>
+      </c>
+      <c r="K58" s="7">
+        <v>9</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="16">
+        <v>4</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11">
+        <v>71</v>
+      </c>
+      <c r="G59" s="11">
+        <v>72</v>
+      </c>
+      <c r="H59" s="11">
+        <v>73</v>
+      </c>
+      <c r="I59" s="11">
+        <v>72</v>
+      </c>
+      <c r="J59" s="11">
+        <v>288</v>
+      </c>
+      <c r="K59" s="7">
+        <v>9</v>
+      </c>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="16">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11">
+        <v>5</v>
+      </c>
+      <c r="F60" s="11">
+        <v>71</v>
+      </c>
+      <c r="G60" s="11">
+        <v>72</v>
+      </c>
+      <c r="H60" s="11">
+        <v>69</v>
+      </c>
+      <c r="I60" s="11">
+        <v>76</v>
+      </c>
+      <c r="J60" s="11">
+        <v>288</v>
+      </c>
+      <c r="K60" s="7">
+        <v>9</v>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="16">
+        <v>4</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="F61" s="11">
+        <v>71</v>
+      </c>
+      <c r="G61" s="11">
+        <v>69</v>
+      </c>
+      <c r="H61" s="11">
+        <v>70</v>
+      </c>
+      <c r="I61" s="11">
+        <v>78</v>
+      </c>
+      <c r="J61" s="11">
+        <v>288</v>
+      </c>
+      <c r="K61" s="7">
+        <v>9</v>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="16">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="11">
+        <v>2</v>
+      </c>
+      <c r="F62" s="11">
+        <v>72</v>
+      </c>
+      <c r="G62" s="11">
+        <v>71</v>
+      </c>
+      <c r="H62" s="11">
+        <v>73</v>
+      </c>
+      <c r="I62" s="11">
+        <v>73</v>
+      </c>
+      <c r="J62" s="11">
+        <v>289</v>
+      </c>
+      <c r="K62" s="7">
+        <v>9</v>
+      </c>
+      <c r="L62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="16">
+        <v>5</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="11">
+        <v>3</v>
+      </c>
+      <c r="F63" s="11">
+        <v>73</v>
+      </c>
+      <c r="G63" s="11">
+        <v>69</v>
+      </c>
+      <c r="H63" s="11">
+        <v>73</v>
+      </c>
+      <c r="I63" s="11">
+        <v>74</v>
+      </c>
+      <c r="J63" s="11">
+        <v>289</v>
+      </c>
+      <c r="K63" s="7">
+        <v>9</v>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="16">
+        <v>6</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="11">
+        <v>3</v>
+      </c>
+      <c r="F64" s="11">
+        <v>72</v>
+      </c>
+      <c r="G64" s="11">
+        <v>70</v>
+      </c>
+      <c r="H64" s="11">
+        <v>74</v>
+      </c>
+      <c r="I64" s="11">
+        <v>74</v>
+      </c>
+      <c r="J64" s="11">
+        <v>290</v>
+      </c>
+      <c r="K64" s="7">
+        <v>9</v>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="16">
+        <v>6</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="11">
+        <v>5</v>
+      </c>
+      <c r="F65" s="11">
+        <v>74</v>
+      </c>
+      <c r="G65" s="11">
+        <v>68</v>
+      </c>
+      <c r="H65" s="11">
+        <v>72</v>
+      </c>
+      <c r="I65" s="11">
+        <v>76</v>
+      </c>
+      <c r="J65" s="11">
+        <v>290</v>
+      </c>
+      <c r="K65" s="7">
+        <v>9</v>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="16">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11">
+        <v>73</v>
+      </c>
+      <c r="G66" s="11">
+        <v>69</v>
+      </c>
+      <c r="H66" s="11">
+        <v>77</v>
+      </c>
+      <c r="I66" s="11">
+        <v>72</v>
+      </c>
+      <c r="J66" s="11">
+        <v>291</v>
+      </c>
+      <c r="K66" s="7">
+        <v>9</v>
+      </c>
+      <c r="L66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="16">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="11">
+        <v>3</v>
+      </c>
+      <c r="F67" s="11">
+        <v>66</v>
+      </c>
+      <c r="G67" s="11">
+        <v>75</v>
+      </c>
+      <c r="H67" s="11">
+        <v>76</v>
+      </c>
+      <c r="I67" s="11">
+        <v>74</v>
+      </c>
+      <c r="J67" s="11">
+        <v>291</v>
+      </c>
+      <c r="K67" s="7">
+        <v>9</v>
+      </c>
+      <c r="L67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="16">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="11">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>66</v>
-      </c>
-      <c r="G12" s="6">
-        <v>68</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="F68" s="11">
+        <v>72</v>
+      </c>
+      <c r="G68" s="11">
+        <v>71</v>
+      </c>
+      <c r="H68" s="11">
+        <v>73</v>
+      </c>
+      <c r="I68" s="11">
+        <v>75</v>
+      </c>
+      <c r="J68" s="11">
+        <v>291</v>
+      </c>
+      <c r="K68" s="7">
+        <v>9</v>
+      </c>
+      <c r="L68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="16">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="11">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11">
+        <v>73</v>
+      </c>
+      <c r="G69" s="11">
+        <v>70</v>
+      </c>
+      <c r="H69" s="11">
+        <v>73</v>
+      </c>
+      <c r="I69" s="11">
+        <v>75</v>
+      </c>
+      <c r="J69" s="11">
+        <v>291</v>
+      </c>
+      <c r="K69" s="7">
+        <v>9</v>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="16">
+        <v>8</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="11">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11">
+        <v>75</v>
+      </c>
+      <c r="G70" s="11">
+        <v>67</v>
+      </c>
+      <c r="H70" s="11">
+        <v>74</v>
+      </c>
+      <c r="I70" s="11">
+        <v>76</v>
+      </c>
+      <c r="J70" s="11">
+        <v>292</v>
+      </c>
+      <c r="K70" s="7">
+        <v>9</v>
+      </c>
+      <c r="L70" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="I12" s="6">
-        <v>72</v>
-      </c>
-      <c r="J12" s="6">
-        <v>275</v>
-      </c>
-      <c r="K12" s="7">
-        <v>7</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="6">
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="16">
+        <v>8</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="11">
+        <v>9</v>
+      </c>
+      <c r="F71" s="11">
+        <v>71</v>
+      </c>
+      <c r="G71" s="11">
+        <v>69</v>
+      </c>
+      <c r="H71" s="11">
+        <v>72</v>
+      </c>
+      <c r="I71" s="11">
+        <v>80</v>
+      </c>
+      <c r="J71" s="11">
+        <v>292</v>
+      </c>
+      <c r="K71" s="7">
+        <v>9</v>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="16">
+        <v>10</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="11">
+        <v>3</v>
+      </c>
+      <c r="F72" s="11">
+        <v>73</v>
+      </c>
+      <c r="G72" s="11">
         <v>70</v>
       </c>
-      <c r="G13" s="6">
-        <v>66</v>
-      </c>
-      <c r="H13" s="6">
-        <v>71</v>
-      </c>
-      <c r="I13" s="6">
-        <v>69</v>
-      </c>
-      <c r="J13" s="6">
-        <v>276</v>
-      </c>
-      <c r="K13" s="7">
-        <v>7</v>
-      </c>
-      <c r="L13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>67</v>
-      </c>
-      <c r="G14" s="6">
-        <v>66</v>
-      </c>
-      <c r="H14" s="6">
-        <v>72</v>
-      </c>
-      <c r="I14" s="6">
-        <v>71</v>
-      </c>
-      <c r="J14" s="6">
-        <v>276</v>
-      </c>
-      <c r="K14" s="7">
-        <v>7</v>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6">
-        <v>66</v>
-      </c>
-      <c r="H15" s="6">
-        <v>68</v>
-      </c>
-      <c r="I15" s="6">
-        <v>73</v>
-      </c>
-      <c r="J15" s="6">
-        <v>276</v>
-      </c>
-      <c r="K15" s="7">
-        <v>7</v>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>71</v>
-      </c>
-      <c r="G16" s="6">
-        <v>67</v>
-      </c>
-      <c r="H16" s="6">
-        <v>72</v>
-      </c>
-      <c r="I16" s="6">
-        <v>67</v>
-      </c>
-      <c r="J16" s="6">
-        <v>277</v>
-      </c>
-      <c r="K16" s="7">
-        <v>7</v>
-      </c>
-      <c r="L16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>70</v>
-      </c>
-      <c r="G17" s="6">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6">
-        <v>67</v>
-      </c>
-      <c r="I17" s="6">
-        <v>70</v>
-      </c>
-      <c r="J17" s="6">
-        <v>277</v>
-      </c>
-      <c r="K17" s="7">
-        <v>7</v>
-      </c>
-      <c r="L17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>68</v>
-      </c>
-      <c r="G18" s="6">
-        <v>68</v>
-      </c>
-      <c r="H18" s="6">
-        <v>70</v>
-      </c>
-      <c r="I18" s="6">
-        <v>71</v>
-      </c>
-      <c r="J18" s="6">
-        <v>277</v>
-      </c>
-      <c r="K18" s="7">
-        <v>7</v>
-      </c>
-      <c r="L18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
-        <v>68</v>
-      </c>
-      <c r="G19" s="6">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6">
-        <v>69</v>
-      </c>
-      <c r="I19" s="6">
-        <v>72</v>
-      </c>
-      <c r="J19" s="6">
-        <v>277</v>
-      </c>
-      <c r="K19" s="7">
-        <v>7</v>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>73</v>
-      </c>
-      <c r="G20" s="6">
-        <v>65</v>
-      </c>
-      <c r="H20" s="6">
-        <v>67</v>
-      </c>
-      <c r="I20" s="6">
-        <v>72</v>
-      </c>
-      <c r="J20" s="6">
-        <v>277</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>66</v>
-      </c>
-      <c r="G21" s="6">
-        <v>67</v>
-      </c>
-      <c r="H21" s="6">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H72" s="11">
+        <v>77</v>
+      </c>
+      <c r="I72" s="11">
         <v>74</v>
       </c>
-      <c r="J21" s="6">
-        <v>277</v>
-      </c>
-      <c r="K21" s="7">
-        <v>7</v>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>69</v>
-      </c>
-      <c r="G22" s="6">
-        <v>65</v>
-      </c>
-      <c r="H22" s="6">
-        <v>73</v>
-      </c>
-      <c r="I22" s="6">
-        <v>71</v>
-      </c>
-      <c r="J22" s="6">
-        <v>278</v>
-      </c>
-      <c r="K22" s="7">
-        <v>7</v>
-      </c>
-      <c r="L22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6">
-        <v>66</v>
-      </c>
-      <c r="G23" s="6">
-        <v>65</v>
-      </c>
-      <c r="H23" s="6">
-        <v>73</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="J72" s="11">
+        <v>294</v>
+      </c>
+      <c r="K72" s="7">
+        <v>9</v>
+      </c>
+      <c r="L72" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="16">
+        <v>10</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="11">
+        <v>6</v>
+      </c>
+      <c r="F73" s="11">
+        <v>72</v>
+      </c>
+      <c r="G73" s="11">
+        <v>71</v>
+      </c>
+      <c r="H73" s="11">
         <v>74</v>
       </c>
-      <c r="J23" s="6">
-        <v>278</v>
-      </c>
-      <c r="K23" s="7">
-        <v>7</v>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F24" s="6">
-        <v>73</v>
-      </c>
-      <c r="G24" s="6">
-        <v>64</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="I73" s="11">
         <v>77</v>
       </c>
-      <c r="I24" s="6">
-        <v>65</v>
-      </c>
-      <c r="J24" s="6">
-        <v>279</v>
-      </c>
-      <c r="K24" s="7">
-        <v>7</v>
-      </c>
-      <c r="L24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>69</v>
-      </c>
-      <c r="G25" s="6">
-        <v>69</v>
-      </c>
-      <c r="H25" s="6">
-        <v>73</v>
-      </c>
-      <c r="I25" s="6">
-        <v>68</v>
-      </c>
-      <c r="J25" s="6">
-        <v>279</v>
-      </c>
-      <c r="K25" s="7">
-        <v>7</v>
-      </c>
-      <c r="L25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>71</v>
-      </c>
-      <c r="G26" s="6">
-        <v>70</v>
-      </c>
-      <c r="H26" s="6">
-        <v>69</v>
-      </c>
-      <c r="I26" s="6">
-        <v>69</v>
-      </c>
-      <c r="J26" s="6">
-        <v>279</v>
-      </c>
-      <c r="K26" s="7">
-        <v>7</v>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>70</v>
-      </c>
-      <c r="G27" s="6">
-        <v>71</v>
-      </c>
-      <c r="H27" s="6">
-        <v>67</v>
-      </c>
-      <c r="I27" s="6">
-        <v>71</v>
-      </c>
-      <c r="J27" s="6">
-        <v>279</v>
-      </c>
-      <c r="K27" s="7">
-        <v>7</v>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>68</v>
-      </c>
-      <c r="G28" s="6">
-        <v>72</v>
-      </c>
-      <c r="H28" s="6">
-        <v>71</v>
-      </c>
-      <c r="I28" s="6">
-        <v>69</v>
-      </c>
-      <c r="J28" s="6">
-        <v>280</v>
-      </c>
-      <c r="K28" s="7">
-        <v>7</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6">
-        <v>68</v>
-      </c>
-      <c r="G29" s="6">
-        <v>71</v>
-      </c>
-      <c r="H29" s="6">
-        <v>71</v>
-      </c>
-      <c r="I29" s="6">
-        <v>70</v>
-      </c>
-      <c r="J29" s="6">
-        <v>280</v>
-      </c>
-      <c r="K29" s="7">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6">
-        <v>66</v>
-      </c>
-      <c r="G30" s="6">
-        <v>69</v>
-      </c>
-      <c r="H30" s="6">
-        <v>73</v>
-      </c>
-      <c r="I30" s="6">
-        <v>72</v>
-      </c>
-      <c r="J30" s="6">
-        <v>280</v>
-      </c>
-      <c r="K30" s="7">
-        <v>7</v>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>72</v>
-      </c>
-      <c r="G31" s="6">
-        <v>69</v>
-      </c>
-      <c r="H31" s="6">
-        <v>67</v>
-      </c>
-      <c r="I31" s="6">
-        <v>72</v>
-      </c>
-      <c r="J31" s="6">
-        <v>280</v>
-      </c>
-      <c r="K31" s="7">
-        <v>7</v>
-      </c>
-      <c r="L31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3</v>
-      </c>
-      <c r="F32" s="6">
-        <v>68</v>
-      </c>
-      <c r="G32" s="6">
-        <v>68</v>
-      </c>
-      <c r="H32" s="6">
-        <v>71</v>
-      </c>
-      <c r="I32" s="6">
-        <v>73</v>
-      </c>
-      <c r="J32" s="6">
-        <v>280</v>
-      </c>
-      <c r="K32" s="7">
-        <v>7</v>
-      </c>
-      <c r="L32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6">
-        <v>72</v>
-      </c>
-      <c r="G33" s="6">
-        <v>66</v>
-      </c>
-      <c r="H33" s="6">
-        <v>69</v>
-      </c>
-      <c r="I33" s="6">
-        <v>73</v>
-      </c>
-      <c r="J33" s="6">
-        <v>280</v>
-      </c>
-      <c r="K33" s="7">
-        <v>7</v>
-      </c>
-      <c r="L33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>70</v>
-      </c>
-      <c r="G34" s="6">
-        <v>66</v>
-      </c>
-      <c r="H34" s="6">
-        <v>69</v>
-      </c>
-      <c r="I34" s="6">
-        <v>75</v>
-      </c>
-      <c r="J34" s="6">
-        <v>280</v>
-      </c>
-      <c r="K34" s="7">
-        <v>7</v>
-      </c>
-      <c r="L34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6">
-        <v>8</v>
-      </c>
-      <c r="F35" s="6">
-        <v>66</v>
-      </c>
-      <c r="G35" s="6">
-        <v>68</v>
-      </c>
-      <c r="H35" s="6">
-        <v>68</v>
-      </c>
-      <c r="I35" s="6">
-        <v>78</v>
-      </c>
-      <c r="J35" s="6">
-        <v>280</v>
-      </c>
-      <c r="K35" s="7">
-        <v>7</v>
-      </c>
-      <c r="L35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F36" s="6">
-        <v>71</v>
-      </c>
-      <c r="G36" s="6">
-        <v>70</v>
-      </c>
-      <c r="H36" s="6">
-        <v>74</v>
-      </c>
-      <c r="I36" s="6">
-        <v>66</v>
-      </c>
-      <c r="J36" s="6">
-        <v>281</v>
-      </c>
-      <c r="K36" s="7">
-        <v>7</v>
-      </c>
-      <c r="L36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>68</v>
-      </c>
-      <c r="G37" s="6">
-        <v>71</v>
-      </c>
-      <c r="H37" s="6">
-        <v>73</v>
-      </c>
-      <c r="I37" s="6">
-        <v>69</v>
-      </c>
-      <c r="J37" s="6">
-        <v>281</v>
-      </c>
-      <c r="K37" s="7">
-        <v>7</v>
-      </c>
-      <c r="L37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>70</v>
-      </c>
-      <c r="G38" s="6">
-        <v>69</v>
-      </c>
-      <c r="H38" s="6">
-        <v>73</v>
-      </c>
-      <c r="I38" s="6">
-        <v>69</v>
-      </c>
-      <c r="J38" s="6">
-        <v>281</v>
-      </c>
-      <c r="K38" s="7">
-        <v>7</v>
-      </c>
-      <c r="L38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6">
-        <v>69</v>
-      </c>
-      <c r="G39" s="6">
-        <v>71</v>
-      </c>
-      <c r="H39" s="6">
-        <v>68</v>
-      </c>
-      <c r="I39" s="6">
-        <v>73</v>
-      </c>
-      <c r="J39" s="6">
-        <v>281</v>
-      </c>
-      <c r="K39" s="7">
-        <v>7</v>
-      </c>
-      <c r="L39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
-      <c r="F40" s="6">
-        <v>67</v>
-      </c>
-      <c r="G40" s="6">
-        <v>70</v>
-      </c>
-      <c r="H40" s="6">
-        <v>70</v>
-      </c>
-      <c r="I40" s="6">
-        <v>74</v>
-      </c>
-      <c r="J40" s="6">
-        <v>281</v>
-      </c>
-      <c r="K40" s="7">
-        <v>7</v>
-      </c>
-      <c r="L40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>73</v>
-      </c>
-      <c r="G41" s="6">
-        <v>67</v>
-      </c>
-      <c r="H41" s="6">
-        <v>71</v>
-      </c>
-      <c r="I41" s="6">
-        <v>71</v>
-      </c>
-      <c r="J41" s="6">
-        <v>282</v>
-      </c>
-      <c r="K41" s="7">
-        <v>7</v>
-      </c>
-      <c r="L41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>70</v>
-      </c>
-      <c r="G42" s="6">
-        <v>71</v>
-      </c>
-      <c r="H42" s="6">
-        <v>70</v>
-      </c>
-      <c r="I42" s="6">
-        <v>71</v>
-      </c>
-      <c r="J42" s="6">
-        <v>282</v>
-      </c>
-      <c r="K42" s="7">
-        <v>7</v>
-      </c>
-      <c r="L42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" s="6">
-        <v>70</v>
-      </c>
-      <c r="G43" s="6">
-        <v>69</v>
-      </c>
-      <c r="H43" s="6">
-        <v>71</v>
-      </c>
-      <c r="I43" s="6">
-        <v>72</v>
-      </c>
-      <c r="J43" s="6">
-        <v>282</v>
-      </c>
-      <c r="K43" s="7">
-        <v>7</v>
-      </c>
-      <c r="L43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="6">
-        <v>3</v>
-      </c>
-      <c r="F44" s="6">
-        <v>69</v>
-      </c>
-      <c r="G44" s="6">
-        <v>69</v>
-      </c>
-      <c r="H44" s="6">
-        <v>71</v>
-      </c>
-      <c r="I44" s="6">
-        <v>73</v>
-      </c>
-      <c r="J44" s="6">
-        <v>282</v>
-      </c>
-      <c r="K44" s="7">
-        <v>7</v>
-      </c>
-      <c r="L44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>3</v>
-      </c>
-      <c r="F45" s="6">
-        <v>69</v>
-      </c>
-      <c r="G45" s="6">
-        <v>69</v>
-      </c>
-      <c r="H45" s="6">
-        <v>71</v>
-      </c>
-      <c r="I45" s="6">
-        <v>73</v>
-      </c>
-      <c r="J45" s="6">
-        <v>282</v>
-      </c>
-      <c r="K45" s="7">
-        <v>7</v>
-      </c>
-      <c r="L45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
-        <v>5</v>
-      </c>
-      <c r="F46" s="6">
-        <v>70</v>
-      </c>
-      <c r="G46" s="6">
-        <v>67</v>
-      </c>
-      <c r="H46" s="6">
-        <v>70</v>
-      </c>
-      <c r="I46" s="6">
-        <v>75</v>
-      </c>
-      <c r="J46" s="6">
-        <v>282</v>
-      </c>
-      <c r="K46" s="7">
-        <v>7</v>
-      </c>
-      <c r="L46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>6</v>
-      </c>
-      <c r="F47" s="6">
-        <v>71</v>
-      </c>
-      <c r="G47" s="6">
-        <v>65</v>
-      </c>
-      <c r="H47" s="6">
-        <v>70</v>
-      </c>
-      <c r="I47" s="6">
-        <v>76</v>
-      </c>
-      <c r="J47" s="6">
-        <v>282</v>
-      </c>
-      <c r="K47" s="7">
-        <v>7</v>
-      </c>
-      <c r="L47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>6</v>
-      </c>
-      <c r="F48" s="6">
-        <v>69</v>
-      </c>
-      <c r="G48" s="6">
-        <v>68</v>
-      </c>
-      <c r="H48" s="6">
-        <v>69</v>
-      </c>
-      <c r="I48" s="6">
-        <v>76</v>
-      </c>
-      <c r="J48" s="6">
-        <v>282</v>
-      </c>
-      <c r="K48" s="7">
-        <v>7</v>
-      </c>
-      <c r="L48" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="6">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>71</v>
-      </c>
-      <c r="G49" s="6">
-        <v>68</v>
-      </c>
-      <c r="H49" s="6">
-        <v>73</v>
-      </c>
-      <c r="I49" s="6">
-        <v>71</v>
-      </c>
-      <c r="J49" s="6">
-        <v>283</v>
-      </c>
-      <c r="K49" s="7">
-        <v>7</v>
-      </c>
-      <c r="L49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="6">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" s="6">
-        <v>71</v>
-      </c>
-      <c r="G50" s="6">
-        <v>70</v>
-      </c>
-      <c r="H50" s="6">
-        <v>70</v>
-      </c>
-      <c r="I50" s="6">
-        <v>72</v>
-      </c>
-      <c r="J50" s="6">
-        <v>283</v>
-      </c>
-      <c r="K50" s="7">
-        <v>7</v>
-      </c>
-      <c r="L50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="6">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>3</v>
-      </c>
-      <c r="F51" s="6">
-        <v>70</v>
-      </c>
-      <c r="G51" s="6">
-        <v>70</v>
-      </c>
-      <c r="H51" s="6">
-        <v>70</v>
-      </c>
-      <c r="I51" s="6">
-        <v>73</v>
-      </c>
-      <c r="J51" s="6">
-        <v>283</v>
-      </c>
-      <c r="K51" s="7">
-        <v>7</v>
-      </c>
-      <c r="L51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="6">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6">
-        <v>4</v>
-      </c>
-      <c r="F52" s="6">
-        <v>66</v>
-      </c>
-      <c r="G52" s="6">
-        <v>71</v>
-      </c>
-      <c r="H52" s="6">
-        <v>72</v>
-      </c>
-      <c r="I52" s="6">
-        <v>74</v>
-      </c>
-      <c r="J52" s="6">
-        <v>283</v>
-      </c>
-      <c r="K52" s="7">
-        <v>7</v>
-      </c>
-      <c r="L52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="6">
-        <v>4</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" s="6">
-        <v>68</v>
-      </c>
-      <c r="G53" s="6">
-        <v>70</v>
-      </c>
-      <c r="H53" s="6">
-        <v>74</v>
-      </c>
-      <c r="I53" s="6">
-        <v>72</v>
-      </c>
-      <c r="J53" s="6">
-        <v>284</v>
-      </c>
-      <c r="K53" s="7">
-        <v>7</v>
-      </c>
-      <c r="L53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="6">
-        <v>4</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>71</v>
-      </c>
-      <c r="G54" s="6">
-        <v>70</v>
-      </c>
-      <c r="H54" s="6">
-        <v>72</v>
-      </c>
-      <c r="I54" s="6">
-        <v>71</v>
-      </c>
-      <c r="J54" s="6">
-        <v>284</v>
-      </c>
-      <c r="K54" s="7">
-        <v>7</v>
-      </c>
-      <c r="L54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="6">
-        <v>4</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" s="6">
-        <v>69</v>
-      </c>
-      <c r="G55" s="6">
-        <v>69</v>
-      </c>
-      <c r="H55" s="6">
-        <v>74</v>
-      </c>
-      <c r="I55" s="6">
-        <v>72</v>
-      </c>
-      <c r="J55" s="6">
-        <v>284</v>
-      </c>
-      <c r="K55" s="7">
-        <v>7</v>
-      </c>
-      <c r="L55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="6">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>3</v>
-      </c>
-      <c r="F56" s="6">
-        <v>71</v>
-      </c>
-      <c r="G56" s="6">
-        <v>69</v>
-      </c>
-      <c r="H56" s="6">
-        <v>71</v>
-      </c>
-      <c r="I56" s="6">
-        <v>73</v>
-      </c>
-      <c r="J56" s="6">
-        <v>284</v>
-      </c>
-      <c r="K56" s="7">
-        <v>7</v>
-      </c>
-      <c r="L56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="6">
-        <v>4</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>6</v>
-      </c>
-      <c r="F57" s="6">
-        <v>68</v>
-      </c>
-      <c r="G57" s="6">
-        <v>66</v>
-      </c>
-      <c r="H57" s="6">
-        <v>74</v>
-      </c>
-      <c r="I57" s="6">
-        <v>76</v>
-      </c>
-      <c r="J57" s="6">
-        <v>284</v>
-      </c>
-      <c r="K57" s="7">
-        <v>7</v>
-      </c>
-      <c r="L57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="6">
-        <v>5</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6">
-        <v>3</v>
-      </c>
-      <c r="F58" s="6">
-        <v>69</v>
-      </c>
-      <c r="G58" s="6">
-        <v>71</v>
-      </c>
-      <c r="H58" s="6">
-        <v>72</v>
-      </c>
-      <c r="I58" s="6">
-        <v>73</v>
-      </c>
-      <c r="J58" s="6">
-        <v>285</v>
-      </c>
-      <c r="K58" s="7">
-        <v>7</v>
-      </c>
-      <c r="L58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="6">
-        <v>5</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>4</v>
-      </c>
-      <c r="F59" s="6">
-        <v>73</v>
-      </c>
-      <c r="G59" s="6">
-        <v>66</v>
-      </c>
-      <c r="H59" s="6">
-        <v>72</v>
-      </c>
-      <c r="I59" s="6">
-        <v>74</v>
-      </c>
-      <c r="J59" s="6">
-        <v>285</v>
-      </c>
-      <c r="K59" s="7">
-        <v>7</v>
-      </c>
-      <c r="L59" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="6">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6">
-        <v>5</v>
-      </c>
-      <c r="F60" s="6">
-        <v>69</v>
-      </c>
-      <c r="G60" s="6">
-        <v>70</v>
-      </c>
-      <c r="H60" s="6">
-        <v>71</v>
-      </c>
-      <c r="I60" s="6">
-        <v>75</v>
-      </c>
-      <c r="J60" s="6">
-        <v>285</v>
-      </c>
-      <c r="K60" s="7">
-        <v>7</v>
-      </c>
-      <c r="L60" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="6">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>5</v>
-      </c>
-      <c r="F61" s="6">
-        <v>69</v>
-      </c>
-      <c r="G61" s="6">
-        <v>71</v>
-      </c>
-      <c r="H61" s="6">
-        <v>70</v>
-      </c>
-      <c r="I61" s="6">
-        <v>75</v>
-      </c>
-      <c r="J61" s="6">
-        <v>285</v>
-      </c>
-      <c r="K61" s="7">
-        <v>7</v>
-      </c>
-      <c r="L61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="6">
-        <v>5</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>5</v>
-      </c>
-      <c r="F62" s="6">
-        <v>71</v>
-      </c>
-      <c r="G62" s="6">
-        <v>69</v>
-      </c>
-      <c r="H62" s="6">
-        <v>70</v>
-      </c>
-      <c r="I62" s="6">
-        <v>75</v>
-      </c>
-      <c r="J62" s="6">
-        <v>285</v>
-      </c>
-      <c r="K62" s="7">
-        <v>7</v>
-      </c>
-      <c r="L62" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="6">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>9</v>
-      </c>
-      <c r="F63" s="6">
-        <v>70</v>
-      </c>
-      <c r="G63" s="6">
-        <v>69</v>
-      </c>
-      <c r="H63" s="6">
-        <v>67</v>
-      </c>
-      <c r="I63" s="6">
-        <v>79</v>
-      </c>
-      <c r="J63" s="6">
-        <v>285</v>
-      </c>
-      <c r="K63" s="7">
-        <v>7</v>
-      </c>
-      <c r="L63" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="6">
-        <v>6</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6">
-        <v>5</v>
-      </c>
-      <c r="F64" s="6">
-        <v>71</v>
-      </c>
-      <c r="G64" s="6">
-        <v>70</v>
-      </c>
-      <c r="H64" s="6">
-        <v>70</v>
-      </c>
-      <c r="I64" s="6">
-        <v>75</v>
-      </c>
-      <c r="J64" s="6">
-        <v>286</v>
-      </c>
-      <c r="K64" s="7">
-        <v>7</v>
-      </c>
-      <c r="L64" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="6">
-        <v>6</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <v>8</v>
-      </c>
-      <c r="F65" s="6">
-        <v>69</v>
-      </c>
-      <c r="G65" s="6">
-        <v>68</v>
-      </c>
-      <c r="H65" s="6">
-        <v>71</v>
-      </c>
-      <c r="I65" s="6">
-        <v>78</v>
-      </c>
-      <c r="J65" s="6">
-        <v>286</v>
-      </c>
-      <c r="K65" s="7">
-        <v>7</v>
-      </c>
-      <c r="L65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="6">
-        <v>6</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6">
-        <v>8</v>
-      </c>
-      <c r="F66" s="6">
-        <v>67</v>
-      </c>
-      <c r="G66" s="6">
-        <v>71</v>
-      </c>
-      <c r="H66" s="6">
-        <v>70</v>
-      </c>
-      <c r="I66" s="6">
-        <v>78</v>
-      </c>
-      <c r="J66" s="6">
-        <v>286</v>
-      </c>
-      <c r="K66" s="7">
-        <v>7</v>
-      </c>
-      <c r="L66" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="6">
-        <v>7</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6">
-        <v>8</v>
-      </c>
-      <c r="F67" s="6">
-        <v>68</v>
-      </c>
-      <c r="G67" s="6">
-        <v>70</v>
-      </c>
-      <c r="H67" s="6">
-        <v>71</v>
-      </c>
-      <c r="I67" s="6">
-        <v>78</v>
-      </c>
-      <c r="J67" s="6">
-        <v>287</v>
-      </c>
-      <c r="K67" s="7">
-        <v>7</v>
-      </c>
-      <c r="L67" s="8">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="6">
-        <v>8</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" s="6">
-        <v>69</v>
-      </c>
-      <c r="G68" s="6">
-        <v>71</v>
-      </c>
-      <c r="H68" s="6">
-        <v>76</v>
-      </c>
-      <c r="I68" s="6">
-        <v>72</v>
-      </c>
-      <c r="J68" s="6">
-        <v>288</v>
-      </c>
-      <c r="K68" s="7">
-        <v>7</v>
-      </c>
-      <c r="L68" s="8">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="6">
-        <v>9</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
-        <v>4</v>
-      </c>
-      <c r="F69" s="6">
-        <v>71</v>
-      </c>
-      <c r="G69" s="6">
-        <v>68</v>
-      </c>
-      <c r="H69" s="6">
-        <v>76</v>
-      </c>
-      <c r="I69" s="6">
-        <v>74</v>
-      </c>
-      <c r="J69" s="6">
-        <v>289</v>
-      </c>
-      <c r="K69" s="7">
-        <v>7</v>
-      </c>
-      <c r="L69" s="8">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="6">
-        <v>15</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>10</v>
-      </c>
-      <c r="F70" s="6">
-        <v>69</v>
-      </c>
-      <c r="G70" s="6">
-        <v>71</v>
-      </c>
-      <c r="H70" s="6">
-        <v>75</v>
-      </c>
-      <c r="I70" s="6">
-        <v>80</v>
-      </c>
-      <c r="J70" s="6">
-        <v>295</v>
-      </c>
-      <c r="K70" s="7">
-        <v>7</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="6">
-        <v>9</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="6">
-        <v>4</v>
-      </c>
-      <c r="F71" s="6">
-        <v>72</v>
-      </c>
-      <c r="G71" s="6">
-        <v>74</v>
-      </c>
-      <c r="H71" s="6">
-        <v>75</v>
-      </c>
-      <c r="I71" s="6">
-        <v>76</v>
-      </c>
-      <c r="J71" s="6">
-        <v>297</v>
-      </c>
-      <c r="K71" s="7">
-        <v>7</v>
-      </c>
-      <c r="L71" s="8">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J73" s="11">
+        <v>294</v>
+      </c>
+      <c r="K73" s="7">
+        <v>9</v>
+      </c>
+      <c r="L73" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3801,7 +4020,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3814,7 +4033,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3827,7 +4046,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3840,7 +4059,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3853,7 +4072,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3868,6 +4087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3879,20 +4099,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +4153,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3975,7 +4195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4017,7 +4237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4059,7 +4279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4098,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4137,7 +4357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4176,7 +4396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4293,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +4591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4410,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4488,7 +4708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4527,7 +4747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4566,7 +4786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4605,7 +4825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4644,7 +4864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4683,7 +4903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4722,7 +4942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -4761,7 +4981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4800,7 +5020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -4839,7 +5059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +5098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4917,7 +5137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +5176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4995,7 +5215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5034,7 +5254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -5073,7 +5293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -5112,7 +5332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -5151,7 +5371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -5229,7 +5449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +5488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -5307,7 +5527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -5346,7 +5566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -5385,7 +5605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -5424,7 +5644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -5463,7 +5683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5502,7 +5722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -5541,7 +5761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5580,7 +5800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -5619,7 +5839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -5658,7 +5878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5736,7 +5956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5775,7 +5995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5814,7 +6034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +6073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -5892,7 +6112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +6151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -5970,7 +6190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -6009,7 +6229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -6048,7 +6268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -6087,7 +6307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -6126,7 +6346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6165,7 +6385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -6204,7 +6424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6243,7 +6463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -6282,7 +6502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -6321,7 +6541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -6360,7 +6580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -6399,7 +6619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -6438,7 +6658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -6477,7 +6697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -6516,7 +6736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -6555,7 +6775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -6594,7 +6814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -6633,7 +6853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -6672,7 +6892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -6711,7 +6931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6750,7 +6970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -6789,7 +7009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -6828,7 +7048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -6867,7 +7087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -6906,7 +7126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -6945,7 +7165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -6984,7 +7204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>17</v>
       </c>
